--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8317163A-62FA-44EF-AB2B-ECB376FB9289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0680F2-E31C-4328-908D-A5E15D490617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -34,9 +34,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>Sheikh Muhammad Adib</t>
+  </si>
+  <si>
+    <t>Bin Sh Abu Bakar</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Project 1 : Traffic Light for one way</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>Group :TuringJuniors</t>
   </si>
 </sst>
 </file>
@@ -388,14 +412,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
     </row>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0680F2-E31C-4328-908D-A5E15D490617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97BA24C-7A58-4132-8538-BEF8F12092FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -48,9 +47,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name </t>
   </si>
   <si>
@@ -61,6 +57,24 @@
   </si>
   <si>
     <t>Group :TuringJuniors</t>
+  </si>
+  <si>
+    <t>Week 42</t>
+  </si>
+  <si>
+    <t>Zafirul Izzat Bin Mohamad Zaidi</t>
+  </si>
+  <si>
+    <t>Week 41</t>
+  </si>
+  <si>
+    <t>Project 2 : Traffic Light for vehicles and pedestrians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drew the class diagram </t>
+  </si>
+  <si>
+    <t>Date : 12/10/2020</t>
   </si>
 </sst>
 </file>
@@ -412,20 +426,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -433,7 +447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -441,27 +455,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0680F2-E31C-4328-908D-A5E15D490617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0285B9A0-FF78-492D-B56B-CB305D083C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name </t>
   </si>
   <si>
@@ -61,6 +58,12 @@
   </si>
   <si>
     <t>Group :TuringJuniors</t>
+  </si>
+  <si>
+    <t>Source code</t>
+  </si>
+  <si>
+    <t>Week 41</t>
   </si>
 </sst>
 </file>
@@ -415,14 +418,14 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -443,25 +446,28 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97BA24C-7A58-4132-8538-BEF8F12092FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312928DE-8CCC-4B96-BF97-D2926A02C772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -74,7 +74,10 @@
     <t xml:space="preserve">Drew the class diagram </t>
   </si>
   <si>
-    <t>Date : 12/10/2020</t>
+    <t>Date : 12/10/2020 : Discussion with Prof. Stefan Henkler regardings on our first project</t>
+  </si>
+  <si>
+    <t>Edit the source code</t>
   </si>
 </sst>
 </file>
@@ -426,20 +429,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -447,7 +450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -455,17 +458,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -473,12 +476,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -486,18 +492,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>11</v>
       </c>
     </row>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312928DE-8CCC-4B96-BF97-D2926A02C772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D33D674-4426-405A-96E3-7B94766CE800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>Edit the source code</t>
+  </si>
+  <si>
+    <t>Hadi Imran Bin Md Radzi</t>
+  </si>
+  <si>
+    <t>Drew the state diagram</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Drew the class diagram</t>
   </si>
 </sst>
 </file>
@@ -429,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="53" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,6 +507,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
@@ -505,6 +528,22 @@
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D33D674-4426-405A-96E3-7B94766CE800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0402E161-F5F7-4B2D-BA32-B06936199403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,6 +145,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158152</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>92252</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>118551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF8B3C7-7E17-43F3-8CAF-FD826226D14A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="158152" y="4068793"/>
+          <a:ext cx="2349496" cy="1656928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>388188</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323941</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>90315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BE59CC-0311-43CC-AEB9-DA4AF4932A64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2803584" y="4011283"/>
+          <a:ext cx="3558848" cy="6919560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>135572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E494D7-F6F9-413D-AF30-38AC931140EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="3911600"/>
+          <a:ext cx="7772400" cy="3513772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="53" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,38 +670,39 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>17</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D72" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>15</v>
       </c>
-      <c r="E50" t="s">
+      <c r="D73" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0402E161-F5F7-4B2D-BA32-B06936199403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C3C1C7-1D24-4F5C-87AE-59D5345DD082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Drew the class diagram</t>
+  </si>
+  <si>
+    <t>Hadi Imran</t>
+  </si>
+  <si>
+    <t>Bin Md Radzi</t>
   </si>
 </sst>
 </file>
@@ -601,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,6 +634,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C3C1C7-1D24-4F5C-87AE-59D5345DD082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321980C0-653C-4C6D-9762-FF85804FCB28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Bin Md Radzi</t>
+  </si>
+  <si>
+    <t>Zafirul Izzat Bin</t>
+  </si>
+  <si>
+    <t>Mohamad Zaidi</t>
   </si>
 </sst>
 </file>
@@ -607,18 +613,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -626,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -634,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -642,17 +648,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -660,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -668,7 +682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -676,7 +690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -684,22 +698,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -707,7 +721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>15</v>
       </c>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321980C0-653C-4C6D-9762-FF85804FCB28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1146E9-BFC7-4F11-BB5D-C41411EBA147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Mohamad Zaidi</t>
+  </si>
+  <si>
+    <t>Week 43</t>
+  </si>
+  <si>
+    <t>Project 3 : Traffic Light for vehicles, pedestrians, and buses</t>
+  </si>
+  <si>
+    <t>Edit the source code for the state diagram</t>
   </si>
 </sst>
 </file>
@@ -611,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -729,6 +738,40 @@
         <v>19</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1146E9-BFC7-4F11-BB5D-C41411EBA147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4155A613-5E29-4CC2-83CE-00D03CD5D883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Edit the source code for the state diagram</t>
+  </si>
+  <si>
+    <t>Source Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheikh Muhammad Adib </t>
+  </si>
+  <si>
+    <t>UML State Diagram</t>
   </si>
 </sst>
 </file>
@@ -620,20 +629,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -641,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -649,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -657,7 +666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -665,17 +674,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -683,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -691,7 +700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -699,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -707,22 +716,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -730,7 +739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -738,7 +747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -746,17 +755,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -764,12 +781,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>9</v>
       </c>
       <c r="D105" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar Haziq\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4155A613-5E29-4CC2-83CE-00D03CD5D883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BB88A3-C042-4C4B-B762-17F07662C910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>UML State Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammar Haziq </t>
+  </si>
+  <si>
+    <t>Bin Mohd Halim</t>
+  </si>
+  <si>
+    <t>Ammar Haziq Bin Mohd Halim</t>
+  </si>
+  <si>
+    <t>Edit the class diagram</t>
+  </si>
+  <si>
+    <t>Class diagram</t>
   </si>
 </sst>
 </file>
@@ -629,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="95" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,6 +689,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
@@ -716,6 +739,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
@@ -763,6 +794,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>24</v>
@@ -795,6 +834,14 @@
       </c>
       <c r="D106" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar Haziq\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BB88A3-C042-4C4B-B762-17F07662C910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EFE906-9BF1-48C2-8529-79A7A1CEE1D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -336,6 +336,106 @@
         <a:xfrm>
           <a:off x="6705600" y="3911600"/>
           <a:ext cx="7772400" cy="3513772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>537410</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>15004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>32084</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>8384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F174ED-6A01-4A99-ACC4-CF8E1BF44EF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="537410" y="19939299"/>
+          <a:ext cx="4981074" cy="2760643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>32086</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>29809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>56148</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>104273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD85681-24CB-4EFD-8CD6-C1E6A66CF911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5518486" y="19954104"/>
+          <a:ext cx="4291262" cy="7453832"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -646,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="95" workbookViewId="0">
+      <selection activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar Haziq\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EFE906-9BF1-48C2-8529-79A7A1CEE1D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A5C327-27B1-44E8-ADA4-7754B584EE6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,6 +436,56 @@
         <a:xfrm>
           <a:off x="5518486" y="19954104"/>
           <a:ext cx="4291262" cy="7453832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>12032</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>40606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1FC15A-0F20-4E0E-B76C-5BAF1573480D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10347158" y="19671632"/>
+          <a:ext cx="7772400" cy="4371974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,18 +796,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="95" workbookViewId="0">
-      <selection activeCell="L117" sqref="L117"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="95" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -765,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -773,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -781,7 +831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -789,7 +839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -797,17 +847,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -815,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -823,7 +873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -831,7 +881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -839,7 +889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -847,22 +897,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -870,7 +920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -878,7 +928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -886,7 +936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -894,7 +944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -902,17 +952,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -920,7 +970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -928,7 +978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>28</v>
       </c>
@@ -936,7 +986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>32</v>
       </c>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar Haziq\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A5C327-27B1-44E8-ADA4-7754B584EE6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559150A-A0A4-441B-85F7-303FF26E55E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,6 +486,56 @@
         <a:xfrm>
           <a:off x="10347158" y="19671632"/>
           <a:ext cx="7772400" cy="4371974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>264696</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>119033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>48127</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>15065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9673EAF6-7C6B-408B-95EC-DDA4554E692C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2703096" y="14139833"/>
+          <a:ext cx="3441031" cy="3954685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -796,18 +846,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="95" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -815,7 +865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -823,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -831,7 +881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -839,7 +889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -847,17 +897,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -865,7 +915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -873,7 +923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -881,7 +931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -889,7 +939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -897,22 +947,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -920,7 +970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -928,7 +978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -936,7 +986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -944,7 +994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -952,17 +1002,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -970,7 +1020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -978,7 +1028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>28</v>
       </c>
@@ -986,7 +1036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>32</v>
       </c>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar Haziq\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559150A-A0A4-441B-85F7-303FF26E55E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0ED081-13C3-47F6-AB91-A10F373000D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Class diagram</t>
+  </si>
+  <si>
+    <t>Date :  26/10/2020 : Prof ask to draw a schematic diagram in addition to the project</t>
+  </si>
+  <si>
+    <t>Prepare a slide presentation for next week (max 2 minutes per person)</t>
+  </si>
+  <si>
+    <t>Add some more comments and tabs to the source code to make it more readable</t>
   </si>
 </sst>
 </file>
@@ -497,15 +506,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>264696</xdr:colOff>
+      <xdr:colOff>463826</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>119033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>48127</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>15065</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152657</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -534,8 +543,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2703096" y="14139833"/>
-          <a:ext cx="3441031" cy="3954685"/>
+          <a:off x="2893391" y="13967555"/>
+          <a:ext cx="3228649" cy="3677972"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -844,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="138" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,6 +1053,21 @@
         <v>34</v>
       </c>
     </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar Haziq\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0ED081-13C3-47F6-AB91-A10F373000D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2711DD3-271E-4839-917C-AEA674765ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Project 3 : Traffic Light for vehicles, pedestrians, and buses</t>
-  </si>
-  <si>
-    <t>Edit the source code for the state diagram</t>
   </si>
   <si>
     <t>Source Code</t>
@@ -855,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="138" workbookViewId="0">
-      <selection activeCell="G156" sqref="G156"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="138" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,10 +897,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -950,10 +947,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
         <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
@@ -1000,12 +997,12 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
@@ -1034,38 +1031,46 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
         <v>28</v>
-      </c>
-      <c r="D106" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D107" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2711DD3-271E-4839-917C-AEA674765ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C7BED7-23BA-4080-9805-3678778B614C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -502,16 +502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>463826</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>119033</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320260</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>63815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>48127</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>152657</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>511953</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>97439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -540,8 +540,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2893391" y="13967555"/>
-          <a:ext cx="3228649" cy="3677972"/>
+          <a:off x="3964608" y="14707467"/>
+          <a:ext cx="3228649" cy="3788407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>7244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>126869</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73767662-1749-44B6-AFFD-02394FE35B7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="39311"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14838635"/>
+          <a:ext cx="3771217" cy="3107017"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -852,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="138" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="69" workbookViewId="0">
+      <selection activeCell="S86" sqref="S86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar Haziq\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C7BED7-23BA-4080-9805-3678778B614C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E435E504-BC21-41F3-95A4-36D04913DF54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Add some more comments and tabs to the source code to make it more readable</t>
+  </si>
+  <si>
+    <t>Date : 19/10/2020 : Discussion with Prof. Stefan Henkler regardings on our second project</t>
+  </si>
+  <si>
+    <t>Discussion with Prof. Stefan Henkler regardings on our third project</t>
   </si>
 </sst>
 </file>
@@ -503,15 +509,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>320260</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>63815</xdr:rowOff>
+      <xdr:colOff>364434</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>174249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>511953</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>97439</xdr:rowOff>
+      <xdr:colOff>556127</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>20134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -540,7 +546,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3964608" y="14707467"/>
+          <a:off x="4008782" y="14254684"/>
           <a:ext cx="3228649" cy="3788407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -899,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="69" workbookViewId="0">
-      <selection activeCell="S86" sqref="S86"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="69" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,6 +1063,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>24</v>
@@ -1120,6 +1131,11 @@
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar Haziq\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E435E504-BC21-41F3-95A4-36D04913DF54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C9D414-EB34-48BD-95F1-7679AC70796A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Discussion with Prof. Stefan Henkler regardings on our third project</t>
+  </si>
+  <si>
+    <t>Date : 7/11/2020 :</t>
+  </si>
+  <si>
+    <t>Source code is updated with the addition of interrupt</t>
   </si>
 </sst>
 </file>
@@ -905,20 +911,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="69" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="101" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -926,7 +932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -934,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -942,7 +948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -950,7 +956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -958,17 +964,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -976,7 +982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -984,7 +990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -992,7 +998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1008,22 +1014,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>31</v>
       </c>
@@ -1063,22 +1069,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>27</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>31</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -1118,24 +1124,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C153" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C154" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C155" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>39</v>
+      </c>
+      <c r="C158" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$36FJ00-II4J516K5DPR\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290D47D5-9B98-4BDE-AD4B-5B0D8A47B915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD53AEF-50BA-43CD-8405-C93BF444ACA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t>Schematic diagram</t>
+  </si>
+  <si>
+    <t>Date : 9/11/2020 :  Discussion about project 4 and prepare a presentation for the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date : 16/11/2020 :  Discuss the project 4 presentation with Prof and make some improvement on the presentation slide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:  2/11/2020: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presenting project 03 </t>
+  </si>
+  <si>
+    <t>Add simulation link  to the slide</t>
   </si>
 </sst>
 </file>
@@ -213,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -683,7 +698,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -979,13 +994,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1246,10 +1261,33 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>49</v>
+      </c>
+      <c r="C158" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>39</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C161" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD53AEF-50BA-43CD-8405-C93BF444ACA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340C1E00-043D-459B-B29E-3F7E2BE07159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Add simulation link  to the slide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date : 22/11/2020: Update presentation for project 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date : 23/11/2020:  Discuss the UML diagram for smart home system </t>
   </si>
 </sst>
 </file>
@@ -994,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H161" sqref="H161"/>
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,6 +1296,16 @@
         <v>48</v>
       </c>
     </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340C1E00-043D-459B-B29E-3F7E2BE07159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B151B463-B80A-43D3-9BF0-986FE7C12E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -195,6 +195,96 @@
   </si>
   <si>
     <t xml:space="preserve">Date : 23/11/2020:  Discuss the UML diagram for smart home system </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Keeper of the minutes</t>
+  </si>
+  <si>
+    <t>1h 15min</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>Zafirul Izzat</t>
+  </si>
+  <si>
+    <t>Ammar Haziq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attendees </t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Excused</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Unexcused</t>
+  </si>
+  <si>
+    <t>Topic ID</t>
+  </si>
+  <si>
+    <t>Project 05</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsible </t>
+  </si>
+  <si>
+    <t>Identify disadvantages of the current smart home approaches</t>
+  </si>
+  <si>
+    <t>each part are discussed together. Everybody contribute one disadvantage and new functionalities</t>
+  </si>
+  <si>
+    <t>make soft copy</t>
+  </si>
+  <si>
+    <t>new functionalities to
+be considered in a smart home</t>
+  </si>
+  <si>
+    <t>Develop a first prototype of your smart home system</t>
+  </si>
+  <si>
+    <t>make soft copy for architecture</t>
+  </si>
+  <si>
+    <t>make soft copy for prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1hour </t>
+  </si>
+  <si>
+    <t>Project 06</t>
+  </si>
+  <si>
+    <t>Use Class diagrams to make the environmental entities</t>
+  </si>
+  <si>
+    <t>each part are discussed together. The diagrams are discussed base on the system architecture</t>
+  </si>
+  <si>
+    <t>Make the interface clear (including an iteration with sequence
+diagram – scenarios)</t>
+  </si>
+  <si>
+    <t>Specify the scenarios with the help sequence diagrams and use
+case diagrams</t>
   </si>
 </sst>
 </file>
@@ -218,7 +308,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -226,12 +316,226 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,8 +563,8 @@
       <xdr:rowOff>143774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>92252</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1925579</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>118551</xdr:rowOff>
     </xdr:to>
@@ -309,8 +613,8 @@
       <xdr:rowOff>86264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323941</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>557822</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>90315</xdr:rowOff>
     </xdr:to>
@@ -409,8 +713,8 @@
       <xdr:rowOff>135718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>597926</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>258421</xdr:colOff>
       <xdr:row>124</xdr:row>
       <xdr:rowOff>129098</xdr:rowOff>
     </xdr:to>
@@ -510,7 +814,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>12032</xdr:colOff>
+      <xdr:colOff>12033</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>40606</xdr:rowOff>
     </xdr:to>
@@ -609,8 +913,8 @@
       <xdr:rowOff>7244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>126869</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>692710</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>110435</xdr:rowOff>
     </xdr:to>
@@ -1000,13 +1304,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="78" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1278,7 +1588,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>39</v>
       </c>
@@ -1286,27 +1596,383 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>53</v>
       </c>
     </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="3">
+        <v>44163</v>
+      </c>
+      <c r="D172" s="4"/>
+      <c r="E172" s="5"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D173" s="8"/>
+      <c r="E173" s="9"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B175" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="12"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B176" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="12"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B177" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="12"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B178" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="15"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C181" s="16"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E182" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>1</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D183" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E183" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>2</v>
+      </c>
+      <c r="B184" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C184" s="25"/>
+      <c r="D184" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E184" s="26"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="27">
+        <v>3</v>
+      </c>
+      <c r="B185" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C185" s="25"/>
+      <c r="D185" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E185" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="30"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="3">
+        <v>44164</v>
+      </c>
+      <c r="D190" s="4"/>
+      <c r="E190" s="5"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D191" s="8"/>
+      <c r="E191" s="9"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="12"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B193" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="12"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B194" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="12"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B195" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="12"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B196" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="15"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C199" s="16"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B200" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D200" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E200" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>1</v>
+      </c>
+      <c r="B201" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C201" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>2</v>
+      </c>
+      <c r="B202" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C202" s="34"/>
+      <c r="D202" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="36">
+        <v>3</v>
+      </c>
+      <c r="B203" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C203" s="38"/>
+      <c r="D203" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E203" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B151B463-B80A-43D3-9BF0-986FE7C12E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79C96BD-4009-476A-8770-EDB224339B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -285,6 +285,18 @@
   <si>
     <t>Specify the scenarios with the help sequence diagrams and use
 case diagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 min </t>
+  </si>
+  <si>
+    <t>Project 07 and rearangement</t>
+  </si>
+  <si>
+    <t>tasks for project 7 are prepared accidently during working on project 06. The task in project 06 folder are moved to project 07 folder. On this discussion, only taks 6 are disscussed mainly on class, use case and sequence diagram for 5 smart device in smart home system. The sketch for smart home architecture on project 5 folder is also updated</t>
+  </si>
+  <si>
+    <t>make soft copy of class, use case and sequence diagram for smart heater and update the sketch of smart home architecture</t>
   </si>
 </sst>
 </file>
@@ -437,44 +449,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -487,21 +463,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -516,15 +480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -532,10 +487,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +576,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1925579</xdr:colOff>
+      <xdr:colOff>849814</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>118551</xdr:rowOff>
     </xdr:to>
@@ -713,8 +725,8 @@
       <xdr:rowOff>135718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>258421</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1307292</xdr:colOff>
       <xdr:row>124</xdr:row>
       <xdr:rowOff>129098</xdr:rowOff>
     </xdr:to>
@@ -913,8 +925,8 @@
       <xdr:rowOff>7244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>692710</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2109133</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>110435</xdr:rowOff>
     </xdr:to>
@@ -1304,14 +1316,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="78" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
@@ -1621,67 +1634,67 @@
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="3">
+      <c r="C172" s="29">
         <v>44163</v>
       </c>
-      <c r="D172" s="4"/>
-      <c r="E172" s="5"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="31"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="8"/>
-      <c r="E173" s="9"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="34"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="12"/>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="22"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="12"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="22"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="12"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="22"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="12"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="22"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="13" t="s">
+      <c r="B178" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="15"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="25"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -1712,7 +1725,7 @@
       <c r="B181" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C181" s="16"/>
+      <c r="C181" s="4"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
@@ -1720,16 +1733,16 @@
       <c r="A182" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B182" s="17" t="s">
+      <c r="B182" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D182" s="19" t="s">
+      <c r="D182" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E182" s="18" t="s">
+      <c r="E182" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1737,16 +1750,16 @@
       <c r="A183" s="1">
         <v>1</v>
       </c>
-      <c r="B183" s="20" t="s">
+      <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="21" t="s">
+      <c r="C183" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D183" s="22" t="s">
+      <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="23" t="s">
+      <c r="E183" s="38" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1754,34 +1767,34 @@
       <c r="A184" s="1">
         <v>2</v>
       </c>
-      <c r="B184" s="24" t="s">
+      <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="25"/>
-      <c r="D184" s="22" t="s">
+      <c r="C184" s="36"/>
+      <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="26"/>
+      <c r="E184" s="39"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="27">
+      <c r="A185" s="11">
         <v>3</v>
       </c>
-      <c r="B185" s="28" t="s">
+      <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="25"/>
-      <c r="D185" s="16" t="s">
+      <c r="C185" s="36"/>
+      <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E185" s="29" t="s">
+      <c r="E185" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="30"/>
-      <c r="B186" s="31"/>
-      <c r="C186" s="32"/>
+      <c r="A186" s="14"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="37"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -1794,67 +1807,67 @@
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="3">
+      <c r="C190" s="29">
         <v>44164</v>
       </c>
-      <c r="D190" s="4"/>
-      <c r="E190" s="5"/>
+      <c r="D190" s="30"/>
+      <c r="E190" s="31"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C191" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="8"/>
-      <c r="E191" s="9"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="34"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="12"/>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="22"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
-      <c r="E193" s="12"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="22"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="12"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="22"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="11"/>
-      <c r="D195" s="11"/>
-      <c r="E195" s="12"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="22"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="13" t="s">
+      <c r="B196" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
-      <c r="E196" s="15"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="25"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
@@ -1885,7 +1898,7 @@
       <c r="B199" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C199" s="16"/>
+      <c r="C199" s="4"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
@@ -1893,16 +1906,16 @@
       <c r="A200" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B200" s="17" t="s">
+      <c r="B200" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C200" s="18" t="s">
+      <c r="C200" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D200" s="19" t="s">
+      <c r="D200" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E200" s="18" t="s">
+      <c r="E200" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1910,16 +1923,16 @@
       <c r="A201" s="1">
         <v>1</v>
       </c>
-      <c r="B201" s="20" t="s">
+      <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="33" t="s">
+      <c r="C201" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D201" s="22" t="s">
+      <c r="D201" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E201" s="16" t="s">
+      <c r="E201" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1927,11 +1940,11 @@
       <c r="A202" s="1">
         <v>2</v>
       </c>
-      <c r="B202" s="24" t="s">
+      <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="34"/>
-      <c r="D202" s="35" t="s">
+      <c r="C202" s="27"/>
+      <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
       <c r="E202" s="1" t="s">
@@ -1939,32 +1952,171 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="36">
+      <c r="A203" s="17">
         <v>3</v>
       </c>
-      <c r="B203" s="37" t="s">
+      <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="38"/>
+      <c r="C203" s="28"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E203" s="39" t="s">
+      <c r="E203" s="19" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B207" s="2"/>
+      <c r="C207" s="29">
+        <v>44171</v>
+      </c>
+      <c r="D207" s="30"/>
+      <c r="E207" s="31"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D208" s="33"/>
+      <c r="E208" s="34"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B209" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" s="21"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="22"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B210" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C210" s="21"/>
+      <c r="D210" s="21"/>
+      <c r="E210" s="22"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B211" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="22"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B212" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="22"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B213" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C213" s="24"/>
+      <c r="D213" s="24"/>
+      <c r="E213" s="25"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C216" s="4"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="27"/>
+      <c r="D219" s="16"/>
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="17"/>
+      <c r="B220" s="18"/>
+      <c r="C220" s="28"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="25">
     <mergeCell ref="B193:E193"/>
     <mergeCell ref="B194:E194"/>
     <mergeCell ref="B195:E195"/>
     <mergeCell ref="B196:E196"/>
     <mergeCell ref="C201:C203"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
     <mergeCell ref="B192:E192"/>
     <mergeCell ref="C172:E172"/>
     <mergeCell ref="C173:E173"/>
@@ -1972,6 +2124,19 @@
     <mergeCell ref="B175:E175"/>
     <mergeCell ref="B176:E176"/>
     <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="C218:C220"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79C96BD-4009-476A-8770-EDB224339B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6A8A72-5A1A-476F-89F6-F58BE0C0E791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="88">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>make soft copy of class, use case and sequence diagram for smart heater and update the sketch of smart home architecture</t>
+  </si>
+  <si>
+    <t>make soft copy of class, use case and sequence diagram for smart lamp</t>
   </si>
 </sst>
 </file>
@@ -1318,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G218" sqref="G218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2100,8 +2103,12 @@
       <c r="A219" s="1"/>
       <c r="B219" s="10"/>
       <c r="C219" s="27"/>
-      <c r="D219" s="16"/>
-      <c r="E219" s="1"/>
+      <c r="D219" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
@@ -2112,11 +2119,14 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="C218:C220"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
     <mergeCell ref="B192:E192"/>
     <mergeCell ref="C172:E172"/>
     <mergeCell ref="C173:E173"/>
@@ -2129,14 +2139,11 @@
     <mergeCell ref="E183:E184"/>
     <mergeCell ref="C190:E190"/>
     <mergeCell ref="C191:E191"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B213:E213"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="C201:C203"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$36FJ00-II4J516K5DPR\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6A8A72-5A1A-476F-89F6-F58BE0C0E791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA7809E-CFBB-48CC-8BBC-C14B75F1928A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>make soft copy of class, use case and sequence diagram for smart lamp</t>
+  </si>
+  <si>
+    <t>make soft copy of class and sequential diagram of smart lock</t>
+  </si>
+  <si>
+    <t>Evrard Leuteu Feukeu</t>
   </si>
 </sst>
 </file>
@@ -553,7 +559,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1023,7 +1029,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1321,11 +1327,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G218" sqref="G218"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
@@ -2114,19 +2120,20 @@
       <c r="A220" s="17"/>
       <c r="B220" s="18"/>
       <c r="C220" s="28"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="19"/>
+      <c r="D220" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E220" s="19" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B213:E213"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="C201:C203"/>
     <mergeCell ref="B192:E192"/>
     <mergeCell ref="C172:E172"/>
     <mergeCell ref="C173:E173"/>
@@ -2139,11 +2146,14 @@
     <mergeCell ref="E183:E184"/>
     <mergeCell ref="C190:E190"/>
     <mergeCell ref="C191:E191"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="C218:C220"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79C96BD-4009-476A-8770-EDB224339B50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4814C0-B424-4AE1-A104-3195741598B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -290,13 +290,13 @@
     <t xml:space="preserve">40 min </t>
   </si>
   <si>
-    <t>Project 07 and rearangement</t>
-  </si>
-  <si>
-    <t>tasks for project 7 are prepared accidently during working on project 06. The task in project 06 folder are moved to project 07 folder. On this discussion, only taks 6 are disscussed mainly on class, use case and sequence diagram for 5 smart device in smart home system. The sketch for smart home architecture on project 5 folder is also updated</t>
-  </si>
-  <si>
     <t>make soft copy of class, use case and sequence diagram for smart heater and update the sketch of smart home architecture</t>
+  </si>
+  <si>
+    <t>some tasks for project 7 are prepared accidently during working on project 06. The task in project 06 folder are moved to project 07 folder. On this discussion, only taks 6 are disscussed mainly on class, use case and sequence diagram for 5 smart device in smart home system. The sketch for smart home architecture on project 5 folder is also updated</t>
+  </si>
+  <si>
+    <t>Project 05,Project 06 and Project 07</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:E220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A208" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D218" sqref="D218"/>
+      <selection activeCell="C218" sqref="C218:C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2071,7 +2071,7 @@
         <v>65</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>67</v>
@@ -2090,7 +2090,7 @@
         <v>85</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>0</v>
@@ -2112,11 +2112,14 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="C218:C220"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
     <mergeCell ref="B192:E192"/>
     <mergeCell ref="C172:E172"/>
     <mergeCell ref="C173:E173"/>
@@ -2129,14 +2132,11 @@
     <mergeCell ref="E183:E184"/>
     <mergeCell ref="C190:E190"/>
     <mergeCell ref="C191:E191"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B213:E213"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="C201:C203"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4814C0-B424-4AE1-A104-3195741598B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A064D5F4-FFB5-45FE-8E75-6DE618FDC7CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="93">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -297,13 +297,31 @@
   </si>
   <si>
     <t>Project 05,Project 06 and Project 07</t>
+  </si>
+  <si>
+    <t>add intermidiate layer between user and controller on the architecture. Specify controller in smart heater class diagram</t>
+  </si>
+  <si>
+    <t>Lab class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) improvement on architecture-add intermidiate layer between user and controller 2) specify controller for all class diagram 3)make atleast 1 sequence  diagram and state diagram for relation between smart devices  </t>
+  </si>
+  <si>
+    <t>Discuss about pervious topic with proffessor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Specify the class diagram and sequence diagram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class diagarm, state machine and project 08 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,16 +329,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -439,11 +476,235 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -533,6 +794,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -547,6 +853,117 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,16 +1036,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>388188</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1095760</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>86264</xdr:rowOff>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>557822</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>90315</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1177646</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>46772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -657,8 +1074,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2803584" y="4011283"/>
-          <a:ext cx="3558848" cy="6919560"/>
+          <a:off x="2783046" y="4027714"/>
+          <a:ext cx="2574714" cy="4901801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,16 +1086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1382486</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>135572</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1923112</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -707,8 +1124,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="3911600"/>
-          <a:ext cx="7772400" cy="3513772"/>
+          <a:off x="5562600" y="4071257"/>
+          <a:ext cx="4448598" cy="2090057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -720,15 +1137,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>492143</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>135718</xdr:rowOff>
+      <xdr:colOff>143800</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>113948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1307292</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>129098</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>859971</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>150959</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -757,8 +1174,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="492143" y="19872272"/>
-          <a:ext cx="4994654" cy="2709420"/>
+          <a:off x="143800" y="17890319"/>
+          <a:ext cx="2403457" cy="1332411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -769,16 +1186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>32086</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>29809</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>707000</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>56148</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>104273</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -793,7 +1210,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -801,14 +1218,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="21841" b="9506"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5518486" y="19954104"/>
-          <a:ext cx="4291262" cy="7453832"/>
+          <a:off x="2394286" y="17961429"/>
+          <a:ext cx="2438971" cy="2917371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -819,16 +1235,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>500744</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>12033</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>40606</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1872343</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>72591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -857,8 +1273,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10347158" y="19671632"/>
-          <a:ext cx="7772400" cy="4371974"/>
+          <a:off x="4680858" y="17809029"/>
+          <a:ext cx="5279571" cy="3229448"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -869,16 +1285,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>364434</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>174249</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1126435</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>65392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>556127</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>20134</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>772887</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>124072</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -907,8 +1323,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4008782" y="14254684"/>
-          <a:ext cx="3228649" cy="3788407"/>
+          <a:off x="2813721" y="12094106"/>
+          <a:ext cx="2139280" cy="2464423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -920,15 +1336,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>7244</xdr:rowOff>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>50787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2109133</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>110435</xdr:rowOff>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>79846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -956,8 +1372,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14838635"/>
-          <a:ext cx="3771217" cy="3107017"/>
+          <a:off x="195943" y="12079501"/>
+          <a:ext cx="2558143" cy="2064688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -968,16 +1384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>233882</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>165981</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127747</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>130323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>279150</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>131206</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>794656</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -993,7 +1409,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1006,8 +1422,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10011625" y="24248199"/>
-          <a:ext cx="4323030" cy="3224472"/>
+          <a:off x="127747" y="19245637"/>
+          <a:ext cx="2354195" cy="1796448"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1316,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:E220"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218:C220"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244:E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,314 +1747,1217 @@
     <col min="5" max="5" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="79" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="83"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="83"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="66"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E15" s="90"/>
+      <c r="F15" s="66"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E16" s="92"/>
+      <c r="F16" s="66"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="73" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="E17" s="94"/>
+      <c r="F17" s="66"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E18" s="92"/>
+      <c r="F18" s="66"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="73" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="E19" s="94"/>
+      <c r="F19" s="66"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="38" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="E20" s="92"/>
+      <c r="F20" s="66"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="66"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="66"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="66"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="66"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="65"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="66"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="66"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="65"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="65"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="66"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="66"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="65"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="66"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="66"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="66"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="65"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="66"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="66"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="65"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="66"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="66"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="66"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="66"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="66"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="66"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="65"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="66"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="66"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="66"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="66"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="66"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="66"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="65"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="66"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="65"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="66"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="68"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="66"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="62"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="66"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="65" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="66"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="65"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="66"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="68"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="66"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="75" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B54" s="76"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="78"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="77"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="78"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="77" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="78"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="65"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="66"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="65"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="66"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D72" t="s">
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="E59" s="96"/>
+      <c r="F59" s="66"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="D73" t="s">
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="86" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="E60" s="98"/>
+      <c r="F60" s="66"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D74" t="s">
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="E61" s="98"/>
+      <c r="F61" s="66"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D75" t="s">
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="E62" s="98"/>
+      <c r="F62" s="66"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="D76" t="s">
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="E63" s="98"/>
+      <c r="F63" s="66"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="D77" t="s">
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="E64" s="98"/>
+      <c r="F64" s="66"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="65"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="66"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="65"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="66"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="65"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="66"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="65"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="66"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="65"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="66"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="65"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="66"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="65"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="66"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="65"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="66"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="65"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="66"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="65"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="66"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="65"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="66"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="65"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="66"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="65"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="66"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="65"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="66"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="65"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="66"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="65"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="66"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="65"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="66"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="68"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="66"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="62"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="66"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="65" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="66"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="68"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="66"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="79" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="83"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="82" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="B87" s="83"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="83"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="83"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="65"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="66"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="65"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="66"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D104" t="s">
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="E90" s="96"/>
+      <c r="F90" s="66"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D105" t="s">
+      <c r="B91" s="86"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="86" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="E91" s="98"/>
+      <c r="F91" s="66"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="D106" t="s">
+      <c r="B92" s="86"/>
+      <c r="C92" s="86"/>
+      <c r="D92" s="86" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="E92" s="98"/>
+      <c r="F92" s="66"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="D107" t="s">
+      <c r="B93" s="86"/>
+      <c r="C93" s="86"/>
+      <c r="D93" s="86" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="E93" s="98"/>
+      <c r="F93" s="66"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="D108" t="s">
+      <c r="B94" s="86"/>
+      <c r="C94" s="86"/>
+      <c r="D94" s="86" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="E94" s="98"/>
+      <c r="F94" s="66"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="D109" t="s">
+      <c r="B95" s="86"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="86" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="E95" s="98"/>
+      <c r="F95" s="66"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="65"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="66"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="65"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="66"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="65"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="66"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="65"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="66"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="65"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="66"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="65"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="66"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="65"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="66"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="65"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="66"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="66"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="65"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="66"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="65"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="66"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="65"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="66"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="65"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="66"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="65"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="66"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="65"/>
+      <c r="B109" s="66"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="66"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="65"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="66"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="65"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="66"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="65"/>
+      <c r="B112" s="66"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="66"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="65"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="66"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="65"/>
+      <c r="B114" s="66"/>
+      <c r="C114" s="66"/>
+      <c r="D114" s="66"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="66"/>
+    </row>
+    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="68"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="66"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="62"/>
+      <c r="B116" s="63"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="64"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="65" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C153" t="s">
+      <c r="B117" s="66"/>
+      <c r="C117" s="66"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="67"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="65"/>
+      <c r="B118" s="66"/>
+      <c r="C118" s="66" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C154" t="s">
+      <c r="D118" s="66"/>
+      <c r="E118" s="67"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="65"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="66" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C155" t="s">
+      <c r="D119" s="66"/>
+      <c r="E119" s="67"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="65"/>
+      <c r="B120" s="66"/>
+      <c r="C120" s="66" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="D120" s="66"/>
+      <c r="E120" s="67"/>
+    </row>
+    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="68"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="70"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="62"/>
+      <c r="B122" s="63"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="64"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C158" t="s">
+      <c r="B123" s="66"/>
+      <c r="C123" s="66" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C159" t="s">
+      <c r="D123" s="66"/>
+      <c r="E123" s="67"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="65"/>
+      <c r="B124" s="66"/>
+      <c r="C124" s="66" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="D124" s="66"/>
+      <c r="E124" s="67"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="65"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="66"/>
+      <c r="D125" s="66"/>
+      <c r="E125" s="67"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="65"/>
+      <c r="B126" s="66"/>
+      <c r="C126" s="66"/>
+      <c r="D126" s="66"/>
+      <c r="E126" s="67"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="65"/>
+      <c r="B127" s="66"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="66"/>
+      <c r="E127" s="67"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="65"/>
+      <c r="B128" s="66"/>
+      <c r="C128" s="66"/>
+      <c r="D128" s="66"/>
+      <c r="E128" s="67"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="65"/>
+      <c r="B129" s="66"/>
+      <c r="C129" s="66"/>
+      <c r="D129" s="66"/>
+      <c r="E129" s="67"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="65"/>
+      <c r="B130" s="66"/>
+      <c r="C130" s="66"/>
+      <c r="D130" s="66"/>
+      <c r="E130" s="67"/>
+    </row>
+    <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="68"/>
+      <c r="B131" s="69"/>
+      <c r="C131" s="69"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="70"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="62"/>
+      <c r="B132" s="63"/>
+      <c r="C132" s="63"/>
+      <c r="D132" s="63"/>
+      <c r="E132" s="64"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C161" t="s">
+      <c r="B133" s="66"/>
+      <c r="C133" s="66" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="D133" s="66"/>
+      <c r="E133" s="67"/>
+    </row>
+    <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="68"/>
+      <c r="B134" s="69"/>
+      <c r="C134" s="69"/>
+      <c r="D134" s="69"/>
+      <c r="E134" s="70"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="62" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="B135" s="63"/>
+      <c r="C135" s="63"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="64"/>
+    </row>
+    <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="68"/>
+      <c r="B136" s="69"/>
+      <c r="C136" s="69"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="70"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="62" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="B137" s="63"/>
+      <c r="C137" s="63"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="64"/>
+    </row>
+    <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="68"/>
+      <c r="B138" s="69"/>
+      <c r="C138" s="69"/>
+      <c r="D138" s="69"/>
+      <c r="E138" s="70"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="62" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="B139" s="63"/>
+      <c r="C139" s="63"/>
+      <c r="D139" s="63"/>
+      <c r="E139" s="64"/>
+    </row>
+    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="68"/>
+      <c r="B140" s="69"/>
+      <c r="C140" s="69"/>
+      <c r="D140" s="69"/>
+      <c r="E140" s="70"/>
+    </row>
+    <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="99" t="s">
         <v>53</v>
       </c>
+      <c r="B141" s="100"/>
+      <c r="C141" s="100"/>
+      <c r="D141" s="100"/>
+      <c r="E141" s="101"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="29">
+      <c r="C172" s="44">
         <v>44163</v>
       </c>
-      <c r="D172" s="30"/>
-      <c r="E172" s="31"/>
+      <c r="D172" s="45"/>
+      <c r="E172" s="46"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -1647,54 +2966,54 @@
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="32" t="s">
+      <c r="C173" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="33"/>
-      <c r="E173" s="34"/>
+      <c r="D173" s="48"/>
+      <c r="E173" s="49"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="20" t="s">
+      <c r="B174" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="21"/>
-      <c r="D174" s="21"/>
-      <c r="E174" s="22"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="37"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="20" t="s">
+      <c r="B175" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="21"/>
-      <c r="D175" s="21"/>
-      <c r="E175" s="22"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="37"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="20" t="s">
+      <c r="B176" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="21"/>
-      <c r="D176" s="21"/>
-      <c r="E176" s="22"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="37"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="20" t="s">
+      <c r="B177" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="21"/>
-      <c r="D177" s="21"/>
-      <c r="E177" s="22"/>
+      <c r="C177" s="36"/>
+      <c r="D177" s="36"/>
+      <c r="E177" s="37"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="23" t="s">
+      <c r="B178" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="24"/>
-      <c r="D178" s="24"/>
-      <c r="E178" s="25"/>
+      <c r="C178" s="39"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="40"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -1753,13 +3072,13 @@
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="35" t="s">
+      <c r="C183" s="50" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="38" t="s">
+      <c r="E183" s="53" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1770,11 +3089,11 @@
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="36"/>
+      <c r="C184" s="51"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="39"/>
+      <c r="E184" s="54"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
@@ -1783,7 +3102,7 @@
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="36"/>
+      <c r="C185" s="51"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -1794,7 +3113,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="37"/>
+      <c r="C186" s="52"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -1807,11 +3126,11 @@
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="29">
+      <c r="C190" s="44">
         <v>44164</v>
       </c>
-      <c r="D190" s="30"/>
-      <c r="E190" s="31"/>
+      <c r="D190" s="45"/>
+      <c r="E190" s="46"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -1820,54 +3139,54 @@
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="32" t="s">
+      <c r="C191" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="33"/>
-      <c r="E191" s="34"/>
+      <c r="D191" s="48"/>
+      <c r="E191" s="49"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="20" t="s">
+      <c r="B192" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="21"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="22"/>
+      <c r="C192" s="36"/>
+      <c r="D192" s="36"/>
+      <c r="E192" s="37"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="20" t="s">
+      <c r="B193" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="21"/>
-      <c r="D193" s="21"/>
-      <c r="E193" s="22"/>
+      <c r="C193" s="36"/>
+      <c r="D193" s="36"/>
+      <c r="E193" s="37"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="20" t="s">
+      <c r="B194" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="21"/>
-      <c r="D194" s="21"/>
-      <c r="E194" s="22"/>
+      <c r="C194" s="36"/>
+      <c r="D194" s="36"/>
+      <c r="E194" s="37"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="20" t="s">
+      <c r="B195" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="21"/>
-      <c r="D195" s="21"/>
-      <c r="E195" s="22"/>
+      <c r="C195" s="36"/>
+      <c r="D195" s="36"/>
+      <c r="E195" s="37"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="23" t="s">
+      <c r="B196" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="24"/>
-      <c r="D196" s="24"/>
-      <c r="E196" s="25"/>
+      <c r="C196" s="39"/>
+      <c r="D196" s="39"/>
+      <c r="E196" s="40"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
@@ -1926,7 +3245,7 @@
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="26" t="s">
+      <c r="C201" s="41" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -1943,7 +3262,7 @@
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="27"/>
+      <c r="C202" s="42"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -1958,7 +3277,7 @@
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="28"/>
+      <c r="C203" s="43"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -1966,79 +3285,76 @@
         <v>58</v>
       </c>
     </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B206" s="2"/>
+      <c r="C206" s="44">
+        <v>44165</v>
+      </c>
+      <c r="D206" s="45"/>
+      <c r="E206" s="46"/>
+    </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B207" s="2"/>
-      <c r="C207" s="29">
-        <v>44171</v>
-      </c>
-      <c r="D207" s="30"/>
-      <c r="E207" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="B207" s="3"/>
+      <c r="C207" s="32"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="34"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B208" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B208" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D208" s="33"/>
-      <c r="E208" s="34"/>
+      <c r="C208" s="39"/>
+      <c r="D208" s="39"/>
+      <c r="E208" s="40"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B209" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C209" s="21"/>
-      <c r="D209" s="21"/>
-      <c r="E209" s="22"/>
+      <c r="B209" s="38"/>
+      <c r="C209" s="39"/>
+      <c r="D209" s="39"/>
+      <c r="E209" s="40"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B210" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C210" s="21"/>
-      <c r="D210" s="21"/>
-      <c r="E210" s="22"/>
+      <c r="B210" s="38"/>
+      <c r="C210" s="39"/>
+      <c r="D210" s="39"/>
+      <c r="E210" s="40"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C211" s="21"/>
-      <c r="D211" s="21"/>
-      <c r="E211" s="22"/>
+      <c r="B211" s="38"/>
+      <c r="C211" s="39"/>
+      <c r="D211" s="39"/>
+      <c r="E211" s="40"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C212" s="21"/>
-      <c r="D212" s="21"/>
-      <c r="E212" s="22"/>
+      <c r="B212" s="38"/>
+      <c r="C212" s="39"/>
+      <c r="D212" s="39"/>
+      <c r="E212" s="40"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B213" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C213" s="24"/>
-      <c r="D213" s="24"/>
-      <c r="E213" s="25"/>
+      <c r="A213" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -2046,80 +3362,519 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C215" s="1"/>
+      <c r="C215" s="4"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C216" s="4"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="B216" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D216" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D217" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E217" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="A217" s="1"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D217" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E217" s="58"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="26" t="s">
+      <c r="B218" s="10"/>
+      <c r="C218" s="42"/>
+      <c r="D218" s="42"/>
+      <c r="E218" s="59"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="17"/>
+      <c r="B219" s="18"/>
+      <c r="C219" s="43"/>
+      <c r="D219" s="43"/>
+      <c r="E219" s="60"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="44">
+        <v>44171</v>
+      </c>
+      <c r="D224" s="45"/>
+      <c r="E224" s="46"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D225" s="48"/>
+      <c r="E225" s="49"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B226" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" s="36"/>
+      <c r="D226" s="36"/>
+      <c r="E226" s="37"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B227" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C227" s="36"/>
+      <c r="D227" s="36"/>
+      <c r="E227" s="37"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B228" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C228" s="36"/>
+      <c r="D228" s="36"/>
+      <c r="E228" s="37"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B229" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C229" s="36"/>
+      <c r="D229" s="36"/>
+      <c r="E229" s="37"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B230" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C230" s="39"/>
+      <c r="D230" s="39"/>
+      <c r="E230" s="40"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C233" s="4"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D218" s="9" t="s">
+      <c r="D235" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E218" s="4" t="s">
+      <c r="E235" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="1"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="27"/>
-      <c r="D219" s="16"/>
-      <c r="E219" s="1"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="17"/>
-      <c r="B220" s="18"/>
-      <c r="C220" s="28"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="19"/>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="1"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="42"/>
+      <c r="D236" s="16"/>
+      <c r="E236" s="1"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="17"/>
+      <c r="B237" s="18"/>
+      <c r="C237" s="43"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="19"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" s="44">
+        <v>44172</v>
+      </c>
+      <c r="D240" s="45"/>
+      <c r="E240" s="46"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B241" s="3"/>
+      <c r="C241" s="47"/>
+      <c r="D241" s="48"/>
+      <c r="E241" s="49"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B242" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" s="39"/>
+      <c r="D242" s="39"/>
+      <c r="E242" s="40"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B243" s="38"/>
+      <c r="C243" s="39"/>
+      <c r="D243" s="39"/>
+      <c r="E243" s="40"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B244" s="38"/>
+      <c r="C244" s="39"/>
+      <c r="D244" s="39"/>
+      <c r="E244" s="40"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B245" s="38"/>
+      <c r="C245" s="39"/>
+      <c r="D245" s="39"/>
+      <c r="E245" s="40"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B246" s="38"/>
+      <c r="C246" s="39"/>
+      <c r="D246" s="39"/>
+      <c r="E246" s="40"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C249" s="4"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B250" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D250" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="1"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D251" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E251" s="55"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="1"/>
+      <c r="B252" s="10"/>
+      <c r="C252" s="42"/>
+      <c r="D252" s="42"/>
+      <c r="E252" s="56"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="17"/>
+      <c r="B253" s="18"/>
+      <c r="C253" s="43"/>
+      <c r="D253" s="43"/>
+      <c r="E253" s="57"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B256" s="2"/>
+      <c r="C256" s="29">
+        <v>44178</v>
+      </c>
+      <c r="D256" s="30"/>
+      <c r="E256" s="31"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B257" s="3"/>
+      <c r="C257" s="32"/>
+      <c r="D257" s="33"/>
+      <c r="E257" s="34"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B258" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" s="21"/>
+      <c r="D258" s="21"/>
+      <c r="E258" s="22"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B259" s="20"/>
+      <c r="C259" s="21"/>
+      <c r="D259" s="21"/>
+      <c r="E259" s="22"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B260" s="20"/>
+      <c r="C260" s="21"/>
+      <c r="D260" s="21"/>
+      <c r="E260" s="22"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B261" s="20"/>
+      <c r="C261" s="21"/>
+      <c r="D261" s="21"/>
+      <c r="E261" s="22"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B262" s="23"/>
+      <c r="C262" s="24"/>
+      <c r="D262" s="24"/>
+      <c r="E262" s="25"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C265" s="4"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B266" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D266" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="1"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="26"/>
+      <c r="D267" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="1"/>
+      <c r="B268" s="10"/>
+      <c r="C268" s="27"/>
+      <c r="D268" s="16"/>
+      <c r="E268" s="1"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="17"/>
+      <c r="B269" s="18"/>
+      <c r="C269" s="28"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B213:E213"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="C208:E208"/>
+  <mergeCells count="80">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="B246:E246"/>
+    <mergeCell ref="B208:E208"/>
     <mergeCell ref="B209:E209"/>
     <mergeCell ref="B210:E210"/>
     <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="D251:D253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="C240:E240"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="C201:C203"/>
     <mergeCell ref="B192:E192"/>
     <mergeCell ref="C172:E172"/>
     <mergeCell ref="C173:E173"/>
@@ -2132,13 +3887,18 @@
     <mergeCell ref="E183:E184"/>
     <mergeCell ref="C190:E190"/>
     <mergeCell ref="C191:E191"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="B228:E228"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A064D5F4-FFB5-45FE-8E75-6DE618FDC7CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59361A6B-AB18-4444-8074-0281179458BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t xml:space="preserve">Class diagarm, state machine and project 08 </t>
+  </si>
+  <si>
+    <t>make soft copy of class, use case and sequence diagram for smart lamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadi Imran </t>
+  </si>
+  <si>
+    <t>Make a sequence diagram based on scenario example</t>
   </si>
 </sst>
 </file>
@@ -794,75 +803,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,18 +824,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -914,56 +842,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1734,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244:E244"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H271" sqref="H271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1748,20 +1757,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1813,1151 +1822,1151 @@
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="83"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="83"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="66"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="66"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="66"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="38" t="s">
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="66"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="73" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="66"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="66"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="73" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="66"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="38" t="s">
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="66"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="66"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="66"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="43"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="66"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="66"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="66"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="66"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="66"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="66"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="66"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="65"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="66"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="66"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="65"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="66"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="65"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="66"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="66"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="43"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="66"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="43"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="66"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="43"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="66"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="43"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="65"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="66"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="43"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="66"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="43"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="65"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="66"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="43"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="66"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="43"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="65"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="66"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="65"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="66"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="66"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="43"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="65"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="66"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="43"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="65"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="66"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="43"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="65"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="66"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="43"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="65"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="66"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="43"/>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="68"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="66"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="43"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="62"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="66"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="43"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="66"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="43"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="65"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="66"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="68"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="66"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="43"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="75" t="s">
+      <c r="A54" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="78"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="51"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="77"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="78"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="51"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="77" t="s">
+      <c r="A56" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="78"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="51"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="66"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="43"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="65"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="66"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="95" t="s">
+      <c r="A59" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85" t="s">
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="96"/>
-      <c r="F59" s="66"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="97" t="s">
+      <c r="A60" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="86" t="s">
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="98"/>
-      <c r="F60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86" t="s">
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="98"/>
-      <c r="F61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="97" t="s">
+      <c r="A62" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86" t="s">
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="98"/>
-      <c r="F62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="97" t="s">
+      <c r="A63" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="86"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86" t="s">
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="98"/>
-      <c r="F63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="97" t="s">
+      <c r="A64" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86" t="s">
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="98"/>
-      <c r="F64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="66"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="66"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="66"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="66"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="66"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="65"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="66"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="65"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="66"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="65"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="66"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="65"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="66"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="65"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="66"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="43"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="65"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="66"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="65"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="66"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="43"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="65"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="66"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="43"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="65"/>
-      <c r="B78" s="66"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="66"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="43"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="65"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="66"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="43"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="65"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="66"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="43"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="65"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="66"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="43"/>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="68"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="66"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="43"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="62"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="66"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="43"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="65" t="s">
+      <c r="A84" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="66"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="43"/>
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="68"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="66"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="43"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="79" t="s">
+      <c r="A86" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="83"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="56"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="82" t="s">
+      <c r="A87" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="83"/>
-      <c r="C87" s="83"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="83"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="56"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="65"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="66"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="65"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="66"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="95" t="s">
+      <c r="A90" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85" t="s">
+      <c r="B90" s="68"/>
+      <c r="C90" s="68"/>
+      <c r="D90" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="96"/>
-      <c r="F90" s="66"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="97" t="s">
+      <c r="A91" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="86"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="86" t="s">
+      <c r="B91" s="65"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="98"/>
-      <c r="F91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="43"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="97" t="s">
+      <c r="A92" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="86"/>
-      <c r="C92" s="86"/>
-      <c r="D92" s="86" t="s">
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="98"/>
-      <c r="F92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="43"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="97" t="s">
+      <c r="A93" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="86"/>
-      <c r="C93" s="86"/>
-      <c r="D93" s="86" t="s">
+      <c r="B93" s="65"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="98"/>
-      <c r="F93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="43"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="97" t="s">
+      <c r="A94" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="86"/>
-      <c r="C94" s="86"/>
-      <c r="D94" s="86" t="s">
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="98"/>
-      <c r="F94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="43"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="97" t="s">
+      <c r="A95" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="86"/>
-      <c r="C95" s="86"/>
-      <c r="D95" s="86" t="s">
+      <c r="B95" s="65"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="98"/>
-      <c r="F95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="43"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="65"/>
-      <c r="B96" s="66"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="66"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="43"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="65"/>
-      <c r="B97" s="66"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="66"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="43"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="65"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="66"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="43"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="65"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="66"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="43"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="65"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="66"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="43"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="65"/>
-      <c r="B101" s="66"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="66"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="43"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="65"/>
-      <c r="B102" s="66"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="67"/>
-      <c r="F102" s="66"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="43"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="65"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="66"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="66"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="43"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="65"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="66"/>
+      <c r="A104" s="42"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="43"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="65"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="66"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="43"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="65"/>
-      <c r="B106" s="66"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="66"/>
+      <c r="A106" s="42"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="43"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="65"/>
-      <c r="B107" s="66"/>
-      <c r="C107" s="66"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="66"/>
+      <c r="A107" s="42"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="43"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="65"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="66"/>
+      <c r="A108" s="42"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="43"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="65"/>
-      <c r="B109" s="66"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="66"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="43"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="65"/>
-      <c r="B110" s="66"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="66"/>
+      <c r="A110" s="42"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="43"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="65"/>
-      <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="66"/>
+      <c r="A111" s="42"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="43"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="65"/>
-      <c r="B112" s="66"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="66"/>
+      <c r="A112" s="42"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="43"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="65"/>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="66"/>
+      <c r="A113" s="42"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="43"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="65"/>
-      <c r="B114" s="66"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="66"/>
+      <c r="A114" s="42"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="43"/>
     </row>
     <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="68"/>
-      <c r="B115" s="69"/>
-      <c r="C115" s="69"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="66"/>
+      <c r="A115" s="45"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="43"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="62"/>
-      <c r="B116" s="63"/>
-      <c r="C116" s="63"/>
-      <c r="D116" s="63"/>
-      <c r="E116" s="64"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="41"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="65" t="s">
+      <c r="A117" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B117" s="66"/>
-      <c r="C117" s="66"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="67"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="44"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="65"/>
-      <c r="B118" s="66"/>
-      <c r="C118" s="66" t="s">
+      <c r="A118" s="42"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D118" s="66"/>
-      <c r="E118" s="67"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="44"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="65"/>
-      <c r="B119" s="66"/>
-      <c r="C119" s="66" t="s">
+      <c r="A119" s="42"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D119" s="66"/>
-      <c r="E119" s="67"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="44"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="65"/>
-      <c r="B120" s="66"/>
-      <c r="C120" s="66" t="s">
+      <c r="A120" s="42"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D120" s="66"/>
-      <c r="E120" s="67"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="44"/>
     </row>
     <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="68"/>
-      <c r="B121" s="69"/>
-      <c r="C121" s="69"/>
-      <c r="D121" s="69"/>
-      <c r="E121" s="70"/>
+      <c r="A121" s="45"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="47"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="62"/>
-      <c r="B122" s="63"/>
-      <c r="C122" s="63"/>
-      <c r="D122" s="63"/>
-      <c r="E122" s="64"/>
+      <c r="A122" s="39"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="41"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="65" t="s">
+      <c r="A123" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B123" s="66"/>
-      <c r="C123" s="66" t="s">
+      <c r="B123" s="43"/>
+      <c r="C123" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D123" s="66"/>
-      <c r="E123" s="67"/>
+      <c r="D123" s="43"/>
+      <c r="E123" s="44"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="65"/>
-      <c r="B124" s="66"/>
-      <c r="C124" s="66" t="s">
+      <c r="A124" s="42"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D124" s="66"/>
-      <c r="E124" s="67"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="44"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="65"/>
-      <c r="B125" s="66"/>
-      <c r="C125" s="66"/>
-      <c r="D125" s="66"/>
-      <c r="E125" s="67"/>
+      <c r="A125" s="42"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="44"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="65"/>
-      <c r="B126" s="66"/>
-      <c r="C126" s="66"/>
-      <c r="D126" s="66"/>
-      <c r="E126" s="67"/>
+      <c r="A126" s="42"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="44"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="65"/>
-      <c r="B127" s="66"/>
-      <c r="C127" s="66"/>
-      <c r="D127" s="66"/>
-      <c r="E127" s="67"/>
+      <c r="A127" s="42"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="44"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="65"/>
-      <c r="B128" s="66"/>
-      <c r="C128" s="66"/>
-      <c r="D128" s="66"/>
-      <c r="E128" s="67"/>
+      <c r="A128" s="42"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="44"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="65"/>
-      <c r="B129" s="66"/>
-      <c r="C129" s="66"/>
-      <c r="D129" s="66"/>
-      <c r="E129" s="67"/>
+      <c r="A129" s="42"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="44"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="65"/>
-      <c r="B130" s="66"/>
-      <c r="C130" s="66"/>
-      <c r="D130" s="66"/>
-      <c r="E130" s="67"/>
+      <c r="A130" s="42"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="44"/>
     </row>
     <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="68"/>
-      <c r="B131" s="69"/>
-      <c r="C131" s="69"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="70"/>
+      <c r="A131" s="45"/>
+      <c r="B131" s="46"/>
+      <c r="C131" s="46"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="47"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="62"/>
-      <c r="B132" s="63"/>
-      <c r="C132" s="63"/>
-      <c r="D132" s="63"/>
-      <c r="E132" s="64"/>
+      <c r="A132" s="39"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="41"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="65" t="s">
+      <c r="A133" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B133" s="66"/>
-      <c r="C133" s="66" t="s">
+      <c r="B133" s="43"/>
+      <c r="C133" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="66"/>
-      <c r="E133" s="67"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="44"/>
     </row>
     <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="68"/>
-      <c r="B134" s="69"/>
-      <c r="C134" s="69"/>
-      <c r="D134" s="69"/>
-      <c r="E134" s="70"/>
+      <c r="A134" s="45"/>
+      <c r="B134" s="46"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="47"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="62" t="s">
+      <c r="A135" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B135" s="63"/>
-      <c r="C135" s="63"/>
-      <c r="D135" s="63"/>
-      <c r="E135" s="64"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="41"/>
     </row>
     <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="68"/>
-      <c r="B136" s="69"/>
-      <c r="C136" s="69"/>
-      <c r="D136" s="69"/>
-      <c r="E136" s="70"/>
+      <c r="A136" s="45"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="46"/>
+      <c r="E136" s="47"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="62" t="s">
+      <c r="A137" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B137" s="63"/>
-      <c r="C137" s="63"/>
-      <c r="D137" s="63"/>
-      <c r="E137" s="64"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="41"/>
     </row>
     <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="68"/>
-      <c r="B138" s="69"/>
-      <c r="C138" s="69"/>
-      <c r="D138" s="69"/>
-      <c r="E138" s="70"/>
+      <c r="A138" s="45"/>
+      <c r="B138" s="46"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="47"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="62" t="s">
+      <c r="A139" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B139" s="63"/>
-      <c r="C139" s="63"/>
-      <c r="D139" s="63"/>
-      <c r="E139" s="64"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="41"/>
     </row>
     <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="68"/>
-      <c r="B140" s="69"/>
-      <c r="C140" s="69"/>
-      <c r="D140" s="69"/>
-      <c r="E140" s="70"/>
+      <c r="A140" s="45"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="47"/>
     </row>
     <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="99" t="s">
+      <c r="A141" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="B141" s="100"/>
-      <c r="C141" s="100"/>
-      <c r="D141" s="100"/>
-      <c r="E141" s="101"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="61"/>
+      <c r="D141" s="61"/>
+      <c r="E141" s="62"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="44">
+      <c r="C172" s="83">
         <v>44163</v>
       </c>
-      <c r="D172" s="45"/>
-      <c r="E172" s="46"/>
+      <c r="D172" s="84"/>
+      <c r="E172" s="85"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -2966,54 +2975,54 @@
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="47" t="s">
+      <c r="C173" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="48"/>
-      <c r="E173" s="49"/>
+      <c r="D173" s="90"/>
+      <c r="E173" s="91"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="35" t="s">
+      <c r="B174" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="36"/>
-      <c r="D174" s="36"/>
-      <c r="E174" s="37"/>
+      <c r="C174" s="97"/>
+      <c r="D174" s="97"/>
+      <c r="E174" s="98"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="35" t="s">
+      <c r="B175" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="36"/>
-      <c r="D175" s="36"/>
-      <c r="E175" s="37"/>
+      <c r="C175" s="97"/>
+      <c r="D175" s="97"/>
+      <c r="E175" s="98"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="35" t="s">
+      <c r="B176" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="36"/>
-      <c r="D176" s="36"/>
-      <c r="E176" s="37"/>
+      <c r="C176" s="97"/>
+      <c r="D176" s="97"/>
+      <c r="E176" s="98"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="35" t="s">
+      <c r="B177" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="36"/>
-      <c r="D177" s="36"/>
-      <c r="E177" s="37"/>
+      <c r="C177" s="97"/>
+      <c r="D177" s="97"/>
+      <c r="E177" s="98"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="38" t="s">
+      <c r="B178" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="39"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="40"/>
+      <c r="C178" s="76"/>
+      <c r="D178" s="76"/>
+      <c r="E178" s="92"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -3072,13 +3081,13 @@
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="50" t="s">
+      <c r="C183" s="99" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="53" t="s">
+      <c r="E183" s="102" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3089,11 +3098,11 @@
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="51"/>
+      <c r="C184" s="100"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="54"/>
+      <c r="E184" s="103"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
@@ -3102,7 +3111,7 @@
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="51"/>
+      <c r="C185" s="100"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -3113,7 +3122,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="52"/>
+      <c r="C186" s="101"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -3126,11 +3135,11 @@
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="44">
+      <c r="C190" s="83">
         <v>44164</v>
       </c>
-      <c r="D190" s="45"/>
-      <c r="E190" s="46"/>
+      <c r="D190" s="84"/>
+      <c r="E190" s="85"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -3139,54 +3148,54 @@
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="47" t="s">
+      <c r="C191" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="48"/>
-      <c r="E191" s="49"/>
+      <c r="D191" s="90"/>
+      <c r="E191" s="91"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="35" t="s">
+      <c r="B192" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="36"/>
-      <c r="D192" s="36"/>
-      <c r="E192" s="37"/>
+      <c r="C192" s="97"/>
+      <c r="D192" s="97"/>
+      <c r="E192" s="98"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="35" t="s">
+      <c r="B193" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="36"/>
-      <c r="D193" s="36"/>
-      <c r="E193" s="37"/>
+      <c r="C193" s="97"/>
+      <c r="D193" s="97"/>
+      <c r="E193" s="98"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="35" t="s">
+      <c r="B194" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="36"/>
-      <c r="D194" s="36"/>
-      <c r="E194" s="37"/>
+      <c r="C194" s="97"/>
+      <c r="D194" s="97"/>
+      <c r="E194" s="98"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="35" t="s">
+      <c r="B195" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="36"/>
-      <c r="D195" s="36"/>
-      <c r="E195" s="37"/>
+      <c r="C195" s="97"/>
+      <c r="D195" s="97"/>
+      <c r="E195" s="98"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="38" t="s">
+      <c r="B196" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="39"/>
-      <c r="D196" s="39"/>
-      <c r="E196" s="40"/>
+      <c r="C196" s="76"/>
+      <c r="D196" s="76"/>
+      <c r="E196" s="92"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
@@ -3245,7 +3254,7 @@
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="41" t="s">
+      <c r="C201" s="86" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -3262,7 +3271,7 @@
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="42"/>
+      <c r="C202" s="87"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -3277,7 +3286,7 @@
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="43"/>
+      <c r="C203" s="88"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -3290,11 +3299,11 @@
         <v>54</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="44">
+      <c r="C206" s="83">
         <v>44165</v>
       </c>
-      <c r="D206" s="45"/>
-      <c r="E206" s="46"/>
+      <c r="D206" s="84"/>
+      <c r="E206" s="85"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
@@ -3309,36 +3318,36 @@
       <c r="A208" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="38" t="s">
+      <c r="B208" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="39"/>
-      <c r="D208" s="39"/>
-      <c r="E208" s="40"/>
+      <c r="C208" s="76"/>
+      <c r="D208" s="76"/>
+      <c r="E208" s="92"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B209" s="38"/>
-      <c r="C209" s="39"/>
-      <c r="D209" s="39"/>
-      <c r="E209" s="40"/>
+      <c r="B209" s="73"/>
+      <c r="C209" s="76"/>
+      <c r="D209" s="76"/>
+      <c r="E209" s="92"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B210" s="38"/>
-      <c r="C210" s="39"/>
-      <c r="D210" s="39"/>
-      <c r="E210" s="40"/>
+      <c r="B210" s="73"/>
+      <c r="C210" s="76"/>
+      <c r="D210" s="76"/>
+      <c r="E210" s="92"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="38"/>
-      <c r="C211" s="39"/>
-      <c r="D211" s="39"/>
-      <c r="E211" s="40"/>
+      <c r="B211" s="73"/>
+      <c r="C211" s="76"/>
+      <c r="D211" s="76"/>
+      <c r="E211" s="92"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="38"/>
-      <c r="C212" s="39"/>
-      <c r="D212" s="39"/>
-      <c r="E212" s="40"/>
+      <c r="B212" s="73"/>
+      <c r="C212" s="76"/>
+      <c r="D212" s="76"/>
+      <c r="E212" s="92"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -3375,7 +3384,7 @@
       <c r="A216" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B216" s="61" t="s">
+      <c r="B216" s="38" t="s">
         <v>88</v>
       </c>
       <c r="C216" s="6" t="s">
@@ -3391,38 +3400,38 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="41" t="s">
+      <c r="C217" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D217" s="41" t="s">
+      <c r="D217" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="E217" s="58"/>
+      <c r="E217" s="35"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="42"/>
-      <c r="D218" s="42"/>
-      <c r="E218" s="59"/>
+      <c r="C218" s="87"/>
+      <c r="D218" s="87"/>
+      <c r="E218" s="36"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="43"/>
-      <c r="D219" s="43"/>
-      <c r="E219" s="60"/>
+      <c r="C219" s="88"/>
+      <c r="D219" s="88"/>
+      <c r="E219" s="37"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="44">
+      <c r="C224" s="83">
         <v>44171</v>
       </c>
-      <c r="D224" s="45"/>
-      <c r="E224" s="46"/>
+      <c r="D224" s="84"/>
+      <c r="E224" s="85"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
@@ -3431,54 +3440,54 @@
       <c r="B225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="47" t="s">
+      <c r="C225" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="D225" s="48"/>
-      <c r="E225" s="49"/>
+      <c r="D225" s="90"/>
+      <c r="E225" s="91"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B226" s="35" t="s">
+      <c r="B226" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="36"/>
-      <c r="D226" s="36"/>
-      <c r="E226" s="37"/>
+      <c r="C226" s="97"/>
+      <c r="D226" s="97"/>
+      <c r="E226" s="98"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B227" s="35" t="s">
+      <c r="B227" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="36"/>
-      <c r="D227" s="36"/>
-      <c r="E227" s="37"/>
+      <c r="C227" s="97"/>
+      <c r="D227" s="97"/>
+      <c r="E227" s="98"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B228" s="35" t="s">
+      <c r="B228" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="36"/>
-      <c r="D228" s="36"/>
-      <c r="E228" s="37"/>
+      <c r="C228" s="97"/>
+      <c r="D228" s="97"/>
+      <c r="E228" s="98"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B229" s="35" t="s">
+      <c r="B229" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="C229" s="36"/>
-      <c r="D229" s="36"/>
-      <c r="E229" s="37"/>
+      <c r="C229" s="97"/>
+      <c r="D229" s="97"/>
+      <c r="E229" s="98"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B230" s="38" t="s">
+      <c r="B230" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="39"/>
-      <c r="D230" s="39"/>
-      <c r="E230" s="40"/>
+      <c r="C230" s="76"/>
+      <c r="D230" s="76"/>
+      <c r="E230" s="92"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
@@ -3533,7 +3542,7 @@
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="41" t="s">
+      <c r="C235" s="86" t="s">
         <v>85</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -3546,14 +3555,18 @@
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="42"/>
-      <c r="D236" s="16"/>
-      <c r="E236" s="1"/>
+      <c r="C236" s="87"/>
+      <c r="D236" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="43"/>
+      <c r="C237" s="88"/>
       <c r="D237" s="1"/>
       <c r="E237" s="19"/>
     </row>
@@ -3562,55 +3575,55 @@
         <v>54</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="44">
+      <c r="C240" s="83">
         <v>44172</v>
       </c>
-      <c r="D240" s="45"/>
-      <c r="E240" s="46"/>
+      <c r="D240" s="84"/>
+      <c r="E240" s="85"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="47"/>
-      <c r="D241" s="48"/>
-      <c r="E241" s="49"/>
+      <c r="C241" s="89"/>
+      <c r="D241" s="90"/>
+      <c r="E241" s="91"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="38" t="s">
+      <c r="B242" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="39"/>
-      <c r="D242" s="39"/>
-      <c r="E242" s="40"/>
+      <c r="C242" s="76"/>
+      <c r="D242" s="76"/>
+      <c r="E242" s="92"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B243" s="38"/>
-      <c r="C243" s="39"/>
-      <c r="D243" s="39"/>
-      <c r="E243" s="40"/>
+      <c r="B243" s="73"/>
+      <c r="C243" s="76"/>
+      <c r="D243" s="76"/>
+      <c r="E243" s="92"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B244" s="38"/>
-      <c r="C244" s="39"/>
-      <c r="D244" s="39"/>
-      <c r="E244" s="40"/>
+      <c r="B244" s="73"/>
+      <c r="C244" s="76"/>
+      <c r="D244" s="76"/>
+      <c r="E244" s="92"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B245" s="38"/>
-      <c r="C245" s="39"/>
-      <c r="D245" s="39"/>
-      <c r="E245" s="40"/>
+      <c r="B245" s="73"/>
+      <c r="C245" s="76"/>
+      <c r="D245" s="76"/>
+      <c r="E245" s="92"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B246" s="38"/>
-      <c r="C246" s="39"/>
-      <c r="D246" s="39"/>
-      <c r="E246" s="40"/>
+      <c r="B246" s="73"/>
+      <c r="C246" s="76"/>
+      <c r="D246" s="76"/>
+      <c r="E246" s="92"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
@@ -3647,7 +3660,7 @@
       <c r="A250" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B250" s="61" t="s">
+      <c r="B250" s="38" t="s">
         <v>88</v>
       </c>
       <c r="C250" s="6" t="s">
@@ -3663,27 +3676,27 @@
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="41" t="s">
+      <c r="C251" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D251" s="41" t="s">
+      <c r="D251" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="E251" s="55"/>
+      <c r="E251" s="93"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="10"/>
-      <c r="C252" s="42"/>
-      <c r="D252" s="42"/>
-      <c r="E252" s="56"/>
+      <c r="C252" s="87"/>
+      <c r="D252" s="87"/>
+      <c r="E252" s="94"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="43"/>
-      <c r="D253" s="43"/>
-      <c r="E253" s="57"/>
+      <c r="C253" s="88"/>
+      <c r="D253" s="88"/>
+      <c r="E253" s="95"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
@@ -3803,8 +3816,12 @@
       <c r="A268" s="1"/>
       <c r="B268" s="10"/>
       <c r="C268" s="27"/>
-      <c r="D268" s="16"/>
-      <c r="E268" s="1"/>
+      <c r="D268" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
@@ -3815,6 +3832,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="D251:D253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="C240:E240"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="B246:E246"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="D94:E94"/>
@@ -3831,70 +3912,6 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="C241:E241"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="D251:D253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="E251:E253"/>
-    <mergeCell ref="C240:E240"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="C224:E224"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="B226:E226"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="B228:E228"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59361A6B-AB18-4444-8074-0281179458BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C28FE-D253-45E3-84D6-DA82F30918D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="98">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Make a sequence diagram based on scenario example</t>
+  </si>
+  <si>
+    <t>Identify pros and cons of smart home</t>
+  </si>
+  <si>
+    <t>Make a class diagram based on scenario example</t>
   </si>
 </sst>
 </file>
@@ -713,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -851,129 +857,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1743,36 +1750,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H271" sqref="H271"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.53125" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="5" max="5" width="32.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1780,7 +1787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1788,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1812,7 +1819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1820,8 +1827,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="52" t="s">
         <v>10</v>
       </c>
@@ -1831,7 +1838,7 @@
       <c r="E11" s="54"/>
       <c r="F11" s="56"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="55" t="s">
         <v>5</v>
       </c>
@@ -1841,7 +1848,7 @@
       <c r="E12" s="57"/>
       <c r="F12" s="56"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="42"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
@@ -1849,7 +1856,7 @@
       <c r="E13" s="44"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -1857,79 +1864,79 @@
       <c r="E14" s="44"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="81" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="79" t="s">
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="80"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="75" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="73" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="74"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="43"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="77" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="71" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="72"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="43"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="73" t="s">
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="74"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="43"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="77" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="71" t="s">
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="72"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="43"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="75" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="73" t="s">
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="74"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="43"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="42"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -1937,7 +1944,7 @@
       <c r="E21" s="44"/>
       <c r="F21" s="43"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -1945,7 +1952,7 @@
       <c r="E22" s="44"/>
       <c r="F22" s="43"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
@@ -1953,7 +1960,7 @@
       <c r="E23" s="44"/>
       <c r="F23" s="43"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="42"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
@@ -1961,7 +1968,7 @@
       <c r="E24" s="44"/>
       <c r="F24" s="43"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="42"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -1969,7 +1976,7 @@
       <c r="E25" s="44"/>
       <c r="F25" s="43"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="42"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -1977,7 +1984,7 @@
       <c r="E26" s="44"/>
       <c r="F26" s="43"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="42"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
@@ -1985,7 +1992,7 @@
       <c r="E27" s="44"/>
       <c r="F27" s="43"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="42"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -1993,7 +2000,7 @@
       <c r="E28" s="44"/>
       <c r="F28" s="43"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="42"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
@@ -2001,7 +2008,7 @@
       <c r="E29" s="44"/>
       <c r="F29" s="43"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="42"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -2009,7 +2016,7 @@
       <c r="E30" s="44"/>
       <c r="F30" s="43"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="42"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
@@ -2017,7 +2024,7 @@
       <c r="E31" s="44"/>
       <c r="F31" s="43"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="42"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -2025,7 +2032,7 @@
       <c r="E32" s="44"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="42"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -2033,7 +2040,7 @@
       <c r="E33" s="44"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="42"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
@@ -2041,7 +2048,7 @@
       <c r="E34" s="44"/>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="42"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
@@ -2049,7 +2056,7 @@
       <c r="E35" s="44"/>
       <c r="F35" s="43"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="42"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -2057,7 +2064,7 @@
       <c r="E36" s="44"/>
       <c r="F36" s="43"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="42"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -2065,7 +2072,7 @@
       <c r="E37" s="44"/>
       <c r="F37" s="43"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="42"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
@@ -2073,7 +2080,7 @@
       <c r="E38" s="44"/>
       <c r="F38" s="43"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="42"/>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
@@ -2081,7 +2088,7 @@
       <c r="E39" s="44"/>
       <c r="F39" s="43"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -2089,7 +2096,7 @@
       <c r="E40" s="44"/>
       <c r="F40" s="43"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -2097,7 +2104,7 @@
       <c r="E41" s="44"/>
       <c r="F41" s="43"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="42"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -2105,7 +2112,7 @@
       <c r="E42" s="44"/>
       <c r="F42" s="43"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="42"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -2113,7 +2120,7 @@
       <c r="E43" s="44"/>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="42"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -2121,7 +2128,7 @@
       <c r="E44" s="44"/>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="42"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -2129,7 +2136,7 @@
       <c r="E45" s="44"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="42"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -2137,7 +2144,7 @@
       <c r="E46" s="44"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="42"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -2145,7 +2152,7 @@
       <c r="E47" s="44"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="42"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -2153,7 +2160,7 @@
       <c r="E48" s="44"/>
       <c r="F48" s="43"/>
     </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="45"/>
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
@@ -2161,7 +2168,7 @@
       <c r="E49" s="47"/>
       <c r="F49" s="43"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="39"/>
       <c r="B50" s="40"/>
       <c r="C50" s="40"/>
@@ -2169,7 +2176,7 @@
       <c r="E50" s="41"/>
       <c r="F50" s="43"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="42" t="s">
         <v>13</v>
       </c>
@@ -2179,7 +2186,7 @@
       <c r="E51" s="44"/>
       <c r="F51" s="43"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="42"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -2187,7 +2194,7 @@
       <c r="E52" s="44"/>
       <c r="F52" s="43"/>
     </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="45"/>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
@@ -2195,7 +2202,7 @@
       <c r="E53" s="47"/>
       <c r="F53" s="43"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="48" t="s">
         <v>8</v>
       </c>
@@ -2205,7 +2212,7 @@
       <c r="E54" s="58"/>
       <c r="F54" s="51"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="50"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -2213,7 +2220,7 @@
       <c r="E55" s="59"/>
       <c r="F55" s="51"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="50" t="s">
         <v>11</v>
       </c>
@@ -2223,7 +2230,7 @@
       <c r="E56" s="59"/>
       <c r="F56" s="51"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="42"/>
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
@@ -2231,7 +2238,7 @@
       <c r="E57" s="44"/>
       <c r="F57" s="43"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="42"/>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -2239,79 +2246,79 @@
       <c r="E58" s="44"/>
       <c r="F58" s="43"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="70" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68" t="s">
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="69"/>
+      <c r="E59" s="103"/>
       <c r="F59" s="43"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="67" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65" t="s">
+      <c r="B60" s="97"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="66"/>
+      <c r="E60" s="100"/>
       <c r="F60" s="43"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="67" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65" t="s">
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="66"/>
+      <c r="E61" s="100"/>
       <c r="F61" s="43"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="67" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65" t="s">
+      <c r="B62" s="97"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="66"/>
+      <c r="E62" s="100"/>
       <c r="F62" s="43"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="67" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65" t="s">
+      <c r="B63" s="97"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="66"/>
+      <c r="E63" s="100"/>
       <c r="F63" s="43"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="67" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65" t="s">
+      <c r="B64" s="97"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="66"/>
+      <c r="E64" s="100"/>
       <c r="F64" s="43"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="42"/>
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
@@ -2319,7 +2326,7 @@
       <c r="E65" s="44"/>
       <c r="F65" s="43"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="42"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
@@ -2327,7 +2334,7 @@
       <c r="E66" s="44"/>
       <c r="F66" s="43"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="42"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -2335,7 +2342,7 @@
       <c r="E67" s="44"/>
       <c r="F67" s="43"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="42"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -2343,7 +2350,7 @@
       <c r="E68" s="44"/>
       <c r="F68" s="43"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="42"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -2351,7 +2358,7 @@
       <c r="E69" s="44"/>
       <c r="F69" s="43"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="42"/>
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
@@ -2359,7 +2366,7 @@
       <c r="E70" s="44"/>
       <c r="F70" s="43"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="42"/>
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
@@ -2367,7 +2374,7 @@
       <c r="E71" s="44"/>
       <c r="F71" s="43"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="42"/>
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
@@ -2375,7 +2382,7 @@
       <c r="E72" s="44"/>
       <c r="F72" s="43"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="42"/>
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
@@ -2383,7 +2390,7 @@
       <c r="E73" s="44"/>
       <c r="F73" s="43"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="42"/>
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
@@ -2391,7 +2398,7 @@
       <c r="E74" s="44"/>
       <c r="F74" s="43"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="42"/>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -2399,7 +2406,7 @@
       <c r="E75" s="44"/>
       <c r="F75" s="43"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="42"/>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
@@ -2407,7 +2414,7 @@
       <c r="E76" s="44"/>
       <c r="F76" s="43"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="42"/>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -2415,7 +2422,7 @@
       <c r="E77" s="44"/>
       <c r="F77" s="43"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="42"/>
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
@@ -2423,7 +2430,7 @@
       <c r="E78" s="44"/>
       <c r="F78" s="43"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="42"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
@@ -2431,7 +2438,7 @@
       <c r="E79" s="44"/>
       <c r="F79" s="43"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="42"/>
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
@@ -2439,7 +2446,7 @@
       <c r="E80" s="44"/>
       <c r="F80" s="43"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="42"/>
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
@@ -2447,7 +2454,7 @@
       <c r="E81" s="44"/>
       <c r="F81" s="43"/>
     </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="45"/>
       <c r="B82" s="46"/>
       <c r="C82" s="46"/>
@@ -2455,7 +2462,7 @@
       <c r="E82" s="47"/>
       <c r="F82" s="43"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="39"/>
       <c r="B83" s="40"/>
       <c r="C83" s="40"/>
@@ -2463,7 +2470,7 @@
       <c r="E83" s="41"/>
       <c r="F83" s="43"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="42" t="s">
         <v>37</v>
       </c>
@@ -2473,7 +2480,7 @@
       <c r="E84" s="44"/>
       <c r="F84" s="43"/>
     </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="45"/>
       <c r="B85" s="46"/>
       <c r="C85" s="46"/>
@@ -2481,7 +2488,7 @@
       <c r="E85" s="47"/>
       <c r="F85" s="43"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="52" t="s">
         <v>24</v>
       </c>
@@ -2491,7 +2498,7 @@
       <c r="E86" s="54"/>
       <c r="F86" s="56"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="55" t="s">
         <v>25</v>
       </c>
@@ -2501,7 +2508,7 @@
       <c r="E87" s="57"/>
       <c r="F87" s="56"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="42"/>
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
@@ -2509,7 +2516,7 @@
       <c r="E88" s="44"/>
       <c r="F88" s="43"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="42"/>
       <c r="B89" s="43"/>
       <c r="C89" s="43"/>
@@ -2517,79 +2524,79 @@
       <c r="E89" s="44"/>
       <c r="F89" s="43"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="70" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="68"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="68" t="s">
+      <c r="B90" s="99"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="69"/>
+      <c r="E90" s="103"/>
       <c r="F90" s="43"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="67" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65" t="s">
+      <c r="B91" s="97"/>
+      <c r="C91" s="97"/>
+      <c r="D91" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="66"/>
+      <c r="E91" s="100"/>
       <c r="F91" s="43"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="67" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65" t="s">
+      <c r="B92" s="97"/>
+      <c r="C92" s="97"/>
+      <c r="D92" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="66"/>
+      <c r="E92" s="100"/>
       <c r="F92" s="43"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="67" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="65" t="s">
+      <c r="B93" s="97"/>
+      <c r="C93" s="97"/>
+      <c r="D93" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="66"/>
+      <c r="E93" s="100"/>
       <c r="F93" s="43"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="67" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65" t="s">
+      <c r="B94" s="97"/>
+      <c r="C94" s="97"/>
+      <c r="D94" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="66"/>
+      <c r="E94" s="100"/>
       <c r="F94" s="43"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="67" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65" t="s">
+      <c r="B95" s="97"/>
+      <c r="C95" s="97"/>
+      <c r="D95" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="66"/>
+      <c r="E95" s="100"/>
       <c r="F95" s="43"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="42"/>
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
@@ -2597,7 +2604,7 @@
       <c r="E96" s="44"/>
       <c r="F96" s="43"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="42"/>
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
@@ -2605,7 +2612,7 @@
       <c r="E97" s="44"/>
       <c r="F97" s="43"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="42"/>
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
@@ -2613,7 +2620,7 @@
       <c r="E98" s="44"/>
       <c r="F98" s="43"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="42"/>
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
@@ -2621,7 +2628,7 @@
       <c r="E99" s="44"/>
       <c r="F99" s="43"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="42"/>
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
@@ -2629,7 +2636,7 @@
       <c r="E100" s="44"/>
       <c r="F100" s="43"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="42"/>
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
@@ -2637,7 +2644,7 @@
       <c r="E101" s="44"/>
       <c r="F101" s="43"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="42"/>
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
@@ -2645,7 +2652,7 @@
       <c r="E102" s="44"/>
       <c r="F102" s="43"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="42"/>
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
@@ -2653,7 +2660,7 @@
       <c r="E103" s="44"/>
       <c r="F103" s="43"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="42"/>
       <c r="B104" s="43"/>
       <c r="C104" s="43"/>
@@ -2661,7 +2668,7 @@
       <c r="E104" s="44"/>
       <c r="F104" s="43"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="42"/>
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
@@ -2669,7 +2676,7 @@
       <c r="E105" s="44"/>
       <c r="F105" s="43"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="42"/>
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
@@ -2677,7 +2684,7 @@
       <c r="E106" s="44"/>
       <c r="F106" s="43"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="42"/>
       <c r="B107" s="43"/>
       <c r="C107" s="43"/>
@@ -2685,7 +2692,7 @@
       <c r="E107" s="44"/>
       <c r="F107" s="43"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="42"/>
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
@@ -2693,7 +2700,7 @@
       <c r="E108" s="44"/>
       <c r="F108" s="43"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="42"/>
       <c r="B109" s="43"/>
       <c r="C109" s="43"/>
@@ -2701,7 +2708,7 @@
       <c r="E109" s="44"/>
       <c r="F109" s="43"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="42"/>
       <c r="B110" s="43"/>
       <c r="C110" s="43"/>
@@ -2709,7 +2716,7 @@
       <c r="E110" s="44"/>
       <c r="F110" s="43"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="42"/>
       <c r="B111" s="43"/>
       <c r="C111" s="43"/>
@@ -2717,7 +2724,7 @@
       <c r="E111" s="44"/>
       <c r="F111" s="43"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="42"/>
       <c r="B112" s="43"/>
       <c r="C112" s="43"/>
@@ -2725,7 +2732,7 @@
       <c r="E112" s="44"/>
       <c r="F112" s="43"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="42"/>
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
@@ -2733,7 +2740,7 @@
       <c r="E113" s="44"/>
       <c r="F113" s="43"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="42"/>
       <c r="B114" s="43"/>
       <c r="C114" s="43"/>
@@ -2741,7 +2748,7 @@
       <c r="E114" s="44"/>
       <c r="F114" s="43"/>
     </row>
-    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="45"/>
       <c r="B115" s="46"/>
       <c r="C115" s="46"/>
@@ -2749,14 +2756,14 @@
       <c r="E115" s="47"/>
       <c r="F115" s="43"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="39"/>
       <c r="B116" s="40"/>
       <c r="C116" s="40"/>
       <c r="D116" s="40"/>
       <c r="E116" s="41"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="42" t="s">
         <v>34</v>
       </c>
@@ -2765,7 +2772,7 @@
       <c r="D117" s="43"/>
       <c r="E117" s="44"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="42"/>
       <c r="B118" s="43"/>
       <c r="C118" s="43" t="s">
@@ -2774,7 +2781,7 @@
       <c r="D118" s="43"/>
       <c r="E118" s="44"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="42"/>
       <c r="B119" s="43"/>
       <c r="C119" s="43" t="s">
@@ -2783,7 +2790,7 @@
       <c r="D119" s="43"/>
       <c r="E119" s="44"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="42"/>
       <c r="B120" s="43"/>
       <c r="C120" s="43" t="s">
@@ -2792,21 +2799,21 @@
       <c r="D120" s="43"/>
       <c r="E120" s="44"/>
     </row>
-    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A121" s="45"/>
       <c r="B121" s="46"/>
       <c r="C121" s="46"/>
       <c r="D121" s="46"/>
       <c r="E121" s="47"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="39"/>
       <c r="B122" s="40"/>
       <c r="C122" s="40"/>
       <c r="D122" s="40"/>
       <c r="E122" s="41"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="42" t="s">
         <v>49</v>
       </c>
@@ -2817,7 +2824,7 @@
       <c r="D123" s="43"/>
       <c r="E123" s="44"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="42"/>
       <c r="B124" s="43"/>
       <c r="C124" s="43" t="s">
@@ -2826,63 +2833,63 @@
       <c r="D124" s="43"/>
       <c r="E124" s="44"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="42"/>
       <c r="B125" s="43"/>
       <c r="C125" s="43"/>
       <c r="D125" s="43"/>
       <c r="E125" s="44"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="42"/>
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
       <c r="D126" s="43"/>
       <c r="E126" s="44"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="42"/>
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
       <c r="D127" s="43"/>
       <c r="E127" s="44"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="42"/>
       <c r="B128" s="43"/>
       <c r="C128" s="43"/>
       <c r="D128" s="43"/>
       <c r="E128" s="44"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="42"/>
       <c r="B129" s="43"/>
       <c r="C129" s="43"/>
       <c r="D129" s="43"/>
       <c r="E129" s="44"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="42"/>
       <c r="B130" s="43"/>
       <c r="C130" s="43"/>
       <c r="D130" s="43"/>
       <c r="E130" s="44"/>
     </row>
-    <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A131" s="45"/>
       <c r="B131" s="46"/>
       <c r="C131" s="46"/>
       <c r="D131" s="46"/>
       <c r="E131" s="47"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="39"/>
       <c r="B132" s="40"/>
       <c r="C132" s="40"/>
       <c r="D132" s="40"/>
       <c r="E132" s="41"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="42" t="s">
         <v>39</v>
       </c>
@@ -2893,14 +2900,14 @@
       <c r="D133" s="43"/>
       <c r="E133" s="44"/>
     </row>
-    <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A134" s="45"/>
       <c r="B134" s="46"/>
       <c r="C134" s="46"/>
       <c r="D134" s="46"/>
       <c r="E134" s="47"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="39" t="s">
         <v>47</v>
       </c>
@@ -2909,14 +2916,14 @@
       <c r="D135" s="40"/>
       <c r="E135" s="41"/>
     </row>
-    <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A136" s="45"/>
       <c r="B136" s="46"/>
       <c r="C136" s="46"/>
       <c r="D136" s="46"/>
       <c r="E136" s="47"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="39" t="s">
         <v>48</v>
       </c>
@@ -2925,14 +2932,14 @@
       <c r="D137" s="40"/>
       <c r="E137" s="41"/>
     </row>
-    <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="45"/>
       <c r="B138" s="46"/>
       <c r="C138" s="46"/>
       <c r="D138" s="46"/>
       <c r="E138" s="47"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="39" t="s">
         <v>52</v>
       </c>
@@ -2941,14 +2948,14 @@
       <c r="D139" s="40"/>
       <c r="E139" s="41"/>
     </row>
-    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A140" s="45"/>
       <c r="B140" s="46"/>
       <c r="C140" s="46"/>
       <c r="D140" s="46"/>
       <c r="E140" s="47"/>
     </row>
-    <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A141" s="60" t="s">
         <v>53</v>
       </c>
@@ -2957,74 +2964,74 @@
       <c r="D141" s="61"/>
       <c r="E141" s="62"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="83">
+      <c r="C172" s="66">
         <v>44163</v>
       </c>
-      <c r="D172" s="84"/>
-      <c r="E172" s="85"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D172" s="67"/>
+      <c r="E172" s="68"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="89" t="s">
+      <c r="C173" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="90"/>
-      <c r="E173" s="91"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D173" s="70"/>
+      <c r="E173" s="71"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="96" t="s">
+      <c r="B174" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="97"/>
-      <c r="D174" s="97"/>
-      <c r="E174" s="98"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="96" t="s">
+      <c r="C174" s="64"/>
+      <c r="D174" s="64"/>
+      <c r="E174" s="65"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B175" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="97"/>
-      <c r="D175" s="97"/>
-      <c r="E175" s="98"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="96" t="s">
+      <c r="C175" s="64"/>
+      <c r="D175" s="64"/>
+      <c r="E175" s="65"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B176" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="97"/>
-      <c r="D176" s="97"/>
-      <c r="E176" s="98"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="96" t="s">
+      <c r="C176" s="64"/>
+      <c r="D176" s="64"/>
+      <c r="E176" s="65"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B177" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="97"/>
-      <c r="D177" s="97"/>
-      <c r="E177" s="98"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="73" t="s">
+      <c r="C177" s="64"/>
+      <c r="D177" s="64"/>
+      <c r="E177" s="65"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B178" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="76"/>
-      <c r="D178" s="76"/>
-      <c r="E178" s="92"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C178" s="73"/>
+      <c r="D178" s="73"/>
+      <c r="E178" s="74"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>60</v>
       </c>
@@ -3035,7 +3042,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>62</v>
       </c>
@@ -3046,7 +3053,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>64</v>
       </c>
@@ -3057,7 +3064,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>65</v>
       </c>
@@ -3074,44 +3081,44 @@
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>1</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="99" t="s">
+      <c r="C183" s="75" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="102" t="s">
+      <c r="E183" s="78" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>2</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="100"/>
+      <c r="C184" s="76"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="103"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E184" s="79"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" s="11">
         <v>3</v>
       </c>
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="100"/>
+      <c r="C185" s="76"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -3119,10 +3126,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="101"/>
+      <c r="C186" s="77"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -3130,74 +3137,88 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A187" s="104">
+        <v>4</v>
+      </c>
+      <c r="B187" t="s">
+        <v>96</v>
+      </c>
+      <c r="D187" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="E187" s="104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="83">
+      <c r="C190" s="66">
         <v>44164</v>
       </c>
-      <c r="D190" s="84"/>
-      <c r="E190" s="85"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D190" s="67"/>
+      <c r="E190" s="68"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="89" t="s">
+      <c r="C191" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="90"/>
-      <c r="E191" s="91"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D191" s="70"/>
+      <c r="E191" s="71"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="96" t="s">
+      <c r="B192" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="97"/>
-      <c r="D192" s="97"/>
-      <c r="E192" s="98"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="96" t="s">
+      <c r="C192" s="64"/>
+      <c r="D192" s="64"/>
+      <c r="E192" s="65"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B193" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="97"/>
-      <c r="D193" s="97"/>
-      <c r="E193" s="98"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="96" t="s">
+      <c r="C193" s="64"/>
+      <c r="D193" s="64"/>
+      <c r="E193" s="65"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B194" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="97"/>
-      <c r="D194" s="97"/>
-      <c r="E194" s="98"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="96" t="s">
+      <c r="C194" s="64"/>
+      <c r="D194" s="64"/>
+      <c r="E194" s="65"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B195" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="97"/>
-      <c r="D195" s="97"/>
-      <c r="E195" s="98"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="73" t="s">
+      <c r="C195" s="64"/>
+      <c r="D195" s="64"/>
+      <c r="E195" s="65"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B196" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="76"/>
-      <c r="D196" s="76"/>
-      <c r="E196" s="92"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C196" s="73"/>
+      <c r="D196" s="73"/>
+      <c r="E196" s="74"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>60</v>
       </c>
@@ -3208,7 +3229,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>62</v>
       </c>
@@ -3219,7 +3240,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>64</v>
       </c>
@@ -3230,7 +3251,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>65</v>
       </c>
@@ -3247,14 +3268,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>1</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="86" t="s">
+      <c r="C201" s="80" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -3264,14 +3285,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="47.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>2</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="87"/>
+      <c r="C202" s="81"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -3279,14 +3300,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="53.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="17">
         <v>3</v>
       </c>
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="88"/>
+      <c r="C203" s="82"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -3294,18 +3315,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="83">
+      <c r="C206" s="66">
         <v>44165</v>
       </c>
-      <c r="D206" s="84"/>
-      <c r="E206" s="85"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D206" s="67"/>
+      <c r="E206" s="68"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>55</v>
       </c>
@@ -3314,42 +3335,44 @@
       <c r="D207" s="33"/>
       <c r="E207" s="34"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="73" t="s">
+      <c r="B208" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="76"/>
-      <c r="D208" s="76"/>
-      <c r="E208" s="92"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B209" s="73"/>
-      <c r="C209" s="76"/>
-      <c r="D209" s="76"/>
-      <c r="E209" s="92"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B210" s="73"/>
-      <c r="C210" s="76"/>
-      <c r="D210" s="76"/>
-      <c r="E210" s="92"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="73"/>
-      <c r="C211" s="76"/>
-      <c r="D211" s="76"/>
-      <c r="E211" s="92"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="73"/>
-      <c r="C212" s="76"/>
-      <c r="D212" s="76"/>
-      <c r="E212" s="92"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C208" s="73"/>
+      <c r="D208" s="73"/>
+      <c r="E208" s="74"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B209" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C209" s="73"/>
+      <c r="D209" s="73"/>
+      <c r="E209" s="74"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B210" s="72"/>
+      <c r="C210" s="73"/>
+      <c r="D210" s="73"/>
+      <c r="E210" s="74"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B211" s="72"/>
+      <c r="C211" s="73"/>
+      <c r="D211" s="73"/>
+      <c r="E211" s="74"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B212" s="72"/>
+      <c r="C212" s="73"/>
+      <c r="D212" s="73"/>
+      <c r="E212" s="74"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>60</v>
       </c>
@@ -3358,7 +3381,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>62</v>
       </c>
@@ -3369,7 +3392,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>64</v>
       </c>
@@ -3380,7 +3403,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>65</v>
       </c>
@@ -3397,99 +3420,99 @@
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" s="1"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="86" t="s">
+      <c r="C217" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="D217" s="86" t="s">
+      <c r="D217" s="80" t="s">
         <v>91</v>
       </c>
       <c r="E217" s="35"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" s="1"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="87"/>
-      <c r="D218" s="87"/>
+      <c r="C218" s="81"/>
+      <c r="D218" s="81"/>
       <c r="E218" s="36"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="88"/>
-      <c r="D219" s="88"/>
+      <c r="C219" s="82"/>
+      <c r="D219" s="82"/>
       <c r="E219" s="37"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="83">
+      <c r="C224" s="66">
         <v>44171</v>
       </c>
-      <c r="D224" s="84"/>
-      <c r="E224" s="85"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D224" s="67"/>
+      <c r="E224" s="68"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="89" t="s">
+      <c r="C225" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="D225" s="90"/>
-      <c r="E225" s="91"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D225" s="70"/>
+      <c r="E225" s="71"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B226" s="96" t="s">
+      <c r="B226" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="97"/>
-      <c r="D226" s="97"/>
-      <c r="E226" s="98"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B227" s="96" t="s">
+      <c r="C226" s="64"/>
+      <c r="D226" s="64"/>
+      <c r="E226" s="65"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B227" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="97"/>
-      <c r="D227" s="97"/>
-      <c r="E227" s="98"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B228" s="96" t="s">
+      <c r="C227" s="64"/>
+      <c r="D227" s="64"/>
+      <c r="E227" s="65"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B228" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="97"/>
-      <c r="D228" s="97"/>
-      <c r="E228" s="98"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B229" s="96" t="s">
+      <c r="C228" s="64"/>
+      <c r="D228" s="64"/>
+      <c r="E228" s="65"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B229" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C229" s="97"/>
-      <c r="D229" s="97"/>
-      <c r="E229" s="98"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B230" s="73" t="s">
+      <c r="C229" s="64"/>
+      <c r="D229" s="64"/>
+      <c r="E229" s="65"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B230" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="76"/>
-      <c r="D230" s="76"/>
-      <c r="E230" s="92"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C230" s="73"/>
+      <c r="D230" s="73"/>
+      <c r="E230" s="74"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>60</v>
       </c>
@@ -3500,7 +3523,7 @@
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>62</v>
       </c>
@@ -3511,7 +3534,7 @@
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>64</v>
       </c>
@@ -3522,7 +3545,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>65</v>
       </c>
@@ -3539,10 +3562,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" s="1"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="86" t="s">
+      <c r="C235" s="80" t="s">
         <v>85</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -3552,10 +3575,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="87"/>
+      <c r="C236" s="81"/>
       <c r="D236" s="16" t="s">
         <v>93</v>
       </c>
@@ -3563,69 +3586,75 @@
         <v>94</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="88"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="19"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C237" s="82"/>
+      <c r="D237" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E237" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="83">
+      <c r="C240" s="66">
         <v>44172</v>
       </c>
-      <c r="D240" s="84"/>
-      <c r="E240" s="85"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D240" s="67"/>
+      <c r="E240" s="68"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="89"/>
-      <c r="D241" s="90"/>
-      <c r="E241" s="91"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C241" s="69"/>
+      <c r="D241" s="70"/>
+      <c r="E241" s="71"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="73" t="s">
+      <c r="B242" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="76"/>
-      <c r="D242" s="76"/>
-      <c r="E242" s="92"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B243" s="73"/>
-      <c r="C243" s="76"/>
-      <c r="D243" s="76"/>
-      <c r="E243" s="92"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B244" s="73"/>
-      <c r="C244" s="76"/>
-      <c r="D244" s="76"/>
-      <c r="E244" s="92"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B245" s="73"/>
-      <c r="C245" s="76"/>
-      <c r="D245" s="76"/>
-      <c r="E245" s="92"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B246" s="73"/>
-      <c r="C246" s="76"/>
-      <c r="D246" s="76"/>
-      <c r="E246" s="92"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C242" s="73"/>
+      <c r="D242" s="73"/>
+      <c r="E242" s="74"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B243" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C243" s="73"/>
+      <c r="D243" s="73"/>
+      <c r="E243" s="74"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B244" s="72"/>
+      <c r="C244" s="73"/>
+      <c r="D244" s="73"/>
+      <c r="E244" s="74"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B245" s="72"/>
+      <c r="C245" s="73"/>
+      <c r="D245" s="73"/>
+      <c r="E245" s="74"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B246" s="72"/>
+      <c r="C246" s="73"/>
+      <c r="D246" s="73"/>
+      <c r="E246" s="74"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>60</v>
       </c>
@@ -3634,7 +3663,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>62</v>
       </c>
@@ -3645,7 +3674,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>64</v>
       </c>
@@ -3656,7 +3685,7 @@
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>65</v>
       </c>
@@ -3673,32 +3702,32 @@
         <v>69</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251" s="1"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="86" t="s">
+      <c r="C251" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="D251" s="86" t="s">
+      <c r="D251" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="E251" s="93"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E251" s="83"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252" s="1"/>
       <c r="B252" s="10"/>
-      <c r="C252" s="87"/>
-      <c r="D252" s="87"/>
-      <c r="E252" s="94"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C252" s="81"/>
+      <c r="D252" s="81"/>
+      <c r="E252" s="84"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253" s="17"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="88"/>
-      <c r="D253" s="88"/>
-      <c r="E253" s="95"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C253" s="82"/>
+      <c r="D253" s="82"/>
+      <c r="E253" s="85"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>54</v>
       </c>
@@ -3709,7 +3738,7 @@
       <c r="D256" s="30"/>
       <c r="E256" s="31"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>55</v>
       </c>
@@ -3718,7 +3747,7 @@
       <c r="D257" s="33"/>
       <c r="E257" s="34"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>57</v>
       </c>
@@ -3729,31 +3758,33 @@
       <c r="D258" s="21"/>
       <c r="E258" s="22"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B259" s="20"/>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B259" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C259" s="21"/>
       <c r="D259" s="21"/>
       <c r="E259" s="22"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B260" s="20"/>
       <c r="C260" s="21"/>
       <c r="D260" s="21"/>
       <c r="E260" s="22"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B261" s="20"/>
       <c r="C261" s="21"/>
       <c r="D261" s="21"/>
       <c r="E261" s="22"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B262" s="23"/>
       <c r="C262" s="24"/>
       <c r="D262" s="24"/>
       <c r="E262" s="25"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>60</v>
       </c>
@@ -3762,7 +3793,7 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>62</v>
       </c>
@@ -3773,7 +3804,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>64</v>
       </c>
@@ -3784,7 +3815,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>65</v>
       </c>
@@ -3801,7 +3832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" s="1"/>
       <c r="B267" s="8"/>
       <c r="C267" s="26"/>
@@ -3812,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" s="1"/>
       <c r="B268" s="10"/>
       <c r="C268" s="27"/>
@@ -3823,27 +3854,71 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" s="17"/>
       <c r="B269" s="18"/>
       <c r="C269" s="28"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="19"/>
+      <c r="D269" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E269" s="19" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="B246:E246"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B228:E228"/>
     <mergeCell ref="D251:D253"/>
     <mergeCell ref="C251:C253"/>
     <mergeCell ref="E251:E253"/>
@@ -3860,58 +3935,18 @@
     <mergeCell ref="C225:E225"/>
     <mergeCell ref="B226:E226"/>
     <mergeCell ref="B227:E227"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="C241:E241"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar Haziq\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C28FE-D253-45E3-84D6-DA82F30918D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32772002-1CC6-409E-BFBA-B9903BFC8736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="100">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>Make a class diagram based on scenario example</t>
+  </si>
+  <si>
+    <t>Code header files for 1. smartDoor 2. application 3. smartAlarm 4. smartHeater 5. smartLamp.</t>
+  </si>
+  <si>
+    <t>make soft copy of class, use case and sequence diagram for smart Alarm</t>
   </si>
 </sst>
 </file>
@@ -372,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -715,11 +721,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -857,6 +872,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -866,32 +972,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -908,79 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1748,38 +1764,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.53125" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="32.19921875" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1787,7 +1803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1803,7 +1819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1811,7 +1827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1819,7 +1835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1827,8 +1843,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
         <v>10</v>
       </c>
@@ -1838,7 +1854,7 @@
       <c r="E11" s="54"/>
       <c r="F11" s="56"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="55" t="s">
         <v>5</v>
       </c>
@@ -1848,7 +1864,7 @@
       <c r="E12" s="57"/>
       <c r="F12" s="56"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
@@ -1856,7 +1872,7 @@
       <c r="E13" s="44"/>
       <c r="F13" s="43"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="42"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -1864,79 +1880,79 @@
       <c r="E14" s="44"/>
       <c r="F14" s="43"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="88" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="86" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="87"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="43"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="95" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="72" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="43"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="93" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="91" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="92"/>
+      <c r="E17" s="73"/>
       <c r="F17" s="43"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="95" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="72" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="90"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="43"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="93" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="91" t="s">
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="92"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="43"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="95" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="72" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="90"/>
+      <c r="E20" s="75"/>
       <c r="F20" s="43"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -1944,7 +1960,7 @@
       <c r="E21" s="44"/>
       <c r="F21" s="43"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -1952,7 +1968,7 @@
       <c r="E22" s="44"/>
       <c r="F22" s="43"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
@@ -1960,7 +1976,7 @@
       <c r="E23" s="44"/>
       <c r="F23" s="43"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="42"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
@@ -1968,7 +1984,7 @@
       <c r="E24" s="44"/>
       <c r="F24" s="43"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="42"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -1976,7 +1992,7 @@
       <c r="E25" s="44"/>
       <c r="F25" s="43"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="42"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -1984,7 +2000,7 @@
       <c r="E26" s="44"/>
       <c r="F26" s="43"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="42"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
@@ -1992,7 +2008,7 @@
       <c r="E27" s="44"/>
       <c r="F27" s="43"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="42"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -2000,7 +2016,7 @@
       <c r="E28" s="44"/>
       <c r="F28" s="43"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="42"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
@@ -2008,7 +2024,7 @@
       <c r="E29" s="44"/>
       <c r="F29" s="43"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="42"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -2016,7 +2032,7 @@
       <c r="E30" s="44"/>
       <c r="F30" s="43"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="42"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
@@ -2024,7 +2040,7 @@
       <c r="E31" s="44"/>
       <c r="F31" s="43"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="42"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -2032,7 +2048,7 @@
       <c r="E32" s="44"/>
       <c r="F32" s="43"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -2040,7 +2056,7 @@
       <c r="E33" s="44"/>
       <c r="F33" s="43"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="42"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
@@ -2048,7 +2064,7 @@
       <c r="E34" s="44"/>
       <c r="F34" s="43"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="42"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
@@ -2056,7 +2072,7 @@
       <c r="E35" s="44"/>
       <c r="F35" s="43"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="42"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -2064,7 +2080,7 @@
       <c r="E36" s="44"/>
       <c r="F36" s="43"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -2072,7 +2088,7 @@
       <c r="E37" s="44"/>
       <c r="F37" s="43"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="42"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
@@ -2080,7 +2096,7 @@
       <c r="E38" s="44"/>
       <c r="F38" s="43"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="42"/>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
@@ -2088,7 +2104,7 @@
       <c r="E39" s="44"/>
       <c r="F39" s="43"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -2096,7 +2112,7 @@
       <c r="E40" s="44"/>
       <c r="F40" s="43"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="42"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -2104,7 +2120,7 @@
       <c r="E41" s="44"/>
       <c r="F41" s="43"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="42"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -2112,7 +2128,7 @@
       <c r="E42" s="44"/>
       <c r="F42" s="43"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="42"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -2120,7 +2136,7 @@
       <c r="E43" s="44"/>
       <c r="F43" s="43"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="42"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -2128,7 +2144,7 @@
       <c r="E44" s="44"/>
       <c r="F44" s="43"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="42"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -2136,7 +2152,7 @@
       <c r="E45" s="44"/>
       <c r="F45" s="43"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="42"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -2144,7 +2160,7 @@
       <c r="E46" s="44"/>
       <c r="F46" s="43"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="42"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -2152,7 +2168,7 @@
       <c r="E47" s="44"/>
       <c r="F47" s="43"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="42"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -2160,7 +2176,7 @@
       <c r="E48" s="44"/>
       <c r="F48" s="43"/>
     </row>
-    <row r="49" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="45"/>
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
@@ -2168,7 +2184,7 @@
       <c r="E49" s="47"/>
       <c r="F49" s="43"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="39"/>
       <c r="B50" s="40"/>
       <c r="C50" s="40"/>
@@ -2176,7 +2192,7 @@
       <c r="E50" s="41"/>
       <c r="F50" s="43"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="42" t="s">
         <v>13</v>
       </c>
@@ -2186,7 +2202,7 @@
       <c r="E51" s="44"/>
       <c r="F51" s="43"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="42"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -2194,7 +2210,7 @@
       <c r="E52" s="44"/>
       <c r="F52" s="43"/>
     </row>
-    <row r="53" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="45"/>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
@@ -2202,7 +2218,7 @@
       <c r="E53" s="47"/>
       <c r="F53" s="43"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="48" t="s">
         <v>8</v>
       </c>
@@ -2212,7 +2228,7 @@
       <c r="E54" s="58"/>
       <c r="F54" s="51"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="50"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -2220,7 +2236,7 @@
       <c r="E55" s="59"/>
       <c r="F55" s="51"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="50" t="s">
         <v>11</v>
       </c>
@@ -2230,7 +2246,7 @@
       <c r="E56" s="59"/>
       <c r="F56" s="51"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="42"/>
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
@@ -2238,7 +2254,7 @@
       <c r="E57" s="44"/>
       <c r="F57" s="43"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="42"/>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -2246,79 +2262,79 @@
       <c r="E58" s="44"/>
       <c r="F58" s="43"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="98" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99" t="s">
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="103"/>
+      <c r="E59" s="70"/>
       <c r="F59" s="43"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="96" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="97"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97" t="s">
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="100"/>
+      <c r="E60" s="67"/>
       <c r="F60" s="43"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="96" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97" t="s">
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="100"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="43"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="96" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97" t="s">
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="100"/>
+      <c r="E62" s="67"/>
       <c r="F62" s="43"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="96" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="97"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97" t="s">
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="100"/>
+      <c r="E63" s="67"/>
       <c r="F63" s="43"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="96" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="97"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="97" t="s">
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="100"/>
+      <c r="E64" s="67"/>
       <c r="F64" s="43"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="42"/>
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
@@ -2326,7 +2342,7 @@
       <c r="E65" s="44"/>
       <c r="F65" s="43"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="42"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
@@ -2334,7 +2350,7 @@
       <c r="E66" s="44"/>
       <c r="F66" s="43"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="42"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -2342,7 +2358,7 @@
       <c r="E67" s="44"/>
       <c r="F67" s="43"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="42"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -2350,7 +2366,7 @@
       <c r="E68" s="44"/>
       <c r="F68" s="43"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="42"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -2358,7 +2374,7 @@
       <c r="E69" s="44"/>
       <c r="F69" s="43"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="42"/>
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
@@ -2366,7 +2382,7 @@
       <c r="E70" s="44"/>
       <c r="F70" s="43"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="42"/>
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
@@ -2374,7 +2390,7 @@
       <c r="E71" s="44"/>
       <c r="F71" s="43"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="42"/>
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
@@ -2382,7 +2398,7 @@
       <c r="E72" s="44"/>
       <c r="F72" s="43"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="42"/>
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
@@ -2390,7 +2406,7 @@
       <c r="E73" s="44"/>
       <c r="F73" s="43"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="42"/>
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
@@ -2398,7 +2414,7 @@
       <c r="E74" s="44"/>
       <c r="F74" s="43"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="42"/>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -2406,7 +2422,7 @@
       <c r="E75" s="44"/>
       <c r="F75" s="43"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="42"/>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
@@ -2414,7 +2430,7 @@
       <c r="E76" s="44"/>
       <c r="F76" s="43"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="42"/>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -2422,7 +2438,7 @@
       <c r="E77" s="44"/>
       <c r="F77" s="43"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="42"/>
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
@@ -2430,7 +2446,7 @@
       <c r="E78" s="44"/>
       <c r="F78" s="43"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="42"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
@@ -2438,7 +2454,7 @@
       <c r="E79" s="44"/>
       <c r="F79" s="43"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="42"/>
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
@@ -2446,7 +2462,7 @@
       <c r="E80" s="44"/>
       <c r="F80" s="43"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="42"/>
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
@@ -2454,7 +2470,7 @@
       <c r="E81" s="44"/>
       <c r="F81" s="43"/>
     </row>
-    <row r="82" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="45"/>
       <c r="B82" s="46"/>
       <c r="C82" s="46"/>
@@ -2462,7 +2478,7 @@
       <c r="E82" s="47"/>
       <c r="F82" s="43"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="39"/>
       <c r="B83" s="40"/>
       <c r="C83" s="40"/>
@@ -2470,7 +2486,7 @@
       <c r="E83" s="41"/>
       <c r="F83" s="43"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="42" t="s">
         <v>37</v>
       </c>
@@ -2480,7 +2496,7 @@
       <c r="E84" s="44"/>
       <c r="F84" s="43"/>
     </row>
-    <row r="85" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="45"/>
       <c r="B85" s="46"/>
       <c r="C85" s="46"/>
@@ -2488,7 +2504,7 @@
       <c r="E85" s="47"/>
       <c r="F85" s="43"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="52" t="s">
         <v>24</v>
       </c>
@@ -2498,7 +2514,7 @@
       <c r="E86" s="54"/>
       <c r="F86" s="56"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="55" t="s">
         <v>25</v>
       </c>
@@ -2508,7 +2524,7 @@
       <c r="E87" s="57"/>
       <c r="F87" s="56"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="42"/>
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
@@ -2516,7 +2532,7 @@
       <c r="E88" s="44"/>
       <c r="F88" s="43"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="42"/>
       <c r="B89" s="43"/>
       <c r="C89" s="43"/>
@@ -2524,79 +2540,79 @@
       <c r="E89" s="44"/>
       <c r="F89" s="43"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="98" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="99"/>
-      <c r="C90" s="99"/>
-      <c r="D90" s="99" t="s">
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="103"/>
+      <c r="E90" s="70"/>
       <c r="F90" s="43"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="96" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="97"/>
-      <c r="C91" s="97"/>
-      <c r="D91" s="97" t="s">
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="100"/>
+      <c r="E91" s="67"/>
       <c r="F91" s="43"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A92" s="96" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="97"/>
-      <c r="C92" s="97"/>
-      <c r="D92" s="97" t="s">
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="100"/>
+      <c r="E92" s="67"/>
       <c r="F92" s="43"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A93" s="96" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="97"/>
-      <c r="C93" s="97"/>
-      <c r="D93" s="97" t="s">
+      <c r="B93" s="66"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="100"/>
+      <c r="E93" s="67"/>
       <c r="F93" s="43"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A94" s="96" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="97"/>
-      <c r="C94" s="97"/>
-      <c r="D94" s="97" t="s">
+      <c r="B94" s="66"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="100"/>
+      <c r="E94" s="67"/>
       <c r="F94" s="43"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A95" s="96" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="97"/>
-      <c r="C95" s="97"/>
-      <c r="D95" s="97" t="s">
+      <c r="B95" s="66"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="100"/>
+      <c r="E95" s="67"/>
       <c r="F95" s="43"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="42"/>
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
@@ -2604,7 +2620,7 @@
       <c r="E96" s="44"/>
       <c r="F96" s="43"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="42"/>
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
@@ -2612,7 +2628,7 @@
       <c r="E97" s="44"/>
       <c r="F97" s="43"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="42"/>
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
@@ -2620,7 +2636,7 @@
       <c r="E98" s="44"/>
       <c r="F98" s="43"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="42"/>
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
@@ -2628,7 +2644,7 @@
       <c r="E99" s="44"/>
       <c r="F99" s="43"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="42"/>
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
@@ -2636,7 +2652,7 @@
       <c r="E100" s="44"/>
       <c r="F100" s="43"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="42"/>
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
@@ -2644,7 +2660,7 @@
       <c r="E101" s="44"/>
       <c r="F101" s="43"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="42"/>
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
@@ -2652,7 +2668,7 @@
       <c r="E102" s="44"/>
       <c r="F102" s="43"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="42"/>
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
@@ -2660,7 +2676,7 @@
       <c r="E103" s="44"/>
       <c r="F103" s="43"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="42"/>
       <c r="B104" s="43"/>
       <c r="C104" s="43"/>
@@ -2668,7 +2684,7 @@
       <c r="E104" s="44"/>
       <c r="F104" s="43"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="42"/>
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
@@ -2676,7 +2692,7 @@
       <c r="E105" s="44"/>
       <c r="F105" s="43"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="42"/>
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
@@ -2684,7 +2700,7 @@
       <c r="E106" s="44"/>
       <c r="F106" s="43"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="42"/>
       <c r="B107" s="43"/>
       <c r="C107" s="43"/>
@@ -2692,7 +2708,7 @@
       <c r="E107" s="44"/>
       <c r="F107" s="43"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="42"/>
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
@@ -2700,7 +2716,7 @@
       <c r="E108" s="44"/>
       <c r="F108" s="43"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="42"/>
       <c r="B109" s="43"/>
       <c r="C109" s="43"/>
@@ -2708,7 +2724,7 @@
       <c r="E109" s="44"/>
       <c r="F109" s="43"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="42"/>
       <c r="B110" s="43"/>
       <c r="C110" s="43"/>
@@ -2716,7 +2732,7 @@
       <c r="E110" s="44"/>
       <c r="F110" s="43"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="42"/>
       <c r="B111" s="43"/>
       <c r="C111" s="43"/>
@@ -2724,7 +2740,7 @@
       <c r="E111" s="44"/>
       <c r="F111" s="43"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="42"/>
       <c r="B112" s="43"/>
       <c r="C112" s="43"/>
@@ -2732,7 +2748,7 @@
       <c r="E112" s="44"/>
       <c r="F112" s="43"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="42"/>
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
@@ -2740,7 +2756,7 @@
       <c r="E113" s="44"/>
       <c r="F113" s="43"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="42"/>
       <c r="B114" s="43"/>
       <c r="C114" s="43"/>
@@ -2748,7 +2764,7 @@
       <c r="E114" s="44"/>
       <c r="F114" s="43"/>
     </row>
-    <row r="115" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="45"/>
       <c r="B115" s="46"/>
       <c r="C115" s="46"/>
@@ -2756,14 +2772,14 @@
       <c r="E115" s="47"/>
       <c r="F115" s="43"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="39"/>
       <c r="B116" s="40"/>
       <c r="C116" s="40"/>
       <c r="D116" s="40"/>
       <c r="E116" s="41"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="42" t="s">
         <v>34</v>
       </c>
@@ -2772,7 +2788,7 @@
       <c r="D117" s="43"/>
       <c r="E117" s="44"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="42"/>
       <c r="B118" s="43"/>
       <c r="C118" s="43" t="s">
@@ -2781,7 +2797,7 @@
       <c r="D118" s="43"/>
       <c r="E118" s="44"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="42"/>
       <c r="B119" s="43"/>
       <c r="C119" s="43" t="s">
@@ -2790,7 +2806,7 @@
       <c r="D119" s="43"/>
       <c r="E119" s="44"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="42"/>
       <c r="B120" s="43"/>
       <c r="C120" s="43" t="s">
@@ -2799,21 +2815,21 @@
       <c r="D120" s="43"/>
       <c r="E120" s="44"/>
     </row>
-    <row r="121" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="45"/>
       <c r="B121" s="46"/>
       <c r="C121" s="46"/>
       <c r="D121" s="46"/>
       <c r="E121" s="47"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="39"/>
       <c r="B122" s="40"/>
       <c r="C122" s="40"/>
       <c r="D122" s="40"/>
       <c r="E122" s="41"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="42" t="s">
         <v>49</v>
       </c>
@@ -2824,7 +2840,7 @@
       <c r="D123" s="43"/>
       <c r="E123" s="44"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="42"/>
       <c r="B124" s="43"/>
       <c r="C124" s="43" t="s">
@@ -2833,63 +2849,63 @@
       <c r="D124" s="43"/>
       <c r="E124" s="44"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="42"/>
       <c r="B125" s="43"/>
       <c r="C125" s="43"/>
       <c r="D125" s="43"/>
       <c r="E125" s="44"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="42"/>
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
       <c r="D126" s="43"/>
       <c r="E126" s="44"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="42"/>
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
       <c r="D127" s="43"/>
       <c r="E127" s="44"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="42"/>
       <c r="B128" s="43"/>
       <c r="C128" s="43"/>
       <c r="D128" s="43"/>
       <c r="E128" s="44"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="42"/>
       <c r="B129" s="43"/>
       <c r="C129" s="43"/>
       <c r="D129" s="43"/>
       <c r="E129" s="44"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="42"/>
       <c r="B130" s="43"/>
       <c r="C130" s="43"/>
       <c r="D130" s="43"/>
       <c r="E130" s="44"/>
     </row>
-    <row r="131" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="45"/>
       <c r="B131" s="46"/>
       <c r="C131" s="46"/>
       <c r="D131" s="46"/>
       <c r="E131" s="47"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="39"/>
       <c r="B132" s="40"/>
       <c r="C132" s="40"/>
       <c r="D132" s="40"/>
       <c r="E132" s="41"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="42" t="s">
         <v>39</v>
       </c>
@@ -2900,14 +2916,14 @@
       <c r="D133" s="43"/>
       <c r="E133" s="44"/>
     </row>
-    <row r="134" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="45"/>
       <c r="B134" s="46"/>
       <c r="C134" s="46"/>
       <c r="D134" s="46"/>
       <c r="E134" s="47"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="39" t="s">
         <v>47</v>
       </c>
@@ -2916,14 +2932,14 @@
       <c r="D135" s="40"/>
       <c r="E135" s="41"/>
     </row>
-    <row r="136" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="45"/>
       <c r="B136" s="46"/>
       <c r="C136" s="46"/>
       <c r="D136" s="46"/>
       <c r="E136" s="47"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="39" t="s">
         <v>48</v>
       </c>
@@ -2932,14 +2948,14 @@
       <c r="D137" s="40"/>
       <c r="E137" s="41"/>
     </row>
-    <row r="138" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="45"/>
       <c r="B138" s="46"/>
       <c r="C138" s="46"/>
       <c r="D138" s="46"/>
       <c r="E138" s="47"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="39" t="s">
         <v>52</v>
       </c>
@@ -2948,14 +2964,14 @@
       <c r="D139" s="40"/>
       <c r="E139" s="41"/>
     </row>
-    <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="45"/>
       <c r="B140" s="46"/>
       <c r="C140" s="46"/>
       <c r="D140" s="46"/>
       <c r="E140" s="47"/>
     </row>
-    <row r="141" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="60" t="s">
         <v>53</v>
       </c>
@@ -2964,74 +2980,74 @@
       <c r="D141" s="61"/>
       <c r="E141" s="62"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="66">
+      <c r="C172" s="84">
         <v>44163</v>
       </c>
-      <c r="D172" s="67"/>
-      <c r="E172" s="68"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D172" s="85"/>
+      <c r="E172" s="86"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="69" t="s">
+      <c r="C173" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="70"/>
-      <c r="E173" s="71"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D173" s="91"/>
+      <c r="E173" s="92"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="63" t="s">
+      <c r="B174" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="64"/>
-      <c r="D174" s="64"/>
-      <c r="E174" s="65"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B175" s="63" t="s">
+      <c r="C174" s="95"/>
+      <c r="D174" s="95"/>
+      <c r="E174" s="96"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B175" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="64"/>
-      <c r="D175" s="64"/>
-      <c r="E175" s="65"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B176" s="63" t="s">
+      <c r="C175" s="95"/>
+      <c r="D175" s="95"/>
+      <c r="E175" s="96"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B176" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="64"/>
-      <c r="D176" s="64"/>
-      <c r="E176" s="65"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B177" s="63" t="s">
+      <c r="C176" s="95"/>
+      <c r="D176" s="95"/>
+      <c r="E176" s="96"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B177" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="64"/>
-      <c r="D177" s="64"/>
-      <c r="E177" s="65"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B178" s="72" t="s">
+      <c r="C177" s="95"/>
+      <c r="D177" s="95"/>
+      <c r="E177" s="96"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B178" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="73"/>
-      <c r="D178" s="73"/>
-      <c r="E178" s="74"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C178" s="77"/>
+      <c r="D178" s="77"/>
+      <c r="E178" s="93"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>60</v>
       </c>
@@ -3042,7 +3058,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>62</v>
       </c>
@@ -3053,7 +3069,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>64</v>
       </c>
@@ -3064,7 +3080,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>65</v>
       </c>
@@ -3081,44 +3097,44 @@
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>1</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="75" t="s">
+      <c r="C183" s="100" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="78" t="s">
+      <c r="E183" s="103" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>2</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="76"/>
+      <c r="C184" s="101"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="79"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E184" s="104"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
         <v>3</v>
       </c>
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="76"/>
+      <c r="C185" s="101"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -3126,10 +3142,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="77"/>
+      <c r="C186" s="102"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -3137,88 +3153,88 @@
         <v>42</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A187" s="104">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="63">
         <v>4</v>
       </c>
       <c r="B187" t="s">
         <v>96</v>
       </c>
-      <c r="D187" s="104" t="s">
+      <c r="D187" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E187" s="104" t="s">
+      <c r="E187" s="63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="66">
+      <c r="C190" s="84">
         <v>44164</v>
       </c>
-      <c r="D190" s="67"/>
-      <c r="E190" s="68"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D190" s="85"/>
+      <c r="E190" s="86"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="69" t="s">
+      <c r="C191" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="70"/>
-      <c r="E191" s="71"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D191" s="91"/>
+      <c r="E191" s="92"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="63" t="s">
+      <c r="B192" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="64"/>
-      <c r="D192" s="64"/>
-      <c r="E192" s="65"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B193" s="63" t="s">
+      <c r="C192" s="95"/>
+      <c r="D192" s="95"/>
+      <c r="E192" s="96"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B193" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="64"/>
-      <c r="D193" s="64"/>
-      <c r="E193" s="65"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B194" s="63" t="s">
+      <c r="C193" s="95"/>
+      <c r="D193" s="95"/>
+      <c r="E193" s="96"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B194" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="64"/>
-      <c r="D194" s="64"/>
-      <c r="E194" s="65"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B195" s="63" t="s">
+      <c r="C194" s="95"/>
+      <c r="D194" s="95"/>
+      <c r="E194" s="96"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B195" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="64"/>
-      <c r="D195" s="64"/>
-      <c r="E195" s="65"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B196" s="72" t="s">
+      <c r="C195" s="95"/>
+      <c r="D195" s="95"/>
+      <c r="E195" s="96"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B196" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="73"/>
-      <c r="D196" s="73"/>
-      <c r="E196" s="74"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C196" s="77"/>
+      <c r="D196" s="77"/>
+      <c r="E196" s="93"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>60</v>
       </c>
@@ -3229,7 +3245,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>62</v>
       </c>
@@ -3240,7 +3256,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>64</v>
       </c>
@@ -3251,7 +3267,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>65</v>
       </c>
@@ -3268,14 +3284,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>1</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="80" t="s">
+      <c r="C201" s="87" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -3285,14 +3301,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="47.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>2</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="81"/>
+      <c r="C202" s="88"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -3300,14 +3316,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="53.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="17">
         <v>3</v>
       </c>
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="82"/>
+      <c r="C203" s="89"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -3315,18 +3331,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="66">
+      <c r="C206" s="84">
         <v>44165</v>
       </c>
-      <c r="D206" s="67"/>
-      <c r="E206" s="68"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D206" s="85"/>
+      <c r="E206" s="86"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>55</v>
       </c>
@@ -3335,44 +3351,46 @@
       <c r="D207" s="33"/>
       <c r="E207" s="34"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="72" t="s">
+      <c r="B208" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="73"/>
-      <c r="D208" s="73"/>
-      <c r="E208" s="74"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B209" s="72" t="s">
+      <c r="C208" s="77"/>
+      <c r="D208" s="77"/>
+      <c r="E208" s="93"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B209" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="73"/>
-      <c r="D209" s="73"/>
-      <c r="E209" s="74"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B210" s="72"/>
-      <c r="C210" s="73"/>
-      <c r="D210" s="73"/>
-      <c r="E210" s="74"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B211" s="72"/>
-      <c r="C211" s="73"/>
-      <c r="D211" s="73"/>
-      <c r="E211" s="74"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B212" s="72"/>
-      <c r="C212" s="73"/>
-      <c r="D212" s="73"/>
-      <c r="E212" s="74"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C209" s="77"/>
+      <c r="D209" s="77"/>
+      <c r="E209" s="93"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B210" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C210" s="77"/>
+      <c r="D210" s="77"/>
+      <c r="E210" s="93"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B211" s="74"/>
+      <c r="C211" s="77"/>
+      <c r="D211" s="77"/>
+      <c r="E211" s="93"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B212" s="74"/>
+      <c r="C212" s="77"/>
+      <c r="D212" s="77"/>
+      <c r="E212" s="93"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>60</v>
       </c>
@@ -3381,7 +3399,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>62</v>
       </c>
@@ -3392,7 +3410,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>64</v>
       </c>
@@ -3403,7 +3421,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>65</v>
       </c>
@@ -3420,99 +3438,99 @@
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="80" t="s">
+      <c r="C217" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D217" s="80" t="s">
+      <c r="D217" s="87" t="s">
         <v>91</v>
       </c>
       <c r="E217" s="35"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="81"/>
-      <c r="D218" s="81"/>
+      <c r="C218" s="88"/>
+      <c r="D218" s="88"/>
       <c r="E218" s="36"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="82"/>
-      <c r="D219" s="82"/>
+      <c r="C219" s="89"/>
+      <c r="D219" s="89"/>
       <c r="E219" s="37"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="66">
+      <c r="C224" s="84">
         <v>44171</v>
       </c>
-      <c r="D224" s="67"/>
-      <c r="E224" s="68"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D224" s="85"/>
+      <c r="E224" s="86"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="69" t="s">
+      <c r="C225" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="D225" s="70"/>
-      <c r="E225" s="71"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D225" s="91"/>
+      <c r="E225" s="92"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B226" s="63" t="s">
+      <c r="B226" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="64"/>
-      <c r="D226" s="64"/>
-      <c r="E226" s="65"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B227" s="63" t="s">
+      <c r="C226" s="95"/>
+      <c r="D226" s="95"/>
+      <c r="E226" s="96"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B227" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="64"/>
-      <c r="D227" s="64"/>
-      <c r="E227" s="65"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B228" s="63" t="s">
+      <c r="C227" s="95"/>
+      <c r="D227" s="95"/>
+      <c r="E227" s="96"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B228" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="64"/>
-      <c r="D228" s="64"/>
-      <c r="E228" s="65"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B229" s="63" t="s">
+      <c r="C228" s="95"/>
+      <c r="D228" s="95"/>
+      <c r="E228" s="96"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B229" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="C229" s="64"/>
-      <c r="D229" s="64"/>
-      <c r="E229" s="65"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B230" s="72" t="s">
+      <c r="C229" s="95"/>
+      <c r="D229" s="95"/>
+      <c r="E229" s="96"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B230" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="73"/>
-      <c r="D230" s="73"/>
-      <c r="E230" s="74"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C230" s="77"/>
+      <c r="D230" s="77"/>
+      <c r="E230" s="93"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>60</v>
       </c>
@@ -3523,7 +3541,7 @@
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>62</v>
       </c>
@@ -3534,7 +3552,7 @@
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>64</v>
       </c>
@@ -3545,7 +3563,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>65</v>
       </c>
@@ -3562,10 +3580,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="80" t="s">
+      <c r="C235" s="87" t="s">
         <v>85</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -3575,10 +3593,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="81"/>
+      <c r="C236" s="88"/>
       <c r="D236" s="16" t="s">
         <v>93</v>
       </c>
@@ -3586,10 +3604,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="82"/>
+      <c r="C237" s="89"/>
       <c r="D237" s="1" t="s">
         <v>93</v>
       </c>
@@ -3597,64 +3615,74 @@
         <v>58</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D238" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="E238" s="105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="66">
+      <c r="C240" s="84">
         <v>44172</v>
       </c>
-      <c r="D240" s="67"/>
-      <c r="E240" s="68"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D240" s="85"/>
+      <c r="E240" s="86"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="69"/>
-      <c r="D241" s="70"/>
-      <c r="E241" s="71"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C241" s="90"/>
+      <c r="D241" s="91"/>
+      <c r="E241" s="92"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="72" t="s">
+      <c r="B242" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="73"/>
-      <c r="D242" s="73"/>
-      <c r="E242" s="74"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B243" s="72" t="s">
+      <c r="C242" s="77"/>
+      <c r="D242" s="77"/>
+      <c r="E242" s="93"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B243" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C243" s="73"/>
-      <c r="D243" s="73"/>
-      <c r="E243" s="74"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B244" s="72"/>
-      <c r="C244" s="73"/>
-      <c r="D244" s="73"/>
-      <c r="E244" s="74"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B245" s="72"/>
-      <c r="C245" s="73"/>
-      <c r="D245" s="73"/>
-      <c r="E245" s="74"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B246" s="72"/>
-      <c r="C246" s="73"/>
-      <c r="D246" s="73"/>
-      <c r="E246" s="74"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C243" s="77"/>
+      <c r="D243" s="77"/>
+      <c r="E243" s="93"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B244" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C244" s="77"/>
+      <c r="D244" s="77"/>
+      <c r="E244" s="93"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B245" s="74"/>
+      <c r="C245" s="77"/>
+      <c r="D245" s="77"/>
+      <c r="E245" s="93"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B246" s="74"/>
+      <c r="C246" s="77"/>
+      <c r="D246" s="77"/>
+      <c r="E246" s="93"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>60</v>
       </c>
@@ -3663,7 +3691,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>62</v>
       </c>
@@ -3674,7 +3702,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>64</v>
       </c>
@@ -3685,7 +3713,7 @@
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,32 +3730,32 @@
         <v>69</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="80" t="s">
+      <c r="C251" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D251" s="80" t="s">
+      <c r="D251" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="E251" s="83"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E251" s="97"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="10"/>
-      <c r="C252" s="81"/>
-      <c r="D252" s="81"/>
-      <c r="E252" s="84"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C252" s="88"/>
+      <c r="D252" s="88"/>
+      <c r="E252" s="98"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="82"/>
-      <c r="D253" s="82"/>
-      <c r="E253" s="85"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C253" s="89"/>
+      <c r="D253" s="89"/>
+      <c r="E253" s="99"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>54</v>
       </c>
@@ -3738,7 +3766,7 @@
       <c r="D256" s="30"/>
       <c r="E256" s="31"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>55</v>
       </c>
@@ -3747,7 +3775,7 @@
       <c r="D257" s="33"/>
       <c r="E257" s="34"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>57</v>
       </c>
@@ -3758,7 +3786,7 @@
       <c r="D258" s="21"/>
       <c r="E258" s="22"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B259" s="20" t="s">
         <v>58</v>
       </c>
@@ -3766,25 +3794,27 @@
       <c r="D259" s="21"/>
       <c r="E259" s="22"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B260" s="20"/>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B260" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C260" s="21"/>
       <c r="D260" s="21"/>
       <c r="E260" s="22"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B261" s="20"/>
       <c r="C261" s="21"/>
       <c r="D261" s="21"/>
       <c r="E261" s="22"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B262" s="23"/>
       <c r="C262" s="24"/>
       <c r="D262" s="24"/>
       <c r="E262" s="25"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>60</v>
       </c>
@@ -3793,7 +3823,7 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>62</v>
       </c>
@@ -3804,7 +3834,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>64</v>
       </c>
@@ -3815,7 +3845,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>65</v>
       </c>
@@ -3832,7 +3862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="8"/>
       <c r="C267" s="26"/>
@@ -3843,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="10"/>
       <c r="C268" s="27"/>
@@ -3854,7 +3884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="18"/>
       <c r="C269" s="28"/>
@@ -3865,8 +3895,80 @@
         <v>58</v>
       </c>
     </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D270" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E270" s="105" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="D251:D253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="C240:E240"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="B246:E246"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="D94:E94"/>
@@ -3883,70 +3985,6 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="C241:E241"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="D251:D253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="E251:E253"/>
-    <mergeCell ref="C240:E240"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="C224:E224"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="B226:E226"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ammar Haziq\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32772002-1CC6-409E-BFBA-B9903BFC8736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3DE9C1-8EA2-422A-918D-E284ACEAEECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -299,9 +299,6 @@
     <t>Project 05,Project 06 and Project 07</t>
   </si>
   <si>
-    <t>add intermidiate layer between user and controller on the architecture. Specify controller in smart heater class diagram</t>
-  </si>
-  <si>
     <t>Lab class</t>
   </si>
   <si>
@@ -336,6 +333,12 @@
   </si>
   <si>
     <t>make soft copy of class, use case and sequence diagram for smart Alarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 scenario and its class diagram and state diagram are disscussed. One of the scenario is choosen to be implemented using c++. </t>
+  </si>
+  <si>
+    <t>add intermidiate layer between user and controller on the architecture. Specify controller in smart heater class diagram. Wrire header file (controlHub) and main source code. Make a soft copy for state diagram.</t>
   </si>
 </sst>
 </file>
@@ -873,130 +876,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1766,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B260" sqref="B260"/>
+    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1780,20 +1783,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1881,75 +1884,75 @@
       <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="80" t="s">
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="81"/>
+      <c r="E15" s="89"/>
       <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="75"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="72" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="73"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="75"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="43"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="72" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="73"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
       <c r="D20" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="75"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="43"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2263,75 +2266,75 @@
       <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69" t="s">
+      <c r="B59" s="101"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="70"/>
+      <c r="E59" s="105"/>
       <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="68" t="s">
+      <c r="A60" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66" t="s">
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="67"/>
+      <c r="E60" s="102"/>
       <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="68" t="s">
+      <c r="A61" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="66"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66" t="s">
+      <c r="B61" s="99"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="67"/>
+      <c r="E61" s="102"/>
       <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66" t="s">
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="67"/>
+      <c r="E62" s="102"/>
       <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="68" t="s">
+      <c r="A63" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66" t="s">
+      <c r="B63" s="99"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="67"/>
+      <c r="E63" s="102"/>
       <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="68" t="s">
+      <c r="A64" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66" t="s">
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="67"/>
+      <c r="E64" s="102"/>
       <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2541,75 +2544,75 @@
       <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="71" t="s">
+      <c r="A90" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69" t="s">
+      <c r="B90" s="101"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="70"/>
+      <c r="E90" s="105"/>
       <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="68" t="s">
+      <c r="A91" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66" t="s">
+      <c r="B91" s="99"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="67"/>
+      <c r="E91" s="102"/>
       <c r="F91" s="43"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="68" t="s">
+      <c r="A92" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66" t="s">
+      <c r="B92" s="99"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="67"/>
+      <c r="E92" s="102"/>
       <c r="F92" s="43"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="68" t="s">
+      <c r="A93" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="66"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66" t="s">
+      <c r="B93" s="99"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="67"/>
+      <c r="E93" s="102"/>
       <c r="F93" s="43"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="68" t="s">
+      <c r="A94" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="66"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66" t="s">
+      <c r="B94" s="99"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="67"/>
+      <c r="E94" s="102"/>
       <c r="F94" s="43"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="68" t="s">
+      <c r="A95" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="66"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="66" t="s">
+      <c r="B95" s="99"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="67"/>
+      <c r="E95" s="102"/>
       <c r="F95" s="43"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2985,11 +2988,11 @@
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="84">
+      <c r="C172" s="68">
         <v>44163</v>
       </c>
-      <c r="D172" s="85"/>
-      <c r="E172" s="86"/>
+      <c r="D172" s="69"/>
+      <c r="E172" s="70"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -2998,54 +3001,54 @@
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="90" t="s">
+      <c r="C173" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="91"/>
-      <c r="E173" s="92"/>
+      <c r="D173" s="72"/>
+      <c r="E173" s="73"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="94" t="s">
+      <c r="B174" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="95"/>
-      <c r="D174" s="95"/>
-      <c r="E174" s="96"/>
+      <c r="C174" s="66"/>
+      <c r="D174" s="66"/>
+      <c r="E174" s="67"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="94" t="s">
+      <c r="B175" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="95"/>
-      <c r="D175" s="95"/>
-      <c r="E175" s="96"/>
+      <c r="C175" s="66"/>
+      <c r="D175" s="66"/>
+      <c r="E175" s="67"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="94" t="s">
+      <c r="B176" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="95"/>
-      <c r="D176" s="95"/>
-      <c r="E176" s="96"/>
+      <c r="C176" s="66"/>
+      <c r="D176" s="66"/>
+      <c r="E176" s="67"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="94" t="s">
+      <c r="B177" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="95"/>
-      <c r="D177" s="95"/>
-      <c r="E177" s="96"/>
+      <c r="C177" s="66"/>
+      <c r="D177" s="66"/>
+      <c r="E177" s="67"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B178" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="77"/>
-      <c r="D178" s="77"/>
-      <c r="E178" s="93"/>
+      <c r="C178" s="75"/>
+      <c r="D178" s="75"/>
+      <c r="E178" s="76"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -3104,13 +3107,13 @@
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="100" t="s">
+      <c r="C183" s="77" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="103" t="s">
+      <c r="E183" s="80" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3121,11 +3124,11 @@
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="101"/>
+      <c r="C184" s="78"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="104"/>
+      <c r="E184" s="81"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
@@ -3134,7 +3137,7 @@
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="101"/>
+      <c r="C185" s="78"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -3145,7 +3148,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="102"/>
+      <c r="C186" s="79"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D187" s="63" t="s">
         <v>72</v>
@@ -3172,11 +3175,11 @@
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="84">
+      <c r="C190" s="68">
         <v>44164</v>
       </c>
-      <c r="D190" s="85"/>
-      <c r="E190" s="86"/>
+      <c r="D190" s="69"/>
+      <c r="E190" s="70"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -3185,54 +3188,54 @@
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="90" t="s">
+      <c r="C191" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="91"/>
-      <c r="E191" s="92"/>
+      <c r="D191" s="72"/>
+      <c r="E191" s="73"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="94" t="s">
+      <c r="B192" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="95"/>
-      <c r="D192" s="95"/>
-      <c r="E192" s="96"/>
+      <c r="C192" s="66"/>
+      <c r="D192" s="66"/>
+      <c r="E192" s="67"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="94" t="s">
+      <c r="B193" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="95"/>
-      <c r="D193" s="95"/>
-      <c r="E193" s="96"/>
+      <c r="C193" s="66"/>
+      <c r="D193" s="66"/>
+      <c r="E193" s="67"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="94" t="s">
+      <c r="B194" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="95"/>
-      <c r="D194" s="95"/>
-      <c r="E194" s="96"/>
+      <c r="C194" s="66"/>
+      <c r="D194" s="66"/>
+      <c r="E194" s="67"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="94" t="s">
+      <c r="B195" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="95"/>
-      <c r="D195" s="95"/>
-      <c r="E195" s="96"/>
+      <c r="C195" s="66"/>
+      <c r="D195" s="66"/>
+      <c r="E195" s="67"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B196" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="77"/>
-      <c r="D196" s="77"/>
-      <c r="E196" s="93"/>
+      <c r="C196" s="75"/>
+      <c r="D196" s="75"/>
+      <c r="E196" s="76"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
@@ -3291,7 +3294,7 @@
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="87" t="s">
+      <c r="C201" s="82" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -3308,7 +3311,7 @@
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="88"/>
+      <c r="C202" s="83"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -3323,7 +3326,7 @@
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="89"/>
+      <c r="C203" s="84"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -3336,11 +3339,11 @@
         <v>54</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="84">
+      <c r="C206" s="68">
         <v>44165</v>
       </c>
-      <c r="D206" s="85"/>
-      <c r="E206" s="86"/>
+      <c r="D206" s="69"/>
+      <c r="E206" s="70"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
@@ -3358,37 +3361,37 @@
       <c r="B208" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="77"/>
-      <c r="D208" s="77"/>
-      <c r="E208" s="93"/>
+      <c r="C208" s="75"/>
+      <c r="D208" s="75"/>
+      <c r="E208" s="76"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B209" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="77"/>
-      <c r="D209" s="77"/>
-      <c r="E209" s="93"/>
+      <c r="C209" s="75"/>
+      <c r="D209" s="75"/>
+      <c r="E209" s="76"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B210" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C210" s="77"/>
-      <c r="D210" s="77"/>
-      <c r="E210" s="93"/>
+      <c r="C210" s="75"/>
+      <c r="D210" s="75"/>
+      <c r="E210" s="76"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B211" s="74"/>
-      <c r="C211" s="77"/>
-      <c r="D211" s="77"/>
-      <c r="E211" s="93"/>
+      <c r="C211" s="75"/>
+      <c r="D211" s="75"/>
+      <c r="E211" s="76"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B212" s="74"/>
-      <c r="C212" s="77"/>
-      <c r="D212" s="77"/>
-      <c r="E212" s="93"/>
+      <c r="C212" s="75"/>
+      <c r="D212" s="75"/>
+      <c r="E212" s="76"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -3426,7 +3429,7 @@
         <v>65</v>
       </c>
       <c r="B216" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>67</v>
@@ -3441,26 +3444,26 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="87" t="s">
+      <c r="C217" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="D217" s="82" t="s">
         <v>90</v>
-      </c>
-      <c r="D217" s="87" t="s">
-        <v>91</v>
       </c>
       <c r="E217" s="35"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="88"/>
-      <c r="D218" s="88"/>
+      <c r="C218" s="83"/>
+      <c r="D218" s="83"/>
       <c r="E218" s="36"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="89"/>
-      <c r="D219" s="89"/>
+      <c r="C219" s="84"/>
+      <c r="D219" s="84"/>
       <c r="E219" s="37"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -3468,11 +3471,11 @@
         <v>54</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="84">
+      <c r="C224" s="68">
         <v>44171</v>
       </c>
-      <c r="D224" s="85"/>
-      <c r="E224" s="86"/>
+      <c r="D224" s="69"/>
+      <c r="E224" s="70"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
@@ -3481,54 +3484,54 @@
       <c r="B225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="90" t="s">
+      <c r="C225" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D225" s="91"/>
-      <c r="E225" s="92"/>
+      <c r="D225" s="72"/>
+      <c r="E225" s="73"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B226" s="94" t="s">
+      <c r="B226" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="95"/>
-      <c r="D226" s="95"/>
-      <c r="E226" s="96"/>
+      <c r="C226" s="66"/>
+      <c r="D226" s="66"/>
+      <c r="E226" s="67"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B227" s="94" t="s">
+      <c r="B227" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="95"/>
-      <c r="D227" s="95"/>
-      <c r="E227" s="96"/>
+      <c r="C227" s="66"/>
+      <c r="D227" s="66"/>
+      <c r="E227" s="67"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B228" s="94" t="s">
+      <c r="B228" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="95"/>
-      <c r="D228" s="95"/>
-      <c r="E228" s="96"/>
+      <c r="C228" s="66"/>
+      <c r="D228" s="66"/>
+      <c r="E228" s="67"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B229" s="94" t="s">
+      <c r="B229" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C229" s="95"/>
-      <c r="D229" s="95"/>
-      <c r="E229" s="96"/>
+      <c r="C229" s="66"/>
+      <c r="D229" s="66"/>
+      <c r="E229" s="67"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B230" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="77"/>
-      <c r="D230" s="77"/>
-      <c r="E230" s="93"/>
+      <c r="C230" s="75"/>
+      <c r="D230" s="75"/>
+      <c r="E230" s="76"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
@@ -3583,7 +3586,7 @@
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="87" t="s">
+      <c r="C235" s="82" t="s">
         <v>85</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -3596,20 +3599,20 @@
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="88"/>
+      <c r="C236" s="83"/>
       <c r="D236" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="89"/>
+      <c r="C237" s="84"/>
       <c r="D237" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E237" s="19" t="s">
         <v>58</v>
@@ -3617,9 +3620,9 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D238" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="E238" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="E238" s="64" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3628,20 +3631,20 @@
         <v>54</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="84">
+      <c r="C240" s="68">
         <v>44172</v>
       </c>
-      <c r="D240" s="85"/>
-      <c r="E240" s="86"/>
+      <c r="D240" s="69"/>
+      <c r="E240" s="70"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="90"/>
-      <c r="D241" s="91"/>
-      <c r="E241" s="92"/>
+      <c r="C241" s="71"/>
+      <c r="D241" s="72"/>
+      <c r="E241" s="73"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
@@ -3650,37 +3653,37 @@
       <c r="B242" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="77"/>
-      <c r="D242" s="77"/>
-      <c r="E242" s="93"/>
+      <c r="C242" s="75"/>
+      <c r="D242" s="75"/>
+      <c r="E242" s="76"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B243" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C243" s="77"/>
-      <c r="D243" s="77"/>
-      <c r="E243" s="93"/>
+      <c r="C243" s="75"/>
+      <c r="D243" s="75"/>
+      <c r="E243" s="76"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B244" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C244" s="77"/>
-      <c r="D244" s="77"/>
-      <c r="E244" s="93"/>
+      <c r="C244" s="75"/>
+      <c r="D244" s="75"/>
+      <c r="E244" s="76"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B245" s="74"/>
-      <c r="C245" s="77"/>
-      <c r="D245" s="77"/>
-      <c r="E245" s="93"/>
+      <c r="C245" s="75"/>
+      <c r="D245" s="75"/>
+      <c r="E245" s="76"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B246" s="74"/>
-      <c r="C246" s="77"/>
-      <c r="D246" s="77"/>
-      <c r="E246" s="93"/>
+      <c r="C246" s="75"/>
+      <c r="D246" s="75"/>
+      <c r="E246" s="76"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
@@ -3718,7 +3721,7 @@
         <v>65</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>67</v>
@@ -3733,27 +3736,27 @@
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="D251" s="87" t="s">
+      <c r="C251" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="E251" s="97"/>
+      <c r="D251" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E251" s="85"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="10"/>
-      <c r="C252" s="88"/>
-      <c r="D252" s="88"/>
-      <c r="E252" s="98"/>
+      <c r="C252" s="83"/>
+      <c r="D252" s="83"/>
+      <c r="E252" s="86"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="89"/>
-      <c r="D253" s="89"/>
-      <c r="E253" s="99"/>
+      <c r="C253" s="84"/>
+      <c r="D253" s="84"/>
+      <c r="E253" s="87"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
@@ -3850,7 +3853,7 @@
         <v>65</v>
       </c>
       <c r="B266" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>67</v>
@@ -3865,9 +3868,11 @@
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="8"/>
-      <c r="C267" s="26"/>
+      <c r="C267" s="26" t="s">
+        <v>99</v>
+      </c>
       <c r="D267" s="9" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>0</v>
@@ -3878,7 +3883,7 @@
       <c r="B268" s="10"/>
       <c r="C268" s="27"/>
       <c r="D268" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>20</v>
@@ -3889,7 +3894,7 @@
       <c r="B269" s="18"/>
       <c r="C269" s="28"/>
       <c r="D269" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E269" s="19" t="s">
         <v>58</v>
@@ -3897,26 +3902,66 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D270" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="E270" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="E270" s="64" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="B246:E246"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B228:E228"/>
     <mergeCell ref="D251:D253"/>
     <mergeCell ref="C251:C253"/>
     <mergeCell ref="E251:E253"/>
@@ -3933,58 +3978,18 @@
     <mergeCell ref="C225:E225"/>
     <mergeCell ref="B226:E226"/>
     <mergeCell ref="B227:E227"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="C241:E241"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3DE9C1-8EA2-422A-918D-E284ACEAEECA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2095CFEE-8C9F-4D6D-A480-25E66989AF72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="102">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>add intermidiate layer between user and controller on the architecture. Specify controller in smart heater class diagram. Wrire header file (controlHub) and main source code. Make a soft copy for state diagram.</t>
+  </si>
+  <si>
+    <t>1 hr 14 min</t>
   </si>
 </sst>
 </file>
@@ -737,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -808,15 +811,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -877,6 +871,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -886,32 +976,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -928,77 +1000,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1769,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E273" sqref="E273"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1783,20 +1792,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1848,1151 +1857,1151 @@
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="56"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="56"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="43"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="43"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="88" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="93" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="43"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="43"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="93" t="s">
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="43"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="43"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="43"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="43"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="43"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="43"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="43"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="43"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="43"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="43"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="43"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="43"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="43"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="43"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="40"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="43"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="40"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="43"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="43"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="43"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="43"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="40"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="43"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="43"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="43"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="43"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="40"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="43"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="43"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="43"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="40"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="43"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="40"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="43"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="43"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="40"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="43"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="43"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="40"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="43"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="40"/>
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="45"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="43"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="40"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="51"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="48"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="50"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="51"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="48"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="51"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="48"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="43"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="43"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="100" t="s">
+      <c r="A59" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="101"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="101" t="s">
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="105"/>
-      <c r="F59" s="43"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="98" t="s">
+      <c r="A60" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99" t="s">
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="102"/>
-      <c r="F60" s="43"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="98" t="s">
+      <c r="A61" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99" t="s">
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="102"/>
-      <c r="F61" s="43"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99" t="s">
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="102"/>
-      <c r="F62" s="43"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="98" t="s">
+      <c r="A63" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="99"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="99" t="s">
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="102"/>
-      <c r="F63" s="43"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="98" t="s">
+      <c r="A64" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="99" t="s">
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="102"/>
-      <c r="F64" s="43"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="43"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="40"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="42"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="43"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="40"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="43"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="40"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="42"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="43"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="40"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="43"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="40"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="42"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="43"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="40"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="43"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="40"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="43"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="40"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="43"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="40"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="42"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="43"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="40"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="42"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="43"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="40"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="42"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="43"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="40"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="42"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="43"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="40"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="42"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="43"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="40"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="42"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="43"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="40"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="42"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="43"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="40"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="42"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="43"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="40"/>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="45"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="43"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="40"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="43"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="40"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="43"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="40"/>
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="45"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="43"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="40"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="52" t="s">
+      <c r="A86" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="56"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="53"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="56"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="53"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="42"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="43"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="40"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="42"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="43"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="40"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="100" t="s">
+      <c r="A90" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="101"/>
-      <c r="C90" s="101"/>
-      <c r="D90" s="101" t="s">
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="105"/>
-      <c r="F90" s="43"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="40"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="98" t="s">
+      <c r="A91" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="99"/>
-      <c r="C91" s="99"/>
-      <c r="D91" s="99" t="s">
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="102"/>
-      <c r="F91" s="43"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="40"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="98" t="s">
+      <c r="A92" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="99"/>
-      <c r="C92" s="99"/>
-      <c r="D92" s="99" t="s">
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="102"/>
-      <c r="F92" s="43"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="98" t="s">
+      <c r="A93" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="99"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="99" t="s">
+      <c r="B93" s="66"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="102"/>
-      <c r="F93" s="43"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="40"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="98" t="s">
+      <c r="A94" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="99"/>
-      <c r="C94" s="99"/>
-      <c r="D94" s="99" t="s">
+      <c r="B94" s="66"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="102"/>
-      <c r="F94" s="43"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="40"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="98" t="s">
+      <c r="A95" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="99"/>
-      <c r="C95" s="99"/>
-      <c r="D95" s="99" t="s">
+      <c r="B95" s="66"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="102"/>
-      <c r="F95" s="43"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="42"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="43"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="40"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="42"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="43"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="40"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="42"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="43"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="40"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="42"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="43"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="40"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="42"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="43"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="40"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="42"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="43"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="40"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="42"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="43"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="40"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="42"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="43"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="40"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="42"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="43"/>
+      <c r="A104" s="39"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="40"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="42"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="43"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="40"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="42"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="43"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="40"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="42"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="43"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="40"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="42"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="43"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="40"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="42"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="43"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="40"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="42"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="43"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="40"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="42"/>
-      <c r="B111" s="43"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="43"/>
+      <c r="A111" s="39"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="41"/>
+      <c r="F111" s="40"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="42"/>
-      <c r="B112" s="43"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="43"/>
+      <c r="A112" s="39"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="40"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="42"/>
-      <c r="B113" s="43"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="43"/>
+      <c r="A113" s="39"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="41"/>
+      <c r="F113" s="40"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="42"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="43"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="40"/>
     </row>
     <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="45"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="46"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="43"/>
+      <c r="A115" s="42"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="40"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="39"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="41"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="38"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="42" t="s">
+      <c r="A117" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="43"/>
-      <c r="E117" s="44"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="41"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="42"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="43" t="s">
+      <c r="A118" s="39"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D118" s="43"/>
-      <c r="E118" s="44"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="41"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="42"/>
-      <c r="B119" s="43"/>
-      <c r="C119" s="43" t="s">
+      <c r="A119" s="39"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D119" s="43"/>
-      <c r="E119" s="44"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="41"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="42"/>
-      <c r="B120" s="43"/>
-      <c r="C120" s="43" t="s">
+      <c r="A120" s="39"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D120" s="43"/>
-      <c r="E120" s="44"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="41"/>
     </row>
     <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="45"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="46"/>
-      <c r="D121" s="46"/>
-      <c r="E121" s="47"/>
+      <c r="A121" s="42"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="39"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="40"/>
-      <c r="D122" s="40"/>
-      <c r="E122" s="41"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="38"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B123" s="43"/>
-      <c r="C123" s="43" t="s">
+      <c r="B123" s="40"/>
+      <c r="C123" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D123" s="43"/>
-      <c r="E123" s="44"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="41"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="42"/>
-      <c r="B124" s="43"/>
-      <c r="C124" s="43" t="s">
+      <c r="A124" s="39"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D124" s="43"/>
-      <c r="E124" s="44"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="41"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="42"/>
-      <c r="B125" s="43"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="43"/>
-      <c r="E125" s="44"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="41"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="42"/>
-      <c r="B126" s="43"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
-      <c r="E126" s="44"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="41"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="42"/>
-      <c r="B127" s="43"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="43"/>
-      <c r="E127" s="44"/>
+      <c r="A127" s="39"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="41"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="42"/>
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="44"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="41"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="42"/>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="44"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="41"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="42"/>
-      <c r="B130" s="43"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="44"/>
+      <c r="A130" s="39"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="41"/>
     </row>
     <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="45"/>
-      <c r="B131" s="46"/>
-      <c r="C131" s="46"/>
-      <c r="D131" s="46"/>
-      <c r="E131" s="47"/>
+      <c r="A131" s="42"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="44"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="39"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="40"/>
-      <c r="D132" s="40"/>
-      <c r="E132" s="41"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="38"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="42" t="s">
+      <c r="A133" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B133" s="43"/>
-      <c r="C133" s="43" t="s">
+      <c r="B133" s="40"/>
+      <c r="C133" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="43"/>
-      <c r="E133" s="44"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="41"/>
     </row>
     <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="45"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="46"/>
-      <c r="E134" s="47"/>
+      <c r="A134" s="42"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="44"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="39" t="s">
+      <c r="A135" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B135" s="40"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="40"/>
-      <c r="E135" s="41"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="38"/>
     </row>
     <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="45"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="46"/>
-      <c r="D136" s="46"/>
-      <c r="E136" s="47"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="44"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="39" t="s">
+      <c r="A137" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B137" s="40"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="41"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="38"/>
     </row>
     <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="45"/>
-      <c r="B138" s="46"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="46"/>
-      <c r="E138" s="47"/>
+      <c r="A138" s="42"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="44"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="39" t="s">
+      <c r="A139" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B139" s="40"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="40"/>
-      <c r="E139" s="41"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="37"/>
+      <c r="D139" s="37"/>
+      <c r="E139" s="38"/>
     </row>
     <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="45"/>
-      <c r="B140" s="46"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="46"/>
-      <c r="E140" s="47"/>
+      <c r="A140" s="42"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="44"/>
     </row>
     <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="60" t="s">
+      <c r="A141" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B141" s="61"/>
-      <c r="C141" s="61"/>
-      <c r="D141" s="61"/>
-      <c r="E141" s="62"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="59"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="68">
+      <c r="C172" s="84">
         <v>44163</v>
       </c>
-      <c r="D172" s="69"/>
-      <c r="E172" s="70"/>
+      <c r="D172" s="85"/>
+      <c r="E172" s="86"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -3001,54 +3010,54 @@
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="71" t="s">
+      <c r="C173" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="72"/>
-      <c r="E173" s="73"/>
+      <c r="D173" s="91"/>
+      <c r="E173" s="92"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="65" t="s">
+      <c r="B174" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="66"/>
-      <c r="D174" s="66"/>
-      <c r="E174" s="67"/>
+      <c r="C174" s="95"/>
+      <c r="D174" s="95"/>
+      <c r="E174" s="96"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="65" t="s">
+      <c r="B175" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="66"/>
-      <c r="D175" s="66"/>
-      <c r="E175" s="67"/>
+      <c r="C175" s="95"/>
+      <c r="D175" s="95"/>
+      <c r="E175" s="96"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="65" t="s">
+      <c r="B176" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="66"/>
-      <c r="D176" s="66"/>
-      <c r="E176" s="67"/>
+      <c r="C176" s="95"/>
+      <c r="D176" s="95"/>
+      <c r="E176" s="96"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="65" t="s">
+      <c r="B177" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="66"/>
-      <c r="D177" s="66"/>
-      <c r="E177" s="67"/>
+      <c r="C177" s="95"/>
+      <c r="D177" s="95"/>
+      <c r="E177" s="96"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B178" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="75"/>
-      <c r="D178" s="75"/>
-      <c r="E178" s="76"/>
+      <c r="C178" s="77"/>
+      <c r="D178" s="77"/>
+      <c r="E178" s="93"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -3107,13 +3116,13 @@
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="77" t="s">
+      <c r="C183" s="100" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="80" t="s">
+      <c r="E183" s="103" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3124,11 +3133,11 @@
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="78"/>
+      <c r="C184" s="101"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="81"/>
+      <c r="E184" s="104"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
@@ -3137,7 +3146,7 @@
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="78"/>
+      <c r="C185" s="101"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -3148,7 +3157,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="79"/>
+      <c r="C186" s="102"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -3157,16 +3166,16 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="63">
+      <c r="A187" s="60">
         <v>4</v>
       </c>
       <c r="B187" t="s">
         <v>95</v>
       </c>
-      <c r="D187" s="63" t="s">
+      <c r="D187" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="E187" s="63" t="s">
+      <c r="E187" s="60" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3175,11 +3184,11 @@
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="68">
+      <c r="C190" s="84">
         <v>44164</v>
       </c>
-      <c r="D190" s="69"/>
-      <c r="E190" s="70"/>
+      <c r="D190" s="85"/>
+      <c r="E190" s="86"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -3188,54 +3197,54 @@
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="71" t="s">
+      <c r="C191" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="72"/>
-      <c r="E191" s="73"/>
+      <c r="D191" s="91"/>
+      <c r="E191" s="92"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="65" t="s">
+      <c r="B192" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="66"/>
-      <c r="D192" s="66"/>
-      <c r="E192" s="67"/>
+      <c r="C192" s="95"/>
+      <c r="D192" s="95"/>
+      <c r="E192" s="96"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="65" t="s">
+      <c r="B193" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="66"/>
-      <c r="D193" s="66"/>
-      <c r="E193" s="67"/>
+      <c r="C193" s="95"/>
+      <c r="D193" s="95"/>
+      <c r="E193" s="96"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="65" t="s">
+      <c r="B194" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="66"/>
-      <c r="D194" s="66"/>
-      <c r="E194" s="67"/>
+      <c r="C194" s="95"/>
+      <c r="D194" s="95"/>
+      <c r="E194" s="96"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="65" t="s">
+      <c r="B195" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="66"/>
-      <c r="D195" s="66"/>
-      <c r="E195" s="67"/>
+      <c r="C195" s="95"/>
+      <c r="D195" s="95"/>
+      <c r="E195" s="96"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B196" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="75"/>
-      <c r="D196" s="75"/>
-      <c r="E196" s="76"/>
+      <c r="C196" s="77"/>
+      <c r="D196" s="77"/>
+      <c r="E196" s="93"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
@@ -3294,7 +3303,7 @@
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="82" t="s">
+      <c r="C201" s="87" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -3311,7 +3320,7 @@
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="83"/>
+      <c r="C202" s="88"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -3326,7 +3335,7 @@
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="84"/>
+      <c r="C203" s="89"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -3339,20 +3348,20 @@
         <v>54</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="68">
+      <c r="C206" s="84">
         <v>44165</v>
       </c>
-      <c r="D206" s="69"/>
-      <c r="E206" s="70"/>
+      <c r="D206" s="85"/>
+      <c r="E206" s="86"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B207" s="3"/>
-      <c r="C207" s="32"/>
-      <c r="D207" s="33"/>
-      <c r="E207" s="34"/>
+      <c r="C207" s="29"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="31"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
@@ -3361,37 +3370,37 @@
       <c r="B208" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="75"/>
-      <c r="D208" s="75"/>
-      <c r="E208" s="76"/>
+      <c r="C208" s="77"/>
+      <c r="D208" s="77"/>
+      <c r="E208" s="93"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B209" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="75"/>
-      <c r="D209" s="75"/>
-      <c r="E209" s="76"/>
+      <c r="C209" s="77"/>
+      <c r="D209" s="77"/>
+      <c r="E209" s="93"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B210" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C210" s="75"/>
-      <c r="D210" s="75"/>
-      <c r="E210" s="76"/>
+      <c r="C210" s="77"/>
+      <c r="D210" s="77"/>
+      <c r="E210" s="93"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B211" s="74"/>
-      <c r="C211" s="75"/>
-      <c r="D211" s="75"/>
-      <c r="E211" s="76"/>
+      <c r="C211" s="77"/>
+      <c r="D211" s="77"/>
+      <c r="E211" s="93"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B212" s="74"/>
-      <c r="C212" s="75"/>
-      <c r="D212" s="75"/>
-      <c r="E212" s="76"/>
+      <c r="C212" s="77"/>
+      <c r="D212" s="77"/>
+      <c r="E212" s="93"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -3428,13 +3437,13 @@
       <c r="A216" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B216" s="38" t="s">
+      <c r="B216" s="35" t="s">
         <v>87</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D216" s="34" t="s">
+      <c r="D216" s="31" t="s">
         <v>68</v>
       </c>
       <c r="E216" s="6" t="s">
@@ -3444,38 +3453,38 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="82" t="s">
+      <c r="C217" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D217" s="82" t="s">
+      <c r="D217" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="E217" s="35"/>
+      <c r="E217" s="32"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="83"/>
-      <c r="D218" s="83"/>
-      <c r="E218" s="36"/>
+      <c r="C218" s="88"/>
+      <c r="D218" s="88"/>
+      <c r="E218" s="33"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="84"/>
-      <c r="D219" s="84"/>
-      <c r="E219" s="37"/>
+      <c r="C219" s="89"/>
+      <c r="D219" s="89"/>
+      <c r="E219" s="34"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="68">
+      <c r="C224" s="84">
         <v>44171</v>
       </c>
-      <c r="D224" s="69"/>
-      <c r="E224" s="70"/>
+      <c r="D224" s="85"/>
+      <c r="E224" s="86"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
@@ -3484,54 +3493,54 @@
       <c r="B225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="71" t="s">
+      <c r="C225" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="D225" s="72"/>
-      <c r="E225" s="73"/>
+      <c r="D225" s="91"/>
+      <c r="E225" s="92"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B226" s="65" t="s">
+      <c r="B226" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="66"/>
-      <c r="D226" s="66"/>
-      <c r="E226" s="67"/>
+      <c r="C226" s="95"/>
+      <c r="D226" s="95"/>
+      <c r="E226" s="96"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B227" s="65" t="s">
+      <c r="B227" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="66"/>
-      <c r="D227" s="66"/>
-      <c r="E227" s="67"/>
+      <c r="C227" s="95"/>
+      <c r="D227" s="95"/>
+      <c r="E227" s="96"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B228" s="65" t="s">
+      <c r="B228" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="66"/>
-      <c r="D228" s="66"/>
-      <c r="E228" s="67"/>
+      <c r="C228" s="95"/>
+      <c r="D228" s="95"/>
+      <c r="E228" s="96"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B229" s="65" t="s">
+      <c r="B229" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="C229" s="66"/>
-      <c r="D229" s="66"/>
-      <c r="E229" s="67"/>
+      <c r="C229" s="95"/>
+      <c r="D229" s="95"/>
+      <c r="E229" s="96"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B230" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="75"/>
-      <c r="D230" s="75"/>
-      <c r="E230" s="76"/>
+      <c r="C230" s="77"/>
+      <c r="D230" s="77"/>
+      <c r="E230" s="93"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
@@ -3586,7 +3595,7 @@
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="82" t="s">
+      <c r="C235" s="87" t="s">
         <v>85</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -3599,7 +3608,7 @@
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="83"/>
+      <c r="C236" s="88"/>
       <c r="D236" s="16" t="s">
         <v>92</v>
       </c>
@@ -3610,7 +3619,7 @@
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="84"/>
+      <c r="C237" s="89"/>
       <c r="D237" s="1" t="s">
         <v>92</v>
       </c>
@@ -3619,10 +3628,10 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D238" s="63" t="s">
+      <c r="D238" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="E238" s="64" t="s">
+      <c r="E238" s="61" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3631,20 +3640,20 @@
         <v>54</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="68">
+      <c r="C240" s="84">
         <v>44172</v>
       </c>
-      <c r="D240" s="69"/>
-      <c r="E240" s="70"/>
+      <c r="D240" s="85"/>
+      <c r="E240" s="86"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="71"/>
-      <c r="D241" s="72"/>
-      <c r="E241" s="73"/>
+      <c r="C241" s="90"/>
+      <c r="D241" s="91"/>
+      <c r="E241" s="92"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
@@ -3653,37 +3662,37 @@
       <c r="B242" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="75"/>
-      <c r="D242" s="75"/>
-      <c r="E242" s="76"/>
+      <c r="C242" s="77"/>
+      <c r="D242" s="77"/>
+      <c r="E242" s="93"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B243" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C243" s="75"/>
-      <c r="D243" s="75"/>
-      <c r="E243" s="76"/>
+      <c r="C243" s="77"/>
+      <c r="D243" s="77"/>
+      <c r="E243" s="93"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B244" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C244" s="75"/>
-      <c r="D244" s="75"/>
-      <c r="E244" s="76"/>
+      <c r="C244" s="77"/>
+      <c r="D244" s="77"/>
+      <c r="E244" s="93"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B245" s="74"/>
-      <c r="C245" s="75"/>
-      <c r="D245" s="75"/>
-      <c r="E245" s="76"/>
+      <c r="C245" s="77"/>
+      <c r="D245" s="77"/>
+      <c r="E245" s="93"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B246" s="74"/>
-      <c r="C246" s="75"/>
-      <c r="D246" s="75"/>
-      <c r="E246" s="76"/>
+      <c r="C246" s="77"/>
+      <c r="D246" s="77"/>
+      <c r="E246" s="93"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
@@ -3720,13 +3729,13 @@
       <c r="A250" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B250" s="38" t="s">
+      <c r="B250" s="35" t="s">
         <v>87</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D250" s="34" t="s">
+      <c r="D250" s="31" t="s">
         <v>68</v>
       </c>
       <c r="E250" s="6" t="s">
@@ -3736,47 +3745,51 @@
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="82" t="s">
+      <c r="C251" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D251" s="82" t="s">
+      <c r="D251" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="E251" s="85"/>
+      <c r="E251" s="97"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="10"/>
-      <c r="C252" s="83"/>
-      <c r="D252" s="83"/>
-      <c r="E252" s="86"/>
+      <c r="C252" s="88"/>
+      <c r="D252" s="88"/>
+      <c r="E252" s="98"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="84"/>
-      <c r="D253" s="84"/>
-      <c r="E253" s="87"/>
+      <c r="C253" s="89"/>
+      <c r="D253" s="89"/>
+      <c r="E253" s="99"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="29">
+      <c r="C256" s="105">
         <v>44178</v>
       </c>
-      <c r="D256" s="30"/>
-      <c r="E256" s="31"/>
+      <c r="D256" s="106"/>
+      <c r="E256" s="107"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B257" s="3"/>
-      <c r="C257" s="32"/>
-      <c r="D257" s="33"/>
-      <c r="E257" s="34"/>
+      <c r="B257" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="D257" s="91"/>
+      <c r="E257" s="92"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
@@ -3785,9 +3798,9 @@
       <c r="B258" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C258" s="21"/>
-      <c r="D258" s="21"/>
-      <c r="E258" s="22"/>
+      <c r="C258" s="62"/>
+      <c r="D258" s="62"/>
+      <c r="E258" s="63"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B259" s="20" t="s">
@@ -3806,7 +3819,9 @@
       <c r="E260" s="22"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B261" s="20"/>
+      <c r="B261" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="C261" s="21"/>
       <c r="D261" s="21"/>
       <c r="E261" s="22"/>
@@ -3852,13 +3867,13 @@
       <c r="A266" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B266" s="32" t="s">
+      <c r="B266" s="29" t="s">
         <v>91</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D266" s="34" t="s">
+      <c r="D266" s="31" t="s">
         <v>68</v>
       </c>
       <c r="E266" s="6" t="s">
@@ -3901,15 +3916,81 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D270" s="63" t="s">
+      <c r="D270" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="E270" s="64" t="s">
+      <c r="E270" s="61" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="82">
+    <mergeCell ref="C257:E257"/>
+    <mergeCell ref="C256:E256"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="D251:D253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="C240:E240"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="B246:E246"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="D94:E94"/>
@@ -3926,70 +4007,6 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="C241:E241"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="D251:D253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="E251:E253"/>
-    <mergeCell ref="C240:E240"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="C224:E224"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="B226:E226"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$36FJ00-II4J516K5DPR\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56075C67-A5DB-4C1F-951C-063731D5BA64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF45BB19-48BB-4270-A92D-D7B3484789FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="106">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Evrard Leuteu</t>
+  </si>
+  <si>
+    <t>1 hr 14 min</t>
   </si>
 </sst>
 </file>
@@ -749,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -820,15 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -889,132 +883,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1483,7 +1477,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1781,11 +1775,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:F271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246:E246"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
@@ -1795,20 +1789,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1860,1151 +1854,1151 @@
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="56"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="56"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="43"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="43"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="81" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="75" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="43"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="73" t="s">
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="43"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="75" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="43"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="73" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="43"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="75" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="43"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="43"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="43"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="43"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="43"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="43"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="43"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="43"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="43"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="43"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="43"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="43"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="43"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="43"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="40"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="43"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="40"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="43"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="43"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="43"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="43"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="40"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="43"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="43"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="43"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="43"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="40"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="43"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="43"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="43"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="40"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="43"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="40"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="43"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="43"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="40"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="43"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="43"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="40"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="43"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="40"/>
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="45"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="43"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="40"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="51"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="48"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="50"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="51"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="48"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="51"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="48"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="43"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="43"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="72" t="s">
+      <c r="A59" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70" t="s">
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="71"/>
-      <c r="F59" s="43"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="69" t="s">
+      <c r="A60" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67" t="s">
+      <c r="B60" s="96"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="68"/>
-      <c r="F60" s="43"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="67"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67" t="s">
+      <c r="B61" s="96"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="68"/>
-      <c r="F61" s="43"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="67"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67" t="s">
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="68"/>
-      <c r="F62" s="43"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="69" t="s">
+      <c r="A63" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67" t="s">
+      <c r="B63" s="96"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="68"/>
-      <c r="F63" s="43"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67" t="s">
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="68"/>
-      <c r="F64" s="43"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="43"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="40"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="42"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="43"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="40"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="43"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="40"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="42"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="43"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="40"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="43"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="40"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="42"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="43"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="40"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="43"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="40"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="43"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="40"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="43"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="40"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="42"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="43"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="40"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="42"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="43"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="40"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="42"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="43"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="40"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="42"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="43"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="40"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="42"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="43"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="40"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="42"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="43"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="40"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="42"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="43"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="40"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="42"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="43"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="40"/>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="45"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="43"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="40"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="43"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="40"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="43"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="40"/>
     </row>
     <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="45"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="43"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="40"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="52" t="s">
+      <c r="A86" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="56"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="53"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="56"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="53"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="42"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="43"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="40"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="42"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="43"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="40"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="72" t="s">
+      <c r="A90" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="70"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="70" t="s">
+      <c r="B90" s="98"/>
+      <c r="C90" s="98"/>
+      <c r="D90" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="71"/>
-      <c r="F90" s="43"/>
+      <c r="E90" s="102"/>
+      <c r="F90" s="40"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="69" t="s">
+      <c r="A91" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="67"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="67" t="s">
+      <c r="B91" s="96"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="68"/>
-      <c r="F91" s="43"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="40"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="67"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67" t="s">
+      <c r="B92" s="96"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="68"/>
-      <c r="F92" s="43"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="69" t="s">
+      <c r="A93" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="67"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67" t="s">
+      <c r="B93" s="96"/>
+      <c r="C93" s="96"/>
+      <c r="D93" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="68"/>
-      <c r="F93" s="43"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="40"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="69" t="s">
+      <c r="A94" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="67"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="67" t="s">
+      <c r="B94" s="96"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="68"/>
-      <c r="F94" s="43"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="40"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="69" t="s">
+      <c r="A95" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="67"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="67" t="s">
+      <c r="B95" s="96"/>
+      <c r="C95" s="96"/>
+      <c r="D95" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="68"/>
-      <c r="F95" s="43"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="42"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="43"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="40"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="42"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="43"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="40"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="42"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="43"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="40"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="42"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="43"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="40"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="42"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="43"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="40"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="42"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="43"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="40"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="42"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="43"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="40"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="42"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="43"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="40"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="42"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="43"/>
+      <c r="A104" s="39"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="40"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="42"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="43"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="40"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="42"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="43"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="40"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="42"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="43"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="40"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="42"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="43"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="40"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="42"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="43"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="40"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="42"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="43"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="40"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="42"/>
-      <c r="B111" s="43"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="43"/>
+      <c r="A111" s="39"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="41"/>
+      <c r="F111" s="40"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="42"/>
-      <c r="B112" s="43"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="43"/>
+      <c r="A112" s="39"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="40"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="42"/>
-      <c r="B113" s="43"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="43"/>
+      <c r="A113" s="39"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="41"/>
+      <c r="F113" s="40"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="42"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="43"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="40"/>
     </row>
     <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="45"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="46"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="43"/>
+      <c r="A115" s="42"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="40"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="39"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="41"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="38"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="42" t="s">
+      <c r="A117" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="43"/>
-      <c r="E117" s="44"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="41"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="42"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="43" t="s">
+      <c r="A118" s="39"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D118" s="43"/>
-      <c r="E118" s="44"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="41"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="42"/>
-      <c r="B119" s="43"/>
-      <c r="C119" s="43" t="s">
+      <c r="A119" s="39"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D119" s="43"/>
-      <c r="E119" s="44"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="41"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="42"/>
-      <c r="B120" s="43"/>
-      <c r="C120" s="43" t="s">
+      <c r="A120" s="39"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D120" s="43"/>
-      <c r="E120" s="44"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="41"/>
     </row>
     <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="45"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="46"/>
-      <c r="D121" s="46"/>
-      <c r="E121" s="47"/>
+      <c r="A121" s="42"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="39"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="40"/>
-      <c r="D122" s="40"/>
-      <c r="E122" s="41"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="38"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B123" s="43"/>
-      <c r="C123" s="43" t="s">
+      <c r="B123" s="40"/>
+      <c r="C123" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D123" s="43"/>
-      <c r="E123" s="44"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="41"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="42"/>
-      <c r="B124" s="43"/>
-      <c r="C124" s="43" t="s">
+      <c r="A124" s="39"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D124" s="43"/>
-      <c r="E124" s="44"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="41"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="42"/>
-      <c r="B125" s="43"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="43"/>
-      <c r="E125" s="44"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="41"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="42"/>
-      <c r="B126" s="43"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
-      <c r="E126" s="44"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="41"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="42"/>
-      <c r="B127" s="43"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="43"/>
-      <c r="E127" s="44"/>
+      <c r="A127" s="39"/>
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="41"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="42"/>
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="44"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="41"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="42"/>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="44"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="40"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="41"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="42"/>
-      <c r="B130" s="43"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="44"/>
+      <c r="A130" s="39"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="41"/>
     </row>
     <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="45"/>
-      <c r="B131" s="46"/>
-      <c r="C131" s="46"/>
-      <c r="D131" s="46"/>
-      <c r="E131" s="47"/>
+      <c r="A131" s="42"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="44"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="39"/>
-      <c r="B132" s="40"/>
-      <c r="C132" s="40"/>
-      <c r="D132" s="40"/>
-      <c r="E132" s="41"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="38"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="42" t="s">
+      <c r="A133" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B133" s="43"/>
-      <c r="C133" s="43" t="s">
+      <c r="B133" s="40"/>
+      <c r="C133" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D133" s="43"/>
-      <c r="E133" s="44"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="41"/>
     </row>
     <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="45"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="46"/>
-      <c r="E134" s="47"/>
+      <c r="A134" s="42"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="44"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="39" t="s">
+      <c r="A135" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B135" s="40"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="40"/>
-      <c r="E135" s="41"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="38"/>
     </row>
     <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="45"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="46"/>
-      <c r="D136" s="46"/>
-      <c r="E136" s="47"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="44"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="39" t="s">
+      <c r="A137" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B137" s="40"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="41"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="38"/>
     </row>
     <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="45"/>
-      <c r="B138" s="46"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="46"/>
-      <c r="E138" s="47"/>
+      <c r="A138" s="42"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="44"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="39" t="s">
+      <c r="A139" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B139" s="40"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="40"/>
-      <c r="E139" s="41"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="37"/>
+      <c r="D139" s="37"/>
+      <c r="E139" s="38"/>
     </row>
     <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="45"/>
-      <c r="B140" s="46"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="46"/>
-      <c r="E140" s="47"/>
+      <c r="A140" s="42"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="44"/>
     </row>
     <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="60" t="s">
+      <c r="A141" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B141" s="61"/>
-      <c r="C141" s="61"/>
-      <c r="D141" s="61"/>
-      <c r="E141" s="62"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="59"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="85">
+      <c r="C172" s="65">
         <v>44163</v>
       </c>
-      <c r="D172" s="86"/>
-      <c r="E172" s="87"/>
+      <c r="D172" s="66"/>
+      <c r="E172" s="67"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -3013,54 +3007,54 @@
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="91" t="s">
+      <c r="C173" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="92"/>
-      <c r="E173" s="93"/>
+      <c r="D173" s="69"/>
+      <c r="E173" s="70"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="95" t="s">
+      <c r="B174" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="96"/>
-      <c r="D174" s="96"/>
-      <c r="E174" s="97"/>
+      <c r="C174" s="63"/>
+      <c r="D174" s="63"/>
+      <c r="E174" s="64"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="95" t="s">
+      <c r="B175" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="96"/>
-      <c r="D175" s="96"/>
-      <c r="E175" s="97"/>
+      <c r="C175" s="63"/>
+      <c r="D175" s="63"/>
+      <c r="E175" s="64"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="95" t="s">
+      <c r="B176" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="96"/>
-      <c r="D176" s="96"/>
-      <c r="E176" s="97"/>
+      <c r="C176" s="63"/>
+      <c r="D176" s="63"/>
+      <c r="E176" s="64"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="95" t="s">
+      <c r="B177" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="96"/>
-      <c r="D177" s="96"/>
-      <c r="E177" s="97"/>
+      <c r="C177" s="63"/>
+      <c r="D177" s="63"/>
+      <c r="E177" s="64"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="75" t="s">
+      <c r="B178" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="78"/>
-      <c r="D178" s="78"/>
-      <c r="E178" s="94"/>
+      <c r="C178" s="72"/>
+      <c r="D178" s="72"/>
+      <c r="E178" s="73"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -3119,13 +3113,13 @@
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="101" t="s">
+      <c r="C183" s="74" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="104" t="s">
+      <c r="E183" s="77" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3136,11 +3130,11 @@
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="102"/>
+      <c r="C184" s="75"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="105"/>
+      <c r="E184" s="78"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
@@ -3149,7 +3143,7 @@
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="102"/>
+      <c r="C185" s="75"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -3160,7 +3154,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="103"/>
+      <c r="C186" s="76"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -3169,16 +3163,16 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="63">
+      <c r="A187" s="60">
         <v>4</v>
       </c>
       <c r="B187" t="s">
         <v>95</v>
       </c>
-      <c r="D187" s="63" t="s">
+      <c r="D187" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="E187" s="63" t="s">
+      <c r="E187" s="60" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3187,11 +3181,11 @@
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="85">
+      <c r="C190" s="65">
         <v>44164</v>
       </c>
-      <c r="D190" s="86"/>
-      <c r="E190" s="87"/>
+      <c r="D190" s="66"/>
+      <c r="E190" s="67"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -3200,54 +3194,54 @@
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="91" t="s">
+      <c r="C191" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="92"/>
-      <c r="E191" s="93"/>
+      <c r="D191" s="69"/>
+      <c r="E191" s="70"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="95" t="s">
+      <c r="B192" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="96"/>
-      <c r="D192" s="96"/>
-      <c r="E192" s="97"/>
+      <c r="C192" s="63"/>
+      <c r="D192" s="63"/>
+      <c r="E192" s="64"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="95" t="s">
+      <c r="B193" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="96"/>
-      <c r="D193" s="96"/>
-      <c r="E193" s="97"/>
+      <c r="C193" s="63"/>
+      <c r="D193" s="63"/>
+      <c r="E193" s="64"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="95" t="s">
+      <c r="B194" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="96"/>
-      <c r="D194" s="96"/>
-      <c r="E194" s="97"/>
+      <c r="C194" s="63"/>
+      <c r="D194" s="63"/>
+      <c r="E194" s="64"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="95" t="s">
+      <c r="B195" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="96"/>
-      <c r="D195" s="96"/>
-      <c r="E195" s="97"/>
+      <c r="C195" s="63"/>
+      <c r="D195" s="63"/>
+      <c r="E195" s="64"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="75" t="s">
+      <c r="B196" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="78"/>
-      <c r="D196" s="78"/>
-      <c r="E196" s="94"/>
+      <c r="C196" s="72"/>
+      <c r="D196" s="72"/>
+      <c r="E196" s="73"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
@@ -3306,7 +3300,7 @@
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="88" t="s">
+      <c r="C201" s="79" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -3323,7 +3317,7 @@
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="89"/>
+      <c r="C202" s="80"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -3338,7 +3332,7 @@
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="90"/>
+      <c r="C203" s="81"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -3351,59 +3345,59 @@
         <v>54</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="85">
+      <c r="C206" s="65">
         <v>44165</v>
       </c>
-      <c r="D206" s="86"/>
-      <c r="E206" s="87"/>
+      <c r="D206" s="66"/>
+      <c r="E206" s="67"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B207" s="3"/>
-      <c r="C207" s="32"/>
-      <c r="D207" s="33"/>
-      <c r="E207" s="34"/>
+      <c r="C207" s="29"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="31"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="75" t="s">
+      <c r="B208" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="78"/>
-      <c r="D208" s="78"/>
-      <c r="E208" s="94"/>
+      <c r="C208" s="72"/>
+      <c r="D208" s="72"/>
+      <c r="E208" s="73"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B209" s="75" t="s">
+      <c r="B209" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="78"/>
-      <c r="D209" s="78"/>
-      <c r="E209" s="94"/>
+      <c r="C209" s="72"/>
+      <c r="D209" s="72"/>
+      <c r="E209" s="73"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B210" s="75" t="s">
+      <c r="B210" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C210" s="78"/>
-      <c r="D210" s="78"/>
-      <c r="E210" s="94"/>
+      <c r="C210" s="72"/>
+      <c r="D210" s="72"/>
+      <c r="E210" s="73"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="75"/>
-      <c r="C211" s="78"/>
-      <c r="D211" s="78"/>
-      <c r="E211" s="94"/>
+      <c r="B211" s="71"/>
+      <c r="C211" s="72"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="73"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="75"/>
-      <c r="C212" s="78"/>
-      <c r="D212" s="78"/>
-      <c r="E212" s="94"/>
+      <c r="B212" s="71"/>
+      <c r="C212" s="72"/>
+      <c r="D212" s="72"/>
+      <c r="E212" s="73"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -3440,13 +3434,13 @@
       <c r="A216" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B216" s="38" t="s">
+      <c r="B216" s="35" t="s">
         <v>87</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D216" s="34" t="s">
+      <c r="D216" s="31" t="s">
         <v>68</v>
       </c>
       <c r="E216" s="6" t="s">
@@ -3456,38 +3450,38 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="88" t="s">
+      <c r="C217" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="D217" s="88" t="s">
+      <c r="D217" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="E217" s="35"/>
+      <c r="E217" s="32"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="89"/>
-      <c r="D218" s="89"/>
-      <c r="E218" s="36"/>
+      <c r="C218" s="80"/>
+      <c r="D218" s="80"/>
+      <c r="E218" s="33"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="90"/>
-      <c r="D219" s="90"/>
-      <c r="E219" s="37"/>
+      <c r="C219" s="81"/>
+      <c r="D219" s="81"/>
+      <c r="E219" s="34"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="85">
+      <c r="C224" s="65">
         <v>44171</v>
       </c>
-      <c r="D224" s="86"/>
-      <c r="E224" s="87"/>
+      <c r="D224" s="66"/>
+      <c r="E224" s="67"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
@@ -3496,54 +3490,54 @@
       <c r="B225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="91" t="s">
+      <c r="C225" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D225" s="92"/>
-      <c r="E225" s="93"/>
+      <c r="D225" s="69"/>
+      <c r="E225" s="70"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B226" s="95" t="s">
+      <c r="B226" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="96"/>
-      <c r="D226" s="96"/>
-      <c r="E226" s="97"/>
+      <c r="C226" s="63"/>
+      <c r="D226" s="63"/>
+      <c r="E226" s="64"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B227" s="95" t="s">
+      <c r="B227" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="96"/>
-      <c r="D227" s="96"/>
-      <c r="E227" s="97"/>
+      <c r="C227" s="63"/>
+      <c r="D227" s="63"/>
+      <c r="E227" s="64"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B228" s="95" t="s">
+      <c r="B228" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="96"/>
-      <c r="D228" s="96"/>
-      <c r="E228" s="97"/>
+      <c r="C228" s="63"/>
+      <c r="D228" s="63"/>
+      <c r="E228" s="64"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B229" s="95" t="s">
+      <c r="B229" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C229" s="96"/>
-      <c r="D229" s="96"/>
-      <c r="E229" s="97"/>
+      <c r="C229" s="63"/>
+      <c r="D229" s="63"/>
+      <c r="E229" s="64"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B230" s="75" t="s">
+      <c r="B230" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="78"/>
-      <c r="D230" s="78"/>
-      <c r="E230" s="94"/>
+      <c r="C230" s="72"/>
+      <c r="D230" s="72"/>
+      <c r="E230" s="73"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
@@ -3598,7 +3592,7 @@
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="88" t="s">
+      <c r="C235" s="79" t="s">
         <v>85</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -3611,7 +3605,7 @@
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="89"/>
+      <c r="C236" s="80"/>
       <c r="D236" s="16" t="s">
         <v>92</v>
       </c>
@@ -3622,7 +3616,7 @@
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="90"/>
+      <c r="C237" s="81"/>
       <c r="D237" s="1" t="s">
         <v>92</v>
       </c>
@@ -3631,18 +3625,18 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D238" s="63" t="s">
+      <c r="D238" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="E238" s="64" t="s">
+      <c r="E238" s="61" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D239" s="63" t="s">
+      <c r="D239" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="E239" s="64" t="s">
+      <c r="E239" s="61" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3651,61 +3645,61 @@
         <v>54</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="85">
+      <c r="C240" s="65">
         <v>44172</v>
       </c>
-      <c r="D240" s="86"/>
-      <c r="E240" s="87"/>
+      <c r="D240" s="66"/>
+      <c r="E240" s="67"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="91"/>
-      <c r="D241" s="92"/>
-      <c r="E241" s="93"/>
+      <c r="C241" s="68"/>
+      <c r="D241" s="69"/>
+      <c r="E241" s="70"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="75" t="s">
+      <c r="B242" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="78"/>
-      <c r="D242" s="78"/>
-      <c r="E242" s="94"/>
+      <c r="C242" s="72"/>
+      <c r="D242" s="72"/>
+      <c r="E242" s="73"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B243" s="75" t="s">
+      <c r="B243" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C243" s="78"/>
-      <c r="D243" s="78"/>
-      <c r="E243" s="94"/>
+      <c r="C243" s="72"/>
+      <c r="D243" s="72"/>
+      <c r="E243" s="73"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B244" s="75" t="s">
+      <c r="B244" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C244" s="78"/>
-      <c r="D244" s="78"/>
-      <c r="E244" s="94"/>
+      <c r="C244" s="72"/>
+      <c r="D244" s="72"/>
+      <c r="E244" s="73"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B245" s="75" t="s">
+      <c r="B245" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="C245" s="78"/>
-      <c r="D245" s="78"/>
-      <c r="E245" s="94"/>
+      <c r="C245" s="72"/>
+      <c r="D245" s="72"/>
+      <c r="E245" s="73"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B246" s="75"/>
-      <c r="C246" s="78"/>
-      <c r="D246" s="78"/>
-      <c r="E246" s="94"/>
+      <c r="B246" s="71"/>
+      <c r="C246" s="72"/>
+      <c r="D246" s="72"/>
+      <c r="E246" s="73"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
@@ -3742,13 +3736,13 @@
       <c r="A250" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B250" s="38" t="s">
+      <c r="B250" s="35" t="s">
         <v>87</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D250" s="34" t="s">
+      <c r="D250" s="31" t="s">
         <v>68</v>
       </c>
       <c r="E250" s="6" t="s">
@@ -3758,47 +3752,51 @@
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="88" t="s">
+      <c r="C251" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="D251" s="88" t="s">
+      <c r="D251" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="E251" s="98"/>
+      <c r="E251" s="82"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="10"/>
-      <c r="C252" s="89"/>
-      <c r="D252" s="89"/>
-      <c r="E252" s="99"/>
+      <c r="C252" s="80"/>
+      <c r="D252" s="80"/>
+      <c r="E252" s="83"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="90"/>
-      <c r="D253" s="90"/>
-      <c r="E253" s="100"/>
+      <c r="C253" s="81"/>
+      <c r="D253" s="81"/>
+      <c r="E253" s="84"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="29">
+      <c r="C256" s="65">
         <v>44178</v>
       </c>
-      <c r="D256" s="30"/>
-      <c r="E256" s="31"/>
+      <c r="D256" s="66"/>
+      <c r="E256" s="67"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B257" s="3"/>
-      <c r="C257" s="32"/>
-      <c r="D257" s="33"/>
-      <c r="E257" s="34"/>
+      <c r="B257" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D257" s="69"/>
+      <c r="E257" s="70"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
@@ -3876,13 +3874,13 @@
       <c r="A266" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B266" s="32" t="s">
+      <c r="B266" s="29" t="s">
         <v>91</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D266" s="34" t="s">
+      <c r="D266" s="31" t="s">
         <v>68</v>
       </c>
       <c r="E266" s="6" t="s">
@@ -3925,35 +3923,77 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D270" s="63" t="s">
+      <c r="D270" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="E270" s="64" t="s">
+      <c r="E270" s="61" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D271" s="63" t="s">
+      <c r="D271" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="E271" s="64" t="s">
+      <c r="E271" s="61" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
+  <mergeCells count="82">
+    <mergeCell ref="C257:E257"/>
+    <mergeCell ref="C256:E256"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="B246:E246"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B228:E228"/>
     <mergeCell ref="D251:D253"/>
     <mergeCell ref="C251:C253"/>
     <mergeCell ref="E251:E253"/>
@@ -3970,58 +4010,18 @@
     <mergeCell ref="C225:E225"/>
     <mergeCell ref="B226:E226"/>
     <mergeCell ref="B227:E227"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="C241:E241"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF45BB19-48BB-4270-A92D-D7B3484789FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0523F6-4E39-4BBA-91DE-1DADFC6C874A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="110">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -354,6 +354,18 @@
   </si>
   <si>
     <t>1 hr 14 min</t>
+  </si>
+  <si>
+    <t>update the state dagram and main source code</t>
+  </si>
+  <si>
+    <t>Project 08 update</t>
+  </si>
+  <si>
+    <t>adding smart windows to the smart home system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 min </t>
   </si>
 </sst>
 </file>
@@ -752,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -884,6 +896,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -892,32 +1003,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -933,78 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1773,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:F271"/>
+  <dimension ref="A1:F303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D271" sqref="D271"/>
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C297" sqref="C297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,20 +1810,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1890,75 +1911,75 @@
       <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="85" t="s">
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="86"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="71" t="s">
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="89"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="90" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="91"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="71" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="89"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="90" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="91"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="71" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="89"/>
+      <c r="E20" s="82"/>
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2272,75 +2293,75 @@
       <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="97" t="s">
+      <c r="A59" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98" t="s">
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="102"/>
+      <c r="E59" s="77"/>
       <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="95" t="s">
+      <c r="A60" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="96"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="96" t="s">
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="99"/>
+      <c r="E60" s="74"/>
       <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="95" t="s">
+      <c r="A61" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="96"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96" t="s">
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="99"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="95" t="s">
+      <c r="A62" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96" t="s">
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="99"/>
+      <c r="E62" s="74"/>
       <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="95" t="s">
+      <c r="A63" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="96"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96" t="s">
+      <c r="B63" s="73"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="99"/>
+      <c r="E63" s="74"/>
       <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="95" t="s">
+      <c r="A64" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="96"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="96" t="s">
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="99"/>
+      <c r="E64" s="74"/>
       <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2550,75 +2571,75 @@
       <c r="F89" s="40"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="97" t="s">
+      <c r="A90" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="98"/>
-      <c r="C90" s="98"/>
-      <c r="D90" s="98" t="s">
+      <c r="B90" s="76"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="102"/>
+      <c r="E90" s="77"/>
       <c r="F90" s="40"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="95" t="s">
+      <c r="A91" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="96"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="96" t="s">
+      <c r="B91" s="73"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="99"/>
+      <c r="E91" s="74"/>
       <c r="F91" s="40"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="95" t="s">
+      <c r="A92" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="96"/>
-      <c r="C92" s="96"/>
-      <c r="D92" s="96" t="s">
+      <c r="B92" s="73"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="99"/>
+      <c r="E92" s="74"/>
       <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="95" t="s">
+      <c r="A93" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="96"/>
-      <c r="C93" s="96"/>
-      <c r="D93" s="96" t="s">
+      <c r="B93" s="73"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="99"/>
+      <c r="E93" s="74"/>
       <c r="F93" s="40"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="95" t="s">
+      <c r="A94" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="96"/>
-      <c r="C94" s="96"/>
-      <c r="D94" s="96" t="s">
+      <c r="B94" s="73"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="99"/>
+      <c r="E94" s="74"/>
       <c r="F94" s="40"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="95" t="s">
+      <c r="A95" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="96"/>
-      <c r="C95" s="96"/>
-      <c r="D95" s="96" t="s">
+      <c r="B95" s="73"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="99"/>
+      <c r="E95" s="74"/>
       <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2994,11 +3015,11 @@
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="65">
+      <c r="C172" s="68">
         <v>44163</v>
       </c>
-      <c r="D172" s="66"/>
-      <c r="E172" s="67"/>
+      <c r="D172" s="69"/>
+      <c r="E172" s="70"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -3007,54 +3028,54 @@
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="68" t="s">
+      <c r="C173" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="69"/>
-      <c r="E173" s="70"/>
+      <c r="D173" s="66"/>
+      <c r="E173" s="67"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="62" t="s">
+      <c r="B174" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="63"/>
-      <c r="D174" s="63"/>
-      <c r="E174" s="64"/>
+      <c r="C174" s="96"/>
+      <c r="D174" s="96"/>
+      <c r="E174" s="97"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="62" t="s">
+      <c r="B175" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="63"/>
-      <c r="D175" s="63"/>
-      <c r="E175" s="64"/>
+      <c r="C175" s="96"/>
+      <c r="D175" s="96"/>
+      <c r="E175" s="97"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="62" t="s">
+      <c r="B176" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="63"/>
-      <c r="D176" s="63"/>
-      <c r="E176" s="64"/>
+      <c r="C176" s="96"/>
+      <c r="D176" s="96"/>
+      <c r="E176" s="97"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="62" t="s">
+      <c r="B177" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="63"/>
-      <c r="D177" s="63"/>
-      <c r="E177" s="64"/>
+      <c r="C177" s="96"/>
+      <c r="D177" s="96"/>
+      <c r="E177" s="97"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="71" t="s">
+      <c r="B178" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="72"/>
-      <c r="D178" s="72"/>
-      <c r="E178" s="73"/>
+      <c r="C178" s="84"/>
+      <c r="D178" s="84"/>
+      <c r="E178" s="94"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -3113,13 +3134,13 @@
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="74" t="s">
+      <c r="C183" s="101" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="77" t="s">
+      <c r="E183" s="104" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3130,11 +3151,11 @@
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="75"/>
+      <c r="C184" s="102"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="78"/>
+      <c r="E184" s="105"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
@@ -3143,7 +3164,7 @@
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="75"/>
+      <c r="C185" s="102"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -3154,7 +3175,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="76"/>
+      <c r="C186" s="103"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -3181,11 +3202,11 @@
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="65">
+      <c r="C190" s="68">
         <v>44164</v>
       </c>
-      <c r="D190" s="66"/>
-      <c r="E190" s="67"/>
+      <c r="D190" s="69"/>
+      <c r="E190" s="70"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -3194,54 +3215,54 @@
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="68" t="s">
+      <c r="C191" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="69"/>
-      <c r="E191" s="70"/>
+      <c r="D191" s="66"/>
+      <c r="E191" s="67"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="62" t="s">
+      <c r="B192" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="63"/>
-      <c r="D192" s="63"/>
-      <c r="E192" s="64"/>
+      <c r="C192" s="96"/>
+      <c r="D192" s="96"/>
+      <c r="E192" s="97"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="62" t="s">
+      <c r="B193" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="63"/>
-      <c r="D193" s="63"/>
-      <c r="E193" s="64"/>
+      <c r="C193" s="96"/>
+      <c r="D193" s="96"/>
+      <c r="E193" s="97"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="62" t="s">
+      <c r="B194" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="63"/>
-      <c r="D194" s="63"/>
-      <c r="E194" s="64"/>
+      <c r="C194" s="96"/>
+      <c r="D194" s="96"/>
+      <c r="E194" s="97"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="62" t="s">
+      <c r="B195" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="63"/>
-      <c r="D195" s="63"/>
-      <c r="E195" s="64"/>
+      <c r="C195" s="96"/>
+      <c r="D195" s="96"/>
+      <c r="E195" s="97"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="71" t="s">
+      <c r="B196" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="72"/>
-      <c r="D196" s="72"/>
-      <c r="E196" s="73"/>
+      <c r="C196" s="84"/>
+      <c r="D196" s="84"/>
+      <c r="E196" s="94"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
@@ -3300,7 +3321,7 @@
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="79" t="s">
+      <c r="C201" s="91" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -3317,7 +3338,7 @@
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="80"/>
+      <c r="C202" s="92"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -3332,7 +3353,7 @@
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="81"/>
+      <c r="C203" s="93"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -3345,11 +3366,11 @@
         <v>54</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="65">
+      <c r="C206" s="68">
         <v>44165</v>
       </c>
-      <c r="D206" s="66"/>
-      <c r="E206" s="67"/>
+      <c r="D206" s="69"/>
+      <c r="E206" s="70"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
@@ -3364,40 +3385,40 @@
       <c r="A208" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="71" t="s">
+      <c r="B208" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="72"/>
-      <c r="D208" s="72"/>
-      <c r="E208" s="73"/>
+      <c r="C208" s="84"/>
+      <c r="D208" s="84"/>
+      <c r="E208" s="94"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B209" s="71" t="s">
+      <c r="B209" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="72"/>
-      <c r="D209" s="72"/>
-      <c r="E209" s="73"/>
+      <c r="C209" s="84"/>
+      <c r="D209" s="84"/>
+      <c r="E209" s="94"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B210" s="71" t="s">
+      <c r="B210" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C210" s="72"/>
-      <c r="D210" s="72"/>
-      <c r="E210" s="73"/>
+      <c r="C210" s="84"/>
+      <c r="D210" s="84"/>
+      <c r="E210" s="94"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="71"/>
-      <c r="C211" s="72"/>
-      <c r="D211" s="72"/>
-      <c r="E211" s="73"/>
+      <c r="B211" s="81"/>
+      <c r="C211" s="84"/>
+      <c r="D211" s="84"/>
+      <c r="E211" s="94"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="71"/>
-      <c r="C212" s="72"/>
-      <c r="D212" s="72"/>
-      <c r="E212" s="73"/>
+      <c r="B212" s="81"/>
+      <c r="C212" s="84"/>
+      <c r="D212" s="84"/>
+      <c r="E212" s="94"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -3450,10 +3471,10 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="79" t="s">
+      <c r="C217" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D217" s="79" t="s">
+      <c r="D217" s="91" t="s">
         <v>90</v>
       </c>
       <c r="E217" s="32"/>
@@ -3461,15 +3482,15 @@
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="80"/>
-      <c r="D218" s="80"/>
+      <c r="C218" s="92"/>
+      <c r="D218" s="92"/>
       <c r="E218" s="33"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="81"/>
-      <c r="D219" s="81"/>
+      <c r="C219" s="93"/>
+      <c r="D219" s="93"/>
       <c r="E219" s="34"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -3477,11 +3498,11 @@
         <v>54</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="65">
+      <c r="C224" s="68">
         <v>44171</v>
       </c>
-      <c r="D224" s="66"/>
-      <c r="E224" s="67"/>
+      <c r="D224" s="69"/>
+      <c r="E224" s="70"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
@@ -3490,54 +3511,54 @@
       <c r="B225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="68" t="s">
+      <c r="C225" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D225" s="69"/>
-      <c r="E225" s="70"/>
+      <c r="D225" s="66"/>
+      <c r="E225" s="67"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B226" s="62" t="s">
+      <c r="B226" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="63"/>
-      <c r="D226" s="63"/>
-      <c r="E226" s="64"/>
+      <c r="C226" s="96"/>
+      <c r="D226" s="96"/>
+      <c r="E226" s="97"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B227" s="62" t="s">
+      <c r="B227" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="63"/>
-      <c r="D227" s="63"/>
-      <c r="E227" s="64"/>
+      <c r="C227" s="96"/>
+      <c r="D227" s="96"/>
+      <c r="E227" s="97"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B228" s="62" t="s">
+      <c r="B228" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="63"/>
-      <c r="D228" s="63"/>
-      <c r="E228" s="64"/>
+      <c r="C228" s="96"/>
+      <c r="D228" s="96"/>
+      <c r="E228" s="97"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B229" s="62" t="s">
+      <c r="B229" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C229" s="63"/>
-      <c r="D229" s="63"/>
-      <c r="E229" s="64"/>
+      <c r="C229" s="96"/>
+      <c r="D229" s="96"/>
+      <c r="E229" s="97"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B230" s="71" t="s">
+      <c r="B230" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="72"/>
-      <c r="D230" s="72"/>
-      <c r="E230" s="73"/>
+      <c r="C230" s="84"/>
+      <c r="D230" s="84"/>
+      <c r="E230" s="94"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
@@ -3592,7 +3613,7 @@
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="79" t="s">
+      <c r="C235" s="91" t="s">
         <v>85</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -3605,7 +3626,7 @@
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="80"/>
+      <c r="C236" s="92"/>
       <c r="D236" s="16" t="s">
         <v>92</v>
       </c>
@@ -3616,7 +3637,7 @@
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="81"/>
+      <c r="C237" s="93"/>
       <c r="D237" s="1" t="s">
         <v>92</v>
       </c>
@@ -3645,61 +3666,61 @@
         <v>54</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="65">
+      <c r="C240" s="68">
         <v>44172</v>
       </c>
-      <c r="D240" s="66"/>
-      <c r="E240" s="67"/>
+      <c r="D240" s="69"/>
+      <c r="E240" s="70"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="68"/>
-      <c r="D241" s="69"/>
-      <c r="E241" s="70"/>
+      <c r="C241" s="65"/>
+      <c r="D241" s="66"/>
+      <c r="E241" s="67"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="71" t="s">
+      <c r="B242" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="72"/>
-      <c r="D242" s="72"/>
-      <c r="E242" s="73"/>
+      <c r="C242" s="84"/>
+      <c r="D242" s="84"/>
+      <c r="E242" s="94"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B243" s="71" t="s">
+      <c r="B243" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C243" s="72"/>
-      <c r="D243" s="72"/>
-      <c r="E243" s="73"/>
+      <c r="C243" s="84"/>
+      <c r="D243" s="84"/>
+      <c r="E243" s="94"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B244" s="71" t="s">
+      <c r="B244" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C244" s="72"/>
-      <c r="D244" s="72"/>
-      <c r="E244" s="73"/>
+      <c r="C244" s="84"/>
+      <c r="D244" s="84"/>
+      <c r="E244" s="94"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B245" s="71" t="s">
+      <c r="B245" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C245" s="72"/>
-      <c r="D245" s="72"/>
-      <c r="E245" s="73"/>
+      <c r="C245" s="84"/>
+      <c r="D245" s="84"/>
+      <c r="E245" s="94"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B246" s="71"/>
-      <c r="C246" s="72"/>
-      <c r="D246" s="72"/>
-      <c r="E246" s="73"/>
+      <c r="B246" s="81"/>
+      <c r="C246" s="84"/>
+      <c r="D246" s="84"/>
+      <c r="E246" s="94"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
@@ -3752,38 +3773,38 @@
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="79" t="s">
+      <c r="C251" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D251" s="79" t="s">
+      <c r="D251" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="E251" s="82"/>
+      <c r="E251" s="98"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="10"/>
-      <c r="C252" s="80"/>
-      <c r="D252" s="80"/>
-      <c r="E252" s="83"/>
+      <c r="C252" s="92"/>
+      <c r="D252" s="92"/>
+      <c r="E252" s="99"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="81"/>
-      <c r="D253" s="81"/>
-      <c r="E253" s="84"/>
+      <c r="C253" s="93"/>
+      <c r="D253" s="93"/>
+      <c r="E253" s="100"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="65">
+      <c r="C256" s="68">
         <v>44178</v>
       </c>
-      <c r="D256" s="66"/>
-      <c r="E256" s="67"/>
+      <c r="D256" s="69"/>
+      <c r="E256" s="70"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
@@ -3792,11 +3813,11 @@
       <c r="B257" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C257" s="68" t="s">
+      <c r="C257" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="D257" s="69"/>
-      <c r="E257" s="70"/>
+      <c r="D257" s="66"/>
+      <c r="E257" s="67"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
@@ -3938,8 +3959,372 @@
         <v>101</v>
       </c>
     </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B273" s="2"/>
+      <c r="C273" s="68">
+        <v>44179</v>
+      </c>
+      <c r="D273" s="69"/>
+      <c r="E273" s="70"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B274" s="3"/>
+      <c r="C274" s="65"/>
+      <c r="D274" s="66"/>
+      <c r="E274" s="67"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B275" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" s="84"/>
+      <c r="D275" s="84"/>
+      <c r="E275" s="94"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B276" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C276" s="84"/>
+      <c r="D276" s="84"/>
+      <c r="E276" s="94"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B277" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C277" s="84"/>
+      <c r="D277" s="84"/>
+      <c r="E277" s="94"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B278" s="81"/>
+      <c r="C278" s="84"/>
+      <c r="D278" s="84"/>
+      <c r="E278" s="94"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B279" s="81"/>
+      <c r="C279" s="84"/>
+      <c r="D279" s="84"/>
+      <c r="E279" s="94"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C282" s="4"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B283" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C283" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D283" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E283" s="64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="1"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="91"/>
+      <c r="D284" s="91"/>
+      <c r="E284" s="98"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="1"/>
+      <c r="B285" s="10"/>
+      <c r="C285" s="92"/>
+      <c r="D285" s="92"/>
+      <c r="E285" s="99"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="17"/>
+      <c r="B286" s="18"/>
+      <c r="C286" s="93"/>
+      <c r="D286" s="93"/>
+      <c r="E286" s="100"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B288" s="2"/>
+      <c r="C288" s="68">
+        <v>44185</v>
+      </c>
+      <c r="D288" s="69"/>
+      <c r="E288" s="70"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D289" s="66"/>
+      <c r="E289" s="67"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B290" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C290" s="96"/>
+      <c r="D290" s="96"/>
+      <c r="E290" s="97"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B291" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C291" s="96"/>
+      <c r="D291" s="96"/>
+      <c r="E291" s="97"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B292" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="C292" s="96"/>
+      <c r="D292" s="96"/>
+      <c r="E292" s="97"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B293" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C293" s="96"/>
+      <c r="D293" s="96"/>
+      <c r="E293" s="97"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B294" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C294" s="84"/>
+      <c r="D294" s="84"/>
+      <c r="E294" s="94"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C297" s="4"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B298" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C298" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D298" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E298" s="64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="1"/>
+      <c r="B299" s="8"/>
+      <c r="C299" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="1"/>
+      <c r="B300" s="10"/>
+      <c r="C300" s="92"/>
+      <c r="D300" s="16"/>
+      <c r="E300" s="1"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="17"/>
+      <c r="B301" s="18"/>
+      <c r="C301" s="93"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="19"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D302" s="60"/>
+      <c r="E302" s="61"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D303" s="60"/>
+      <c r="E303" s="61"/>
+    </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="100">
+    <mergeCell ref="B293:E293"/>
+    <mergeCell ref="B294:E294"/>
+    <mergeCell ref="C299:C301"/>
+    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="D284:D286"/>
+    <mergeCell ref="E284:E286"/>
+    <mergeCell ref="C273:E273"/>
+    <mergeCell ref="C274:E274"/>
+    <mergeCell ref="B275:E275"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="D251:D253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="C240:E240"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="B246:E246"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A60:C60"/>
     <mergeCell ref="C257:E257"/>
     <mergeCell ref="C256:E256"/>
     <mergeCell ref="A1:E2"/>
@@ -3956,72 +4341,6 @@
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="C241:E241"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="D251:D253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="E251:E253"/>
-    <mergeCell ref="C240:E240"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="C224:E224"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="B226:E226"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0523F6-4E39-4BBA-91DE-1DADFC6C874A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E707A342-3C26-4A48-9E98-EBFE0A5F8B9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t xml:space="preserve">46 min </t>
+  </si>
+  <si>
+    <t xml:space="preserve">update the sequence diagram for the scenario </t>
+  </si>
+  <si>
+    <t>Hadi Imran bin Md Radzi</t>
   </si>
 </sst>
 </file>
@@ -905,6 +911,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -913,14 +955,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,104 +1030,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1796,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:F303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C297" sqref="C297"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E300" sqref="E300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1810,20 +1816,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1911,75 +1917,75 @@
       <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="87" t="s">
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="88"/>
+      <c r="E15" s="89"/>
       <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="81" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="82"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="79" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="80"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="81" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="82"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="79" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="80"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="81" t="s">
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="82"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2293,75 +2299,75 @@
       <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="78" t="s">
+      <c r="A59" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="76"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76" t="s">
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="77"/>
+      <c r="E59" s="105"/>
       <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73" t="s">
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="74"/>
+      <c r="E60" s="101"/>
       <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="75" t="s">
+      <c r="A61" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73" t="s">
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="74"/>
+      <c r="E61" s="101"/>
       <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73" t="s">
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="74"/>
+      <c r="E62" s="101"/>
       <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="75" t="s">
+      <c r="A63" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="73"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73" t="s">
+      <c r="B63" s="100"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="74"/>
+      <c r="E63" s="101"/>
       <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73" t="s">
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="74"/>
+      <c r="E64" s="101"/>
       <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2571,75 +2577,75 @@
       <c r="F89" s="40"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="78" t="s">
+      <c r="A90" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="76"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="76" t="s">
+      <c r="B90" s="99"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="77"/>
+      <c r="E90" s="105"/>
       <c r="F90" s="40"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="75" t="s">
+      <c r="A91" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="73"/>
-      <c r="C91" s="73"/>
-      <c r="D91" s="73" t="s">
+      <c r="B91" s="100"/>
+      <c r="C91" s="100"/>
+      <c r="D91" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="74"/>
+      <c r="E91" s="101"/>
       <c r="F91" s="40"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="75" t="s">
+      <c r="A92" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="73"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="73" t="s">
+      <c r="B92" s="100"/>
+      <c r="C92" s="100"/>
+      <c r="D92" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="74"/>
+      <c r="E92" s="101"/>
       <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="75" t="s">
+      <c r="A93" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="73"/>
-      <c r="C93" s="73"/>
-      <c r="D93" s="73" t="s">
+      <c r="B93" s="100"/>
+      <c r="C93" s="100"/>
+      <c r="D93" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="74"/>
+      <c r="E93" s="101"/>
       <c r="F93" s="40"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="75" t="s">
+      <c r="A94" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="73"/>
-      <c r="C94" s="73"/>
-      <c r="D94" s="73" t="s">
+      <c r="B94" s="100"/>
+      <c r="C94" s="100"/>
+      <c r="D94" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="74"/>
+      <c r="E94" s="101"/>
       <c r="F94" s="40"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="75" t="s">
+      <c r="A95" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="73"/>
-      <c r="C95" s="73"/>
-      <c r="D95" s="73" t="s">
+      <c r="B95" s="100"/>
+      <c r="C95" s="100"/>
+      <c r="D95" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="74"/>
+      <c r="E95" s="101"/>
       <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3015,11 +3021,11 @@
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="68">
+      <c r="C172" s="74">
         <v>44163</v>
       </c>
-      <c r="D172" s="69"/>
-      <c r="E172" s="70"/>
+      <c r="D172" s="75"/>
+      <c r="E172" s="76"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -3028,54 +3034,54 @@
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="65" t="s">
+      <c r="C173" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="66"/>
-      <c r="E173" s="67"/>
+      <c r="D173" s="78"/>
+      <c r="E173" s="79"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="95" t="s">
+      <c r="B174" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="96"/>
-      <c r="D174" s="96"/>
-      <c r="E174" s="97"/>
+      <c r="C174" s="66"/>
+      <c r="D174" s="66"/>
+      <c r="E174" s="67"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="95" t="s">
+      <c r="B175" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="96"/>
-      <c r="D175" s="96"/>
-      <c r="E175" s="97"/>
+      <c r="C175" s="66"/>
+      <c r="D175" s="66"/>
+      <c r="E175" s="67"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="95" t="s">
+      <c r="B176" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="96"/>
-      <c r="D176" s="96"/>
-      <c r="E176" s="97"/>
+      <c r="C176" s="66"/>
+      <c r="D176" s="66"/>
+      <c r="E176" s="67"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="95" t="s">
+      <c r="B177" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="96"/>
-      <c r="D177" s="96"/>
-      <c r="E177" s="97"/>
+      <c r="C177" s="66"/>
+      <c r="D177" s="66"/>
+      <c r="E177" s="67"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="81" t="s">
+      <c r="B178" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="84"/>
-      <c r="D178" s="84"/>
-      <c r="E178" s="94"/>
+      <c r="C178" s="69"/>
+      <c r="D178" s="69"/>
+      <c r="E178" s="70"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -3134,13 +3140,13 @@
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="101" t="s">
+      <c r="C183" s="83" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="104" t="s">
+      <c r="E183" s="86" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3151,11 +3157,11 @@
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="102"/>
+      <c r="C184" s="84"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="105"/>
+      <c r="E184" s="87"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
@@ -3164,7 +3170,7 @@
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="102"/>
+      <c r="C185" s="84"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -3175,7 +3181,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="103"/>
+      <c r="C186" s="85"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -3202,11 +3208,11 @@
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="68">
+      <c r="C190" s="74">
         <v>44164</v>
       </c>
-      <c r="D190" s="69"/>
-      <c r="E190" s="70"/>
+      <c r="D190" s="75"/>
+      <c r="E190" s="76"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -3215,54 +3221,54 @@
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="65" t="s">
+      <c r="C191" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="66"/>
-      <c r="E191" s="67"/>
+      <c r="D191" s="78"/>
+      <c r="E191" s="79"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="95" t="s">
+      <c r="B192" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="96"/>
-      <c r="D192" s="96"/>
-      <c r="E192" s="97"/>
+      <c r="C192" s="66"/>
+      <c r="D192" s="66"/>
+      <c r="E192" s="67"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="95" t="s">
+      <c r="B193" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="96"/>
-      <c r="D193" s="96"/>
-      <c r="E193" s="97"/>
+      <c r="C193" s="66"/>
+      <c r="D193" s="66"/>
+      <c r="E193" s="67"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="95" t="s">
+      <c r="B194" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="96"/>
-      <c r="D194" s="96"/>
-      <c r="E194" s="97"/>
+      <c r="C194" s="66"/>
+      <c r="D194" s="66"/>
+      <c r="E194" s="67"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="95" t="s">
+      <c r="B195" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="96"/>
-      <c r="D195" s="96"/>
-      <c r="E195" s="97"/>
+      <c r="C195" s="66"/>
+      <c r="D195" s="66"/>
+      <c r="E195" s="67"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="81" t="s">
+      <c r="B196" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="84"/>
-      <c r="D196" s="84"/>
-      <c r="E196" s="94"/>
+      <c r="C196" s="69"/>
+      <c r="D196" s="69"/>
+      <c r="E196" s="70"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
@@ -3321,7 +3327,7 @@
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="91" t="s">
+      <c r="C201" s="71" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -3338,7 +3344,7 @@
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="92"/>
+      <c r="C202" s="72"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -3353,7 +3359,7 @@
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="93"/>
+      <c r="C203" s="73"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -3366,11 +3372,11 @@
         <v>54</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="68">
+      <c r="C206" s="74">
         <v>44165</v>
       </c>
-      <c r="D206" s="69"/>
-      <c r="E206" s="70"/>
+      <c r="D206" s="75"/>
+      <c r="E206" s="76"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
@@ -3385,40 +3391,40 @@
       <c r="A208" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="81" t="s">
+      <c r="B208" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="84"/>
-      <c r="D208" s="84"/>
-      <c r="E208" s="94"/>
+      <c r="C208" s="69"/>
+      <c r="D208" s="69"/>
+      <c r="E208" s="70"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B209" s="81" t="s">
+      <c r="B209" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="84"/>
-      <c r="D209" s="84"/>
-      <c r="E209" s="94"/>
+      <c r="C209" s="69"/>
+      <c r="D209" s="69"/>
+      <c r="E209" s="70"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B210" s="81" t="s">
+      <c r="B210" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C210" s="84"/>
-      <c r="D210" s="84"/>
-      <c r="E210" s="94"/>
+      <c r="C210" s="69"/>
+      <c r="D210" s="69"/>
+      <c r="E210" s="70"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="81"/>
-      <c r="C211" s="84"/>
-      <c r="D211" s="84"/>
-      <c r="E211" s="94"/>
+      <c r="B211" s="68"/>
+      <c r="C211" s="69"/>
+      <c r="D211" s="69"/>
+      <c r="E211" s="70"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="81"/>
-      <c r="C212" s="84"/>
-      <c r="D212" s="84"/>
-      <c r="E212" s="94"/>
+      <c r="B212" s="68"/>
+      <c r="C212" s="69"/>
+      <c r="D212" s="69"/>
+      <c r="E212" s="70"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -3471,10 +3477,10 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="91" t="s">
+      <c r="C217" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D217" s="91" t="s">
+      <c r="D217" s="71" t="s">
         <v>90</v>
       </c>
       <c r="E217" s="32"/>
@@ -3482,15 +3488,15 @@
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="92"/>
-      <c r="D218" s="92"/>
+      <c r="C218" s="72"/>
+      <c r="D218" s="72"/>
       <c r="E218" s="33"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="93"/>
-      <c r="D219" s="93"/>
+      <c r="C219" s="73"/>
+      <c r="D219" s="73"/>
       <c r="E219" s="34"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -3498,11 +3504,11 @@
         <v>54</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="68">
+      <c r="C224" s="74">
         <v>44171</v>
       </c>
-      <c r="D224" s="69"/>
-      <c r="E224" s="70"/>
+      <c r="D224" s="75"/>
+      <c r="E224" s="76"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
@@ -3511,54 +3517,54 @@
       <c r="B225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="65" t="s">
+      <c r="C225" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D225" s="66"/>
-      <c r="E225" s="67"/>
+      <c r="D225" s="78"/>
+      <c r="E225" s="79"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B226" s="95" t="s">
+      <c r="B226" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="96"/>
-      <c r="D226" s="96"/>
-      <c r="E226" s="97"/>
+      <c r="C226" s="66"/>
+      <c r="D226" s="66"/>
+      <c r="E226" s="67"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B227" s="95" t="s">
+      <c r="B227" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="96"/>
-      <c r="D227" s="96"/>
-      <c r="E227" s="97"/>
+      <c r="C227" s="66"/>
+      <c r="D227" s="66"/>
+      <c r="E227" s="67"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B228" s="95" t="s">
+      <c r="B228" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="96"/>
-      <c r="D228" s="96"/>
-      <c r="E228" s="97"/>
+      <c r="C228" s="66"/>
+      <c r="D228" s="66"/>
+      <c r="E228" s="67"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B229" s="95" t="s">
+      <c r="B229" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C229" s="96"/>
-      <c r="D229" s="96"/>
-      <c r="E229" s="97"/>
+      <c r="C229" s="66"/>
+      <c r="D229" s="66"/>
+      <c r="E229" s="67"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B230" s="81" t="s">
+      <c r="B230" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="84"/>
-      <c r="D230" s="84"/>
-      <c r="E230" s="94"/>
+      <c r="C230" s="69"/>
+      <c r="D230" s="69"/>
+      <c r="E230" s="70"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
@@ -3613,7 +3619,7 @@
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="91" t="s">
+      <c r="C235" s="71" t="s">
         <v>85</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -3626,7 +3632,7 @@
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="92"/>
+      <c r="C236" s="72"/>
       <c r="D236" s="16" t="s">
         <v>92</v>
       </c>
@@ -3637,7 +3643,7 @@
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="93"/>
+      <c r="C237" s="73"/>
       <c r="D237" s="1" t="s">
         <v>92</v>
       </c>
@@ -3666,61 +3672,61 @@
         <v>54</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="68">
+      <c r="C240" s="74">
         <v>44172</v>
       </c>
-      <c r="D240" s="69"/>
-      <c r="E240" s="70"/>
+      <c r="D240" s="75"/>
+      <c r="E240" s="76"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="65"/>
-      <c r="D241" s="66"/>
-      <c r="E241" s="67"/>
+      <c r="C241" s="77"/>
+      <c r="D241" s="78"/>
+      <c r="E241" s="79"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="81" t="s">
+      <c r="B242" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="84"/>
-      <c r="D242" s="84"/>
-      <c r="E242" s="94"/>
+      <c r="C242" s="69"/>
+      <c r="D242" s="69"/>
+      <c r="E242" s="70"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B243" s="81" t="s">
+      <c r="B243" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C243" s="84"/>
-      <c r="D243" s="84"/>
-      <c r="E243" s="94"/>
+      <c r="C243" s="69"/>
+      <c r="D243" s="69"/>
+      <c r="E243" s="70"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B244" s="81" t="s">
+      <c r="B244" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C244" s="84"/>
-      <c r="D244" s="84"/>
-      <c r="E244" s="94"/>
+      <c r="C244" s="69"/>
+      <c r="D244" s="69"/>
+      <c r="E244" s="70"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B245" s="81" t="s">
+      <c r="B245" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C245" s="84"/>
-      <c r="D245" s="84"/>
-      <c r="E245" s="94"/>
+      <c r="C245" s="69"/>
+      <c r="D245" s="69"/>
+      <c r="E245" s="70"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B246" s="81"/>
-      <c r="C246" s="84"/>
-      <c r="D246" s="84"/>
-      <c r="E246" s="94"/>
+      <c r="B246" s="68"/>
+      <c r="C246" s="69"/>
+      <c r="D246" s="69"/>
+      <c r="E246" s="70"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
@@ -3773,38 +3779,38 @@
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="91" t="s">
+      <c r="C251" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D251" s="91" t="s">
+      <c r="D251" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="E251" s="98"/>
+      <c r="E251" s="80"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="10"/>
-      <c r="C252" s="92"/>
-      <c r="D252" s="92"/>
-      <c r="E252" s="99"/>
+      <c r="C252" s="72"/>
+      <c r="D252" s="72"/>
+      <c r="E252" s="81"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="93"/>
-      <c r="D253" s="93"/>
-      <c r="E253" s="100"/>
+      <c r="C253" s="73"/>
+      <c r="D253" s="73"/>
+      <c r="E253" s="82"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="68">
+      <c r="C256" s="74">
         <v>44178</v>
       </c>
-      <c r="D256" s="69"/>
-      <c r="E256" s="70"/>
+      <c r="D256" s="75"/>
+      <c r="E256" s="76"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
@@ -3813,11 +3819,11 @@
       <c r="B257" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C257" s="65" t="s">
+      <c r="C257" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="D257" s="66"/>
-      <c r="E257" s="67"/>
+      <c r="D257" s="78"/>
+      <c r="E257" s="79"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
@@ -3964,59 +3970,59 @@
         <v>54</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="68">
+      <c r="C273" s="74">
         <v>44179</v>
       </c>
-      <c r="D273" s="69"/>
-      <c r="E273" s="70"/>
+      <c r="D273" s="75"/>
+      <c r="E273" s="76"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B274" s="3"/>
-      <c r="C274" s="65"/>
-      <c r="D274" s="66"/>
-      <c r="E274" s="67"/>
+      <c r="C274" s="77"/>
+      <c r="D274" s="78"/>
+      <c r="E274" s="79"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B275" s="81" t="s">
+      <c r="B275" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C275" s="84"/>
-      <c r="D275" s="84"/>
-      <c r="E275" s="94"/>
+      <c r="C275" s="69"/>
+      <c r="D275" s="69"/>
+      <c r="E275" s="70"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B276" s="81" t="s">
+      <c r="B276" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C276" s="84"/>
-      <c r="D276" s="84"/>
-      <c r="E276" s="94"/>
+      <c r="C276" s="69"/>
+      <c r="D276" s="69"/>
+      <c r="E276" s="70"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B277" s="81" t="s">
+      <c r="B277" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C277" s="84"/>
-      <c r="D277" s="84"/>
-      <c r="E277" s="94"/>
+      <c r="C277" s="69"/>
+      <c r="D277" s="69"/>
+      <c r="E277" s="70"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B278" s="81"/>
-      <c r="C278" s="84"/>
-      <c r="D278" s="84"/>
-      <c r="E278" s="94"/>
+      <c r="B278" s="68"/>
+      <c r="C278" s="69"/>
+      <c r="D278" s="69"/>
+      <c r="E278" s="70"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B279" s="81"/>
-      <c r="C279" s="84"/>
-      <c r="D279" s="84"/>
-      <c r="E279" s="94"/>
+      <c r="B279" s="68"/>
+      <c r="C279" s="69"/>
+      <c r="D279" s="69"/>
+      <c r="E279" s="70"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -4069,34 +4075,34 @@
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="8"/>
-      <c r="C284" s="91"/>
-      <c r="D284" s="91"/>
-      <c r="E284" s="98"/>
+      <c r="C284" s="71"/>
+      <c r="D284" s="71"/>
+      <c r="E284" s="80"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="10"/>
-      <c r="C285" s="92"/>
-      <c r="D285" s="92"/>
-      <c r="E285" s="99"/>
+      <c r="C285" s="72"/>
+      <c r="D285" s="72"/>
+      <c r="E285" s="81"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="18"/>
-      <c r="C286" s="93"/>
-      <c r="D286" s="93"/>
-      <c r="E286" s="100"/>
+      <c r="C286" s="73"/>
+      <c r="D286" s="73"/>
+      <c r="E286" s="82"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="68">
+      <c r="C288" s="74">
         <v>44185</v>
       </c>
-      <c r="D288" s="69"/>
-      <c r="E288" s="70"/>
+      <c r="D288" s="75"/>
+      <c r="E288" s="76"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
@@ -4105,54 +4111,54 @@
       <c r="B289" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C289" s="65" t="s">
+      <c r="C289" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="D289" s="66"/>
-      <c r="E289" s="67"/>
+      <c r="D289" s="78"/>
+      <c r="E289" s="79"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B290" s="95" t="s">
+      <c r="B290" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C290" s="96"/>
-      <c r="D290" s="96"/>
-      <c r="E290" s="97"/>
+      <c r="C290" s="66"/>
+      <c r="D290" s="66"/>
+      <c r="E290" s="67"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B291" s="95" t="s">
+      <c r="B291" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C291" s="96"/>
-      <c r="D291" s="96"/>
-      <c r="E291" s="97"/>
+      <c r="C291" s="66"/>
+      <c r="D291" s="66"/>
+      <c r="E291" s="67"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B292" s="95" t="s">
+      <c r="B292" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C292" s="96"/>
-      <c r="D292" s="96"/>
-      <c r="E292" s="97"/>
+      <c r="C292" s="66"/>
+      <c r="D292" s="66"/>
+      <c r="E292" s="67"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B293" s="95" t="s">
+      <c r="B293" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C293" s="96"/>
-      <c r="D293" s="96"/>
-      <c r="E293" s="97"/>
+      <c r="C293" s="66"/>
+      <c r="D293" s="66"/>
+      <c r="E293" s="67"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B294" s="81" t="s">
+      <c r="B294" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C294" s="84"/>
-      <c r="D294" s="84"/>
-      <c r="E294" s="94"/>
+      <c r="C294" s="69"/>
+      <c r="D294" s="69"/>
+      <c r="E294" s="70"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
@@ -4207,7 +4213,7 @@
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="8"/>
-      <c r="C299" s="91" t="s">
+      <c r="C299" s="71" t="s">
         <v>108</v>
       </c>
       <c r="D299" s="9" t="s">
@@ -4220,14 +4226,18 @@
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="10"/>
-      <c r="C300" s="92"/>
-      <c r="D300" s="16"/>
-      <c r="E300" s="1"/>
+      <c r="C300" s="72"/>
+      <c r="D300" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="18"/>
-      <c r="C301" s="93"/>
+      <c r="C301" s="73"/>
       <c r="D301" s="1"/>
       <c r="E301" s="19"/>
     </row>
@@ -4241,36 +4251,60 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="B293:E293"/>
-    <mergeCell ref="B294:E294"/>
-    <mergeCell ref="C299:C301"/>
-    <mergeCell ref="C288:E288"/>
-    <mergeCell ref="C289:E289"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B279:E279"/>
-    <mergeCell ref="C284:C286"/>
-    <mergeCell ref="D284:D286"/>
-    <mergeCell ref="E284:E286"/>
-    <mergeCell ref="C273:E273"/>
-    <mergeCell ref="C274:E274"/>
-    <mergeCell ref="B275:E275"/>
-    <mergeCell ref="B276:E276"/>
-    <mergeCell ref="B277:E277"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C257:E257"/>
+    <mergeCell ref="C256:E256"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="B246:E246"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B228:E228"/>
     <mergeCell ref="D251:D253"/>
     <mergeCell ref="C251:C253"/>
     <mergeCell ref="E251:E253"/>
@@ -4287,60 +4321,36 @@
     <mergeCell ref="C225:E225"/>
     <mergeCell ref="B226:E226"/>
     <mergeCell ref="B227:E227"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="C241:E241"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="C257:E257"/>
-    <mergeCell ref="C256:E256"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C273:E273"/>
+    <mergeCell ref="C274:E274"/>
+    <mergeCell ref="B275:E275"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="D284:D286"/>
+    <mergeCell ref="E284:E286"/>
+    <mergeCell ref="B293:E293"/>
+    <mergeCell ref="B294:E294"/>
+    <mergeCell ref="C299:C301"/>
+    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B292:E292"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E707A342-3C26-4A48-9E98-EBFE0A5F8B9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BA3440-418A-406A-948E-08A33988A3E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="115">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t>Hadi Imran bin Md Radzi</t>
+  </si>
+  <si>
+    <t>Smart Home</t>
+  </si>
+  <si>
+    <t>improvement on smart home system</t>
+  </si>
+  <si>
+    <t>create header and source code for smart heater, application and controlhub</t>
   </si>
 </sst>
 </file>
@@ -770,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -911,6 +920,105 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -919,42 +1027,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -978,60 +1050,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1800,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E300" sqref="E300"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E313" sqref="E313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1816,20 +1834,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1917,75 +1935,75 @@
       <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="88" t="s">
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="89"/>
+      <c r="E15" s="91"/>
       <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="68" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="92"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="93" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="94"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="68" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="92"/>
+      <c r="E18" s="85"/>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="93" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="94"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="68" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="92"/>
+      <c r="E20" s="85"/>
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2299,75 +2317,75 @@
       <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="98" t="s">
+      <c r="A59" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99" t="s">
+      <c r="B59" s="79"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="105"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="102" t="s">
+      <c r="A60" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="100" t="s">
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="101"/>
+      <c r="E60" s="77"/>
       <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="102" t="s">
+      <c r="A61" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="100"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="100" t="s">
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="101"/>
+      <c r="E61" s="77"/>
       <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="102" t="s">
+      <c r="A62" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="100" t="s">
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="101"/>
+      <c r="E62" s="77"/>
       <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="102" t="s">
+      <c r="A63" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="100"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100" t="s">
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="101"/>
+      <c r="E63" s="77"/>
       <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="100"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="100" t="s">
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="101"/>
+      <c r="E64" s="77"/>
       <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2577,75 +2595,75 @@
       <c r="F89" s="40"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="98" t="s">
+      <c r="A90" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="99"/>
-      <c r="C90" s="99"/>
-      <c r="D90" s="99" t="s">
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="105"/>
+      <c r="E90" s="80"/>
       <c r="F90" s="40"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="102" t="s">
+      <c r="A91" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="100"/>
-      <c r="C91" s="100"/>
-      <c r="D91" s="100" t="s">
+      <c r="B91" s="76"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="101"/>
+      <c r="E91" s="77"/>
       <c r="F91" s="40"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="102" t="s">
+      <c r="A92" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="100"/>
-      <c r="C92" s="100"/>
-      <c r="D92" s="100" t="s">
+      <c r="B92" s="76"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="101"/>
+      <c r="E92" s="77"/>
       <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="102" t="s">
+      <c r="A93" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="100"/>
-      <c r="C93" s="100"/>
-      <c r="D93" s="100" t="s">
+      <c r="B93" s="76"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="101"/>
+      <c r="E93" s="77"/>
       <c r="F93" s="40"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="102" t="s">
+      <c r="A94" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="100"/>
-      <c r="C94" s="100"/>
-      <c r="D94" s="100" t="s">
+      <c r="B94" s="76"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="101"/>
+      <c r="E94" s="77"/>
       <c r="F94" s="40"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="102" t="s">
+      <c r="A95" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="100"/>
-      <c r="C95" s="100"/>
-      <c r="D95" s="100" t="s">
+      <c r="B95" s="76"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="101"/>
+      <c r="E95" s="77"/>
       <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3021,11 +3039,11 @@
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="74">
+      <c r="C172" s="71">
         <v>44163</v>
       </c>
-      <c r="D172" s="75"/>
-      <c r="E172" s="76"/>
+      <c r="D172" s="72"/>
+      <c r="E172" s="73"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -3034,54 +3052,54 @@
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="77" t="s">
+      <c r="C173" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="78"/>
-      <c r="E173" s="79"/>
+      <c r="D173" s="69"/>
+      <c r="E173" s="70"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="65" t="s">
+      <c r="B174" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="66"/>
-      <c r="D174" s="66"/>
-      <c r="E174" s="67"/>
+      <c r="C174" s="99"/>
+      <c r="D174" s="99"/>
+      <c r="E174" s="100"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="65" t="s">
+      <c r="B175" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="66"/>
-      <c r="D175" s="66"/>
-      <c r="E175" s="67"/>
+      <c r="C175" s="99"/>
+      <c r="D175" s="99"/>
+      <c r="E175" s="100"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="65" t="s">
+      <c r="B176" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="66"/>
-      <c r="D176" s="66"/>
-      <c r="E176" s="67"/>
+      <c r="C176" s="99"/>
+      <c r="D176" s="99"/>
+      <c r="E176" s="100"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="65" t="s">
+      <c r="B177" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="66"/>
-      <c r="D177" s="66"/>
-      <c r="E177" s="67"/>
+      <c r="C177" s="99"/>
+      <c r="D177" s="99"/>
+      <c r="E177" s="100"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="68" t="s">
+      <c r="B178" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="69"/>
-      <c r="D178" s="69"/>
-      <c r="E178" s="70"/>
+      <c r="C178" s="87"/>
+      <c r="D178" s="87"/>
+      <c r="E178" s="97"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -3140,13 +3158,13 @@
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="83" t="s">
+      <c r="C183" s="104" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="86" t="s">
+      <c r="E183" s="107" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3157,11 +3175,11 @@
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="84"/>
+      <c r="C184" s="105"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="87"/>
+      <c r="E184" s="108"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
@@ -3170,7 +3188,7 @@
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="84"/>
+      <c r="C185" s="105"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -3181,7 +3199,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="85"/>
+      <c r="C186" s="106"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,11 +3226,11 @@
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="74">
+      <c r="C190" s="71">
         <v>44164</v>
       </c>
-      <c r="D190" s="75"/>
-      <c r="E190" s="76"/>
+      <c r="D190" s="72"/>
+      <c r="E190" s="73"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -3221,54 +3239,54 @@
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="77" t="s">
+      <c r="C191" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="78"/>
-      <c r="E191" s="79"/>
+      <c r="D191" s="69"/>
+      <c r="E191" s="70"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="65" t="s">
+      <c r="B192" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="66"/>
-      <c r="D192" s="66"/>
-      <c r="E192" s="67"/>
+      <c r="C192" s="99"/>
+      <c r="D192" s="99"/>
+      <c r="E192" s="100"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="65" t="s">
+      <c r="B193" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="66"/>
-      <c r="D193" s="66"/>
-      <c r="E193" s="67"/>
+      <c r="C193" s="99"/>
+      <c r="D193" s="99"/>
+      <c r="E193" s="100"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="65" t="s">
+      <c r="B194" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="66"/>
-      <c r="D194" s="66"/>
-      <c r="E194" s="67"/>
+      <c r="C194" s="99"/>
+      <c r="D194" s="99"/>
+      <c r="E194" s="100"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="65" t="s">
+      <c r="B195" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="66"/>
-      <c r="D195" s="66"/>
-      <c r="E195" s="67"/>
+      <c r="C195" s="99"/>
+      <c r="D195" s="99"/>
+      <c r="E195" s="100"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="68" t="s">
+      <c r="B196" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="69"/>
-      <c r="D196" s="69"/>
-      <c r="E196" s="70"/>
+      <c r="C196" s="87"/>
+      <c r="D196" s="87"/>
+      <c r="E196" s="97"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
@@ -3327,7 +3345,7 @@
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="71" t="s">
+      <c r="C201" s="94" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -3344,7 +3362,7 @@
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="72"/>
+      <c r="C202" s="95"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -3359,7 +3377,7 @@
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="73"/>
+      <c r="C203" s="96"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -3372,11 +3390,11 @@
         <v>54</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="74">
+      <c r="C206" s="71">
         <v>44165</v>
       </c>
-      <c r="D206" s="75"/>
-      <c r="E206" s="76"/>
+      <c r="D206" s="72"/>
+      <c r="E206" s="73"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
@@ -3391,40 +3409,40 @@
       <c r="A208" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="68" t="s">
+      <c r="B208" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="69"/>
-      <c r="D208" s="69"/>
-      <c r="E208" s="70"/>
+      <c r="C208" s="87"/>
+      <c r="D208" s="87"/>
+      <c r="E208" s="97"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B209" s="68" t="s">
+      <c r="B209" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="69"/>
-      <c r="D209" s="69"/>
-      <c r="E209" s="70"/>
+      <c r="C209" s="87"/>
+      <c r="D209" s="87"/>
+      <c r="E209" s="97"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B210" s="68" t="s">
+      <c r="B210" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C210" s="69"/>
-      <c r="D210" s="69"/>
-      <c r="E210" s="70"/>
+      <c r="C210" s="87"/>
+      <c r="D210" s="87"/>
+      <c r="E210" s="97"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="68"/>
-      <c r="C211" s="69"/>
-      <c r="D211" s="69"/>
-      <c r="E211" s="70"/>
+      <c r="B211" s="84"/>
+      <c r="C211" s="87"/>
+      <c r="D211" s="87"/>
+      <c r="E211" s="97"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="68"/>
-      <c r="C212" s="69"/>
-      <c r="D212" s="69"/>
-      <c r="E212" s="70"/>
+      <c r="B212" s="84"/>
+      <c r="C212" s="87"/>
+      <c r="D212" s="87"/>
+      <c r="E212" s="97"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -3477,10 +3495,10 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="71" t="s">
+      <c r="C217" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="D217" s="71" t="s">
+      <c r="D217" s="94" t="s">
         <v>90</v>
       </c>
       <c r="E217" s="32"/>
@@ -3488,15 +3506,15 @@
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="72"/>
-      <c r="D218" s="72"/>
+      <c r="C218" s="95"/>
+      <c r="D218" s="95"/>
       <c r="E218" s="33"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="73"/>
-      <c r="D219" s="73"/>
+      <c r="C219" s="96"/>
+      <c r="D219" s="96"/>
       <c r="E219" s="34"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -3504,11 +3522,11 @@
         <v>54</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="74">
+      <c r="C224" s="71">
         <v>44171</v>
       </c>
-      <c r="D224" s="75"/>
-      <c r="E224" s="76"/>
+      <c r="D224" s="72"/>
+      <c r="E224" s="73"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
@@ -3517,54 +3535,54 @@
       <c r="B225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="77" t="s">
+      <c r="C225" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D225" s="78"/>
-      <c r="E225" s="79"/>
+      <c r="D225" s="69"/>
+      <c r="E225" s="70"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B226" s="65" t="s">
+      <c r="B226" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="66"/>
-      <c r="D226" s="66"/>
-      <c r="E226" s="67"/>
+      <c r="C226" s="99"/>
+      <c r="D226" s="99"/>
+      <c r="E226" s="100"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B227" s="65" t="s">
+      <c r="B227" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="66"/>
-      <c r="D227" s="66"/>
-      <c r="E227" s="67"/>
+      <c r="C227" s="99"/>
+      <c r="D227" s="99"/>
+      <c r="E227" s="100"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B228" s="65" t="s">
+      <c r="B228" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="66"/>
-      <c r="D228" s="66"/>
-      <c r="E228" s="67"/>
+      <c r="C228" s="99"/>
+      <c r="D228" s="99"/>
+      <c r="E228" s="100"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B229" s="65" t="s">
+      <c r="B229" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C229" s="66"/>
-      <c r="D229" s="66"/>
-      <c r="E229" s="67"/>
+      <c r="C229" s="99"/>
+      <c r="D229" s="99"/>
+      <c r="E229" s="100"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B230" s="68" t="s">
+      <c r="B230" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="69"/>
-      <c r="D230" s="69"/>
-      <c r="E230" s="70"/>
+      <c r="C230" s="87"/>
+      <c r="D230" s="87"/>
+      <c r="E230" s="97"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
@@ -3619,7 +3637,7 @@
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="71" t="s">
+      <c r="C235" s="94" t="s">
         <v>85</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -3632,7 +3650,7 @@
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="72"/>
+      <c r="C236" s="95"/>
       <c r="D236" s="16" t="s">
         <v>92</v>
       </c>
@@ -3643,7 +3661,7 @@
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="73"/>
+      <c r="C237" s="96"/>
       <c r="D237" s="1" t="s">
         <v>92</v>
       </c>
@@ -3672,61 +3690,61 @@
         <v>54</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="74">
+      <c r="C240" s="71">
         <v>44172</v>
       </c>
-      <c r="D240" s="75"/>
-      <c r="E240" s="76"/>
+      <c r="D240" s="72"/>
+      <c r="E240" s="73"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="77"/>
-      <c r="D241" s="78"/>
-      <c r="E241" s="79"/>
+      <c r="C241" s="68"/>
+      <c r="D241" s="69"/>
+      <c r="E241" s="70"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="68" t="s">
+      <c r="B242" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="69"/>
-      <c r="D242" s="69"/>
-      <c r="E242" s="70"/>
+      <c r="C242" s="87"/>
+      <c r="D242" s="87"/>
+      <c r="E242" s="97"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B243" s="68" t="s">
+      <c r="B243" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="C243" s="69"/>
-      <c r="D243" s="69"/>
-      <c r="E243" s="70"/>
+      <c r="C243" s="87"/>
+      <c r="D243" s="87"/>
+      <c r="E243" s="97"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B244" s="68" t="s">
+      <c r="B244" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C244" s="69"/>
-      <c r="D244" s="69"/>
-      <c r="E244" s="70"/>
+      <c r="C244" s="87"/>
+      <c r="D244" s="87"/>
+      <c r="E244" s="97"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B245" s="68" t="s">
+      <c r="B245" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="C245" s="69"/>
-      <c r="D245" s="69"/>
-      <c r="E245" s="70"/>
+      <c r="C245" s="87"/>
+      <c r="D245" s="87"/>
+      <c r="E245" s="97"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B246" s="68"/>
-      <c r="C246" s="69"/>
-      <c r="D246" s="69"/>
-      <c r="E246" s="70"/>
+      <c r="B246" s="84"/>
+      <c r="C246" s="87"/>
+      <c r="D246" s="87"/>
+      <c r="E246" s="97"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
@@ -3779,38 +3797,38 @@
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="71" t="s">
+      <c r="C251" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="D251" s="71" t="s">
+      <c r="D251" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="E251" s="80"/>
+      <c r="E251" s="101"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="10"/>
-      <c r="C252" s="72"/>
-      <c r="D252" s="72"/>
-      <c r="E252" s="81"/>
+      <c r="C252" s="95"/>
+      <c r="D252" s="95"/>
+      <c r="E252" s="102"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="73"/>
-      <c r="D253" s="73"/>
-      <c r="E253" s="82"/>
+      <c r="C253" s="96"/>
+      <c r="D253" s="96"/>
+      <c r="E253" s="103"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="74">
+      <c r="C256" s="71">
         <v>44178</v>
       </c>
-      <c r="D256" s="75"/>
-      <c r="E256" s="76"/>
+      <c r="D256" s="72"/>
+      <c r="E256" s="73"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
@@ -3819,11 +3837,11 @@
       <c r="B257" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C257" s="77" t="s">
+      <c r="C257" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D257" s="78"/>
-      <c r="E257" s="79"/>
+      <c r="D257" s="69"/>
+      <c r="E257" s="70"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
@@ -3970,59 +3988,59 @@
         <v>54</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="74">
+      <c r="C273" s="71">
         <v>44179</v>
       </c>
-      <c r="D273" s="75"/>
-      <c r="E273" s="76"/>
+      <c r="D273" s="72"/>
+      <c r="E273" s="73"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B274" s="3"/>
-      <c r="C274" s="77"/>
-      <c r="D274" s="78"/>
-      <c r="E274" s="79"/>
+      <c r="C274" s="68"/>
+      <c r="D274" s="69"/>
+      <c r="E274" s="70"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B275" s="68" t="s">
+      <c r="B275" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C275" s="69"/>
-      <c r="D275" s="69"/>
-      <c r="E275" s="70"/>
+      <c r="C275" s="87"/>
+      <c r="D275" s="87"/>
+      <c r="E275" s="97"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B276" s="68" t="s">
+      <c r="B276" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="C276" s="69"/>
-      <c r="D276" s="69"/>
-      <c r="E276" s="70"/>
+      <c r="C276" s="87"/>
+      <c r="D276" s="87"/>
+      <c r="E276" s="97"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B277" s="68" t="s">
+      <c r="B277" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C277" s="69"/>
-      <c r="D277" s="69"/>
-      <c r="E277" s="70"/>
+      <c r="C277" s="87"/>
+      <c r="D277" s="87"/>
+      <c r="E277" s="97"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B278" s="68"/>
-      <c r="C278" s="69"/>
-      <c r="D278" s="69"/>
-      <c r="E278" s="70"/>
+      <c r="B278" s="84"/>
+      <c r="C278" s="87"/>
+      <c r="D278" s="87"/>
+      <c r="E278" s="97"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B279" s="68"/>
-      <c r="C279" s="69"/>
-      <c r="D279" s="69"/>
-      <c r="E279" s="70"/>
+      <c r="B279" s="84"/>
+      <c r="C279" s="87"/>
+      <c r="D279" s="87"/>
+      <c r="E279" s="97"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -4075,34 +4093,34 @@
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="8"/>
-      <c r="C284" s="71"/>
-      <c r="D284" s="71"/>
-      <c r="E284" s="80"/>
+      <c r="C284" s="94"/>
+      <c r="D284" s="94"/>
+      <c r="E284" s="101"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="10"/>
-      <c r="C285" s="72"/>
-      <c r="D285" s="72"/>
-      <c r="E285" s="81"/>
+      <c r="C285" s="95"/>
+      <c r="D285" s="95"/>
+      <c r="E285" s="102"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="18"/>
-      <c r="C286" s="73"/>
-      <c r="D286" s="73"/>
-      <c r="E286" s="82"/>
+      <c r="C286" s="96"/>
+      <c r="D286" s="96"/>
+      <c r="E286" s="103"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="74">
+      <c r="C288" s="71">
         <v>44185</v>
       </c>
-      <c r="D288" s="75"/>
-      <c r="E288" s="76"/>
+      <c r="D288" s="72"/>
+      <c r="E288" s="73"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
@@ -4111,54 +4129,54 @@
       <c r="B289" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C289" s="77" t="s">
+      <c r="C289" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="D289" s="78"/>
-      <c r="E289" s="79"/>
+      <c r="D289" s="69"/>
+      <c r="E289" s="70"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B290" s="65" t="s">
+      <c r="B290" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C290" s="66"/>
-      <c r="D290" s="66"/>
-      <c r="E290" s="67"/>
+      <c r="C290" s="99"/>
+      <c r="D290" s="99"/>
+      <c r="E290" s="100"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B291" s="65" t="s">
+      <c r="B291" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C291" s="66"/>
-      <c r="D291" s="66"/>
-      <c r="E291" s="67"/>
+      <c r="C291" s="99"/>
+      <c r="D291" s="99"/>
+      <c r="E291" s="100"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B292" s="65" t="s">
+      <c r="B292" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C292" s="66"/>
-      <c r="D292" s="66"/>
-      <c r="E292" s="67"/>
+      <c r="C292" s="99"/>
+      <c r="D292" s="99"/>
+      <c r="E292" s="100"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B293" s="65" t="s">
+      <c r="B293" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C293" s="66"/>
-      <c r="D293" s="66"/>
-      <c r="E293" s="67"/>
+      <c r="C293" s="99"/>
+      <c r="D293" s="99"/>
+      <c r="E293" s="100"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B294" s="68" t="s">
+      <c r="B294" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C294" s="69"/>
-      <c r="D294" s="69"/>
-      <c r="E294" s="70"/>
+      <c r="C294" s="87"/>
+      <c r="D294" s="87"/>
+      <c r="E294" s="97"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
@@ -4213,7 +4231,7 @@
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="8"/>
-      <c r="C299" s="71" t="s">
+      <c r="C299" s="94" t="s">
         <v>108</v>
       </c>
       <c r="D299" s="9" t="s">
@@ -4226,7 +4244,7 @@
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="10"/>
-      <c r="C300" s="72"/>
+      <c r="C300" s="95"/>
       <c r="D300" s="16" t="s">
         <v>110</v>
       </c>
@@ -4237,7 +4255,7 @@
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="18"/>
-      <c r="C301" s="73"/>
+      <c r="C301" s="96"/>
       <c r="D301" s="1"/>
       <c r="E301" s="19"/>
     </row>
@@ -4249,8 +4267,244 @@
       <c r="D303" s="60"/>
       <c r="E303" s="61"/>
     </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B306" s="2"/>
+      <c r="C306" s="71">
+        <v>44199</v>
+      </c>
+      <c r="D306" s="72"/>
+      <c r="E306" s="73"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D307" s="69"/>
+      <c r="E307" s="70"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B308" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C308" s="99"/>
+      <c r="D308" s="99"/>
+      <c r="E308" s="100"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B309" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C309" s="99"/>
+      <c r="D309" s="99"/>
+      <c r="E309" s="100"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B310" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="C310" s="99"/>
+      <c r="D310" s="99"/>
+      <c r="E310" s="100"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B311" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C311" s="99"/>
+      <c r="D311" s="99"/>
+      <c r="E311" s="100"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B312" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C312" s="87"/>
+      <c r="D312" s="87"/>
+      <c r="E312" s="97"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C315" s="4"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B316" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C316" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D316" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E316" s="67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="1"/>
+      <c r="B317" s="8"/>
+      <c r="C317" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="1"/>
+      <c r="B318" s="10"/>
+      <c r="C318" s="95"/>
+      <c r="D318" s="16"/>
+      <c r="E318" s="1"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="17"/>
+      <c r="B319" s="18"/>
+      <c r="C319" s="96"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="108">
+    <mergeCell ref="B311:E311"/>
+    <mergeCell ref="B312:E312"/>
+    <mergeCell ref="C317:C319"/>
+    <mergeCell ref="C306:E306"/>
+    <mergeCell ref="C307:E307"/>
+    <mergeCell ref="B308:E308"/>
+    <mergeCell ref="B309:E309"/>
+    <mergeCell ref="B310:E310"/>
+    <mergeCell ref="B293:E293"/>
+    <mergeCell ref="B294:E294"/>
+    <mergeCell ref="C299:C301"/>
+    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="D284:D286"/>
+    <mergeCell ref="E284:E286"/>
+    <mergeCell ref="C273:E273"/>
+    <mergeCell ref="C274:E274"/>
+    <mergeCell ref="B275:E275"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="D251:D253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="C240:E240"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="B246:E246"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A60:C60"/>
     <mergeCell ref="C257:E257"/>
     <mergeCell ref="C256:E256"/>
     <mergeCell ref="A1:E2"/>
@@ -4267,90 +4521,6 @@
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="C241:E241"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="D251:D253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="E251:E253"/>
-    <mergeCell ref="C240:E240"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="C224:E224"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="B226:E226"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="C273:E273"/>
-    <mergeCell ref="C274:E274"/>
-    <mergeCell ref="B275:E275"/>
-    <mergeCell ref="B276:E276"/>
-    <mergeCell ref="B277:E277"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B279:E279"/>
-    <mergeCell ref="C284:C286"/>
-    <mergeCell ref="D284:D286"/>
-    <mergeCell ref="E284:E286"/>
-    <mergeCell ref="B293:E293"/>
-    <mergeCell ref="B294:E294"/>
-    <mergeCell ref="C299:C301"/>
-    <mergeCell ref="C288:E288"/>
-    <mergeCell ref="C289:E289"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="B292:E292"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BA3440-418A-406A-948E-08A33988A3E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE27A66-0007-4AC1-8809-763F52CCA66E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="4344" yWindow="372" windowWidth="17280" windowHeight="9420" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
     <t>improvement on smart home system</t>
   </si>
   <si>
-    <t>create header and source code for smart heater, application and controlhub</t>
+    <t>create header and source code for smart heater, application and controlhub. create test code for smart heater</t>
   </si>
 </sst>
 </file>
@@ -929,6 +929,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -937,14 +973,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -952,104 +1048,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1820,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:F319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E313" sqref="E313"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E316" sqref="E316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1834,20 +1834,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1935,75 +1935,75 @@
       <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="90" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="91"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="84" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="85"/>
+      <c r="E16" s="95"/>
       <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="82" t="s">
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="84" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="85"/>
+      <c r="E18" s="95"/>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="82" t="s">
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="84" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="85"/>
+      <c r="E20" s="95"/>
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2317,75 +2317,75 @@
       <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="81" t="s">
+      <c r="A59" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79" t="s">
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="80"/>
+      <c r="E59" s="108"/>
       <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="78" t="s">
+      <c r="A60" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="76"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76" t="s">
+      <c r="B60" s="103"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="77"/>
+      <c r="E60" s="104"/>
       <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="78" t="s">
+      <c r="A61" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76" t="s">
+      <c r="B61" s="103"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="77"/>
+      <c r="E61" s="104"/>
       <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="78" t="s">
+      <c r="A62" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="76"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76" t="s">
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="77"/>
+      <c r="E62" s="104"/>
       <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="78" t="s">
+      <c r="A63" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="76"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76" t="s">
+      <c r="B63" s="103"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="77"/>
+      <c r="E63" s="104"/>
       <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="78" t="s">
+      <c r="A64" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76" t="s">
+      <c r="B64" s="103"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="77"/>
+      <c r="E64" s="104"/>
       <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2595,75 +2595,75 @@
       <c r="F89" s="40"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="81" t="s">
+      <c r="A90" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="79"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="79" t="s">
+      <c r="B90" s="102"/>
+      <c r="C90" s="102"/>
+      <c r="D90" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="80"/>
+      <c r="E90" s="108"/>
       <c r="F90" s="40"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="78" t="s">
+      <c r="A91" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="76"/>
-      <c r="C91" s="76"/>
-      <c r="D91" s="76" t="s">
+      <c r="B91" s="103"/>
+      <c r="C91" s="103"/>
+      <c r="D91" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="77"/>
+      <c r="E91" s="104"/>
       <c r="F91" s="40"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="78" t="s">
+      <c r="A92" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="76"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="76" t="s">
+      <c r="B92" s="103"/>
+      <c r="C92" s="103"/>
+      <c r="D92" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="77"/>
+      <c r="E92" s="104"/>
       <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="78" t="s">
+      <c r="A93" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="76"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="76" t="s">
+      <c r="B93" s="103"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="77"/>
+      <c r="E93" s="104"/>
       <c r="F93" s="40"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="78" t="s">
+      <c r="A94" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="76"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="76" t="s">
+      <c r="B94" s="103"/>
+      <c r="C94" s="103"/>
+      <c r="D94" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="77"/>
+      <c r="E94" s="104"/>
       <c r="F94" s="40"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="78" t="s">
+      <c r="A95" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="76"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="76" t="s">
+      <c r="B95" s="103"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="77"/>
+      <c r="E95" s="104"/>
       <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3039,11 +3039,11 @@
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="71">
+      <c r="C172" s="77">
         <v>44163</v>
       </c>
-      <c r="D172" s="72"/>
-      <c r="E172" s="73"/>
+      <c r="D172" s="78"/>
+      <c r="E172" s="79"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -3052,54 +3052,54 @@
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="68" t="s">
+      <c r="C173" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="69"/>
-      <c r="E173" s="70"/>
+      <c r="D173" s="81"/>
+      <c r="E173" s="82"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="98" t="s">
+      <c r="B174" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="99"/>
-      <c r="D174" s="99"/>
-      <c r="E174" s="100"/>
+      <c r="C174" s="69"/>
+      <c r="D174" s="69"/>
+      <c r="E174" s="70"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="98" t="s">
+      <c r="B175" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="99"/>
-      <c r="D175" s="99"/>
-      <c r="E175" s="100"/>
+      <c r="C175" s="69"/>
+      <c r="D175" s="69"/>
+      <c r="E175" s="70"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="98" t="s">
+      <c r="B176" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="99"/>
-      <c r="D176" s="99"/>
-      <c r="E176" s="100"/>
+      <c r="C176" s="69"/>
+      <c r="D176" s="69"/>
+      <c r="E176" s="70"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="98" t="s">
+      <c r="B177" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="99"/>
-      <c r="D177" s="99"/>
-      <c r="E177" s="100"/>
+      <c r="C177" s="69"/>
+      <c r="D177" s="69"/>
+      <c r="E177" s="70"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="84" t="s">
+      <c r="B178" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="87"/>
-      <c r="D178" s="87"/>
-      <c r="E178" s="97"/>
+      <c r="C178" s="72"/>
+      <c r="D178" s="72"/>
+      <c r="E178" s="73"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -3158,13 +3158,13 @@
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="104" t="s">
+      <c r="C183" s="86" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="107" t="s">
+      <c r="E183" s="89" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3175,11 +3175,11 @@
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="105"/>
+      <c r="C184" s="87"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="108"/>
+      <c r="E184" s="90"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
@@ -3188,7 +3188,7 @@
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="105"/>
+      <c r="C185" s="87"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -3199,7 +3199,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="106"/>
+      <c r="C186" s="88"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -3226,11 +3226,11 @@
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="71">
+      <c r="C190" s="77">
         <v>44164</v>
       </c>
-      <c r="D190" s="72"/>
-      <c r="E190" s="73"/>
+      <c r="D190" s="78"/>
+      <c r="E190" s="79"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -3239,54 +3239,54 @@
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="68" t="s">
+      <c r="C191" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="69"/>
-      <c r="E191" s="70"/>
+      <c r="D191" s="81"/>
+      <c r="E191" s="82"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="98" t="s">
+      <c r="B192" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="99"/>
-      <c r="D192" s="99"/>
-      <c r="E192" s="100"/>
+      <c r="C192" s="69"/>
+      <c r="D192" s="69"/>
+      <c r="E192" s="70"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="98" t="s">
+      <c r="B193" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="99"/>
-      <c r="D193" s="99"/>
-      <c r="E193" s="100"/>
+      <c r="C193" s="69"/>
+      <c r="D193" s="69"/>
+      <c r="E193" s="70"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="98" t="s">
+      <c r="B194" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="99"/>
-      <c r="D194" s="99"/>
-      <c r="E194" s="100"/>
+      <c r="C194" s="69"/>
+      <c r="D194" s="69"/>
+      <c r="E194" s="70"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="98" t="s">
+      <c r="B195" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="99"/>
-      <c r="D195" s="99"/>
-      <c r="E195" s="100"/>
+      <c r="C195" s="69"/>
+      <c r="D195" s="69"/>
+      <c r="E195" s="70"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="84" t="s">
+      <c r="B196" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="87"/>
-      <c r="D196" s="87"/>
-      <c r="E196" s="97"/>
+      <c r="C196" s="72"/>
+      <c r="D196" s="72"/>
+      <c r="E196" s="73"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
@@ -3345,7 +3345,7 @@
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="94" t="s">
+      <c r="C201" s="74" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -3362,7 +3362,7 @@
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="95"/>
+      <c r="C202" s="75"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -3377,7 +3377,7 @@
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="96"/>
+      <c r="C203" s="76"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -3390,11 +3390,11 @@
         <v>54</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="71">
+      <c r="C206" s="77">
         <v>44165</v>
       </c>
-      <c r="D206" s="72"/>
-      <c r="E206" s="73"/>
+      <c r="D206" s="78"/>
+      <c r="E206" s="79"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
@@ -3409,40 +3409,40 @@
       <c r="A208" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="84" t="s">
+      <c r="B208" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="87"/>
-      <c r="D208" s="87"/>
-      <c r="E208" s="97"/>
+      <c r="C208" s="72"/>
+      <c r="D208" s="72"/>
+      <c r="E208" s="73"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B209" s="84" t="s">
+      <c r="B209" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="87"/>
-      <c r="D209" s="87"/>
-      <c r="E209" s="97"/>
+      <c r="C209" s="72"/>
+      <c r="D209" s="72"/>
+      <c r="E209" s="73"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B210" s="84" t="s">
+      <c r="B210" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C210" s="87"/>
-      <c r="D210" s="87"/>
-      <c r="E210" s="97"/>
+      <c r="C210" s="72"/>
+      <c r="D210" s="72"/>
+      <c r="E210" s="73"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="84"/>
-      <c r="C211" s="87"/>
-      <c r="D211" s="87"/>
-      <c r="E211" s="97"/>
+      <c r="B211" s="71"/>
+      <c r="C211" s="72"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="73"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="84"/>
-      <c r="C212" s="87"/>
-      <c r="D212" s="87"/>
-      <c r="E212" s="97"/>
+      <c r="B212" s="71"/>
+      <c r="C212" s="72"/>
+      <c r="D212" s="72"/>
+      <c r="E212" s="73"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -3495,10 +3495,10 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="94" t="s">
+      <c r="C217" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="D217" s="94" t="s">
+      <c r="D217" s="74" t="s">
         <v>90</v>
       </c>
       <c r="E217" s="32"/>
@@ -3506,15 +3506,15 @@
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="95"/>
-      <c r="D218" s="95"/>
+      <c r="C218" s="75"/>
+      <c r="D218" s="75"/>
       <c r="E218" s="33"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="96"/>
-      <c r="D219" s="96"/>
+      <c r="C219" s="76"/>
+      <c r="D219" s="76"/>
       <c r="E219" s="34"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -3522,11 +3522,11 @@
         <v>54</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="71">
+      <c r="C224" s="77">
         <v>44171</v>
       </c>
-      <c r="D224" s="72"/>
-      <c r="E224" s="73"/>
+      <c r="D224" s="78"/>
+      <c r="E224" s="79"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
@@ -3535,54 +3535,54 @@
       <c r="B225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="68" t="s">
+      <c r="C225" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="D225" s="69"/>
-      <c r="E225" s="70"/>
+      <c r="D225" s="81"/>
+      <c r="E225" s="82"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B226" s="98" t="s">
+      <c r="B226" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="99"/>
-      <c r="D226" s="99"/>
-      <c r="E226" s="100"/>
+      <c r="C226" s="69"/>
+      <c r="D226" s="69"/>
+      <c r="E226" s="70"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B227" s="98" t="s">
+      <c r="B227" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="99"/>
-      <c r="D227" s="99"/>
-      <c r="E227" s="100"/>
+      <c r="C227" s="69"/>
+      <c r="D227" s="69"/>
+      <c r="E227" s="70"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B228" s="98" t="s">
+      <c r="B228" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="99"/>
-      <c r="D228" s="99"/>
-      <c r="E228" s="100"/>
+      <c r="C228" s="69"/>
+      <c r="D228" s="69"/>
+      <c r="E228" s="70"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B229" s="98" t="s">
+      <c r="B229" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C229" s="99"/>
-      <c r="D229" s="99"/>
-      <c r="E229" s="100"/>
+      <c r="C229" s="69"/>
+      <c r="D229" s="69"/>
+      <c r="E229" s="70"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B230" s="84" t="s">
+      <c r="B230" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="87"/>
-      <c r="D230" s="87"/>
-      <c r="E230" s="97"/>
+      <c r="C230" s="72"/>
+      <c r="D230" s="72"/>
+      <c r="E230" s="73"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
@@ -3637,7 +3637,7 @@
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="94" t="s">
+      <c r="C235" s="74" t="s">
         <v>85</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -3650,7 +3650,7 @@
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="95"/>
+      <c r="C236" s="75"/>
       <c r="D236" s="16" t="s">
         <v>92</v>
       </c>
@@ -3661,7 +3661,7 @@
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="96"/>
+      <c r="C237" s="76"/>
       <c r="D237" s="1" t="s">
         <v>92</v>
       </c>
@@ -3690,61 +3690,61 @@
         <v>54</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="71">
+      <c r="C240" s="77">
         <v>44172</v>
       </c>
-      <c r="D240" s="72"/>
-      <c r="E240" s="73"/>
+      <c r="D240" s="78"/>
+      <c r="E240" s="79"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="68"/>
-      <c r="D241" s="69"/>
-      <c r="E241" s="70"/>
+      <c r="C241" s="80"/>
+      <c r="D241" s="81"/>
+      <c r="E241" s="82"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="84" t="s">
+      <c r="B242" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="87"/>
-      <c r="D242" s="87"/>
-      <c r="E242" s="97"/>
+      <c r="C242" s="72"/>
+      <c r="D242" s="72"/>
+      <c r="E242" s="73"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B243" s="84" t="s">
+      <c r="B243" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C243" s="87"/>
-      <c r="D243" s="87"/>
-      <c r="E243" s="97"/>
+      <c r="C243" s="72"/>
+      <c r="D243" s="72"/>
+      <c r="E243" s="73"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B244" s="84" t="s">
+      <c r="B244" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C244" s="87"/>
-      <c r="D244" s="87"/>
-      <c r="E244" s="97"/>
+      <c r="C244" s="72"/>
+      <c r="D244" s="72"/>
+      <c r="E244" s="73"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B245" s="84" t="s">
+      <c r="B245" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="C245" s="87"/>
-      <c r="D245" s="87"/>
-      <c r="E245" s="97"/>
+      <c r="C245" s="72"/>
+      <c r="D245" s="72"/>
+      <c r="E245" s="73"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B246" s="84"/>
-      <c r="C246" s="87"/>
-      <c r="D246" s="87"/>
-      <c r="E246" s="97"/>
+      <c r="B246" s="71"/>
+      <c r="C246" s="72"/>
+      <c r="D246" s="72"/>
+      <c r="E246" s="73"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
@@ -3797,38 +3797,38 @@
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="94" t="s">
+      <c r="C251" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="D251" s="94" t="s">
+      <c r="D251" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="E251" s="101"/>
+      <c r="E251" s="83"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="10"/>
-      <c r="C252" s="95"/>
-      <c r="D252" s="95"/>
-      <c r="E252" s="102"/>
+      <c r="C252" s="75"/>
+      <c r="D252" s="75"/>
+      <c r="E252" s="84"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="96"/>
-      <c r="D253" s="96"/>
-      <c r="E253" s="103"/>
+      <c r="C253" s="76"/>
+      <c r="D253" s="76"/>
+      <c r="E253" s="85"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="71">
+      <c r="C256" s="77">
         <v>44178</v>
       </c>
-      <c r="D256" s="72"/>
-      <c r="E256" s="73"/>
+      <c r="D256" s="78"/>
+      <c r="E256" s="79"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
@@ -3837,11 +3837,11 @@
       <c r="B257" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C257" s="68" t="s">
+      <c r="C257" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="D257" s="69"/>
-      <c r="E257" s="70"/>
+      <c r="D257" s="81"/>
+      <c r="E257" s="82"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
@@ -3988,59 +3988,59 @@
         <v>54</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="71">
+      <c r="C273" s="77">
         <v>44179</v>
       </c>
-      <c r="D273" s="72"/>
-      <c r="E273" s="73"/>
+      <c r="D273" s="78"/>
+      <c r="E273" s="79"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B274" s="3"/>
-      <c r="C274" s="68"/>
-      <c r="D274" s="69"/>
-      <c r="E274" s="70"/>
+      <c r="C274" s="80"/>
+      <c r="D274" s="81"/>
+      <c r="E274" s="82"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B275" s="84" t="s">
+      <c r="B275" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C275" s="87"/>
-      <c r="D275" s="87"/>
-      <c r="E275" s="97"/>
+      <c r="C275" s="72"/>
+      <c r="D275" s="72"/>
+      <c r="E275" s="73"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B276" s="84" t="s">
+      <c r="B276" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C276" s="87"/>
-      <c r="D276" s="87"/>
-      <c r="E276" s="97"/>
+      <c r="C276" s="72"/>
+      <c r="D276" s="72"/>
+      <c r="E276" s="73"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B277" s="84" t="s">
+      <c r="B277" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C277" s="87"/>
-      <c r="D277" s="87"/>
-      <c r="E277" s="97"/>
+      <c r="C277" s="72"/>
+      <c r="D277" s="72"/>
+      <c r="E277" s="73"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B278" s="84"/>
-      <c r="C278" s="87"/>
-      <c r="D278" s="87"/>
-      <c r="E278" s="97"/>
+      <c r="B278" s="71"/>
+      <c r="C278" s="72"/>
+      <c r="D278" s="72"/>
+      <c r="E278" s="73"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B279" s="84"/>
-      <c r="C279" s="87"/>
-      <c r="D279" s="87"/>
-      <c r="E279" s="97"/>
+      <c r="B279" s="71"/>
+      <c r="C279" s="72"/>
+      <c r="D279" s="72"/>
+      <c r="E279" s="73"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -4093,34 +4093,34 @@
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="8"/>
-      <c r="C284" s="94"/>
-      <c r="D284" s="94"/>
-      <c r="E284" s="101"/>
+      <c r="C284" s="74"/>
+      <c r="D284" s="74"/>
+      <c r="E284" s="83"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="10"/>
-      <c r="C285" s="95"/>
-      <c r="D285" s="95"/>
-      <c r="E285" s="102"/>
+      <c r="C285" s="75"/>
+      <c r="D285" s="75"/>
+      <c r="E285" s="84"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="18"/>
-      <c r="C286" s="96"/>
-      <c r="D286" s="96"/>
-      <c r="E286" s="103"/>
+      <c r="C286" s="76"/>
+      <c r="D286" s="76"/>
+      <c r="E286" s="85"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="71">
+      <c r="C288" s="77">
         <v>44185</v>
       </c>
-      <c r="D288" s="72"/>
-      <c r="E288" s="73"/>
+      <c r="D288" s="78"/>
+      <c r="E288" s="79"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
@@ -4129,54 +4129,54 @@
       <c r="B289" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C289" s="68" t="s">
+      <c r="C289" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="D289" s="69"/>
-      <c r="E289" s="70"/>
+      <c r="D289" s="81"/>
+      <c r="E289" s="82"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B290" s="98" t="s">
+      <c r="B290" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C290" s="99"/>
-      <c r="D290" s="99"/>
-      <c r="E290" s="100"/>
+      <c r="C290" s="69"/>
+      <c r="D290" s="69"/>
+      <c r="E290" s="70"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B291" s="98" t="s">
+      <c r="B291" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C291" s="99"/>
-      <c r="D291" s="99"/>
-      <c r="E291" s="100"/>
+      <c r="C291" s="69"/>
+      <c r="D291" s="69"/>
+      <c r="E291" s="70"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B292" s="98" t="s">
+      <c r="B292" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C292" s="99"/>
-      <c r="D292" s="99"/>
-      <c r="E292" s="100"/>
+      <c r="C292" s="69"/>
+      <c r="D292" s="69"/>
+      <c r="E292" s="70"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B293" s="98" t="s">
+      <c r="B293" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C293" s="99"/>
-      <c r="D293" s="99"/>
-      <c r="E293" s="100"/>
+      <c r="C293" s="69"/>
+      <c r="D293" s="69"/>
+      <c r="E293" s="70"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B294" s="84" t="s">
+      <c r="B294" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C294" s="87"/>
-      <c r="D294" s="87"/>
-      <c r="E294" s="97"/>
+      <c r="C294" s="72"/>
+      <c r="D294" s="72"/>
+      <c r="E294" s="73"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
@@ -4231,7 +4231,7 @@
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="8"/>
-      <c r="C299" s="94" t="s">
+      <c r="C299" s="74" t="s">
         <v>108</v>
       </c>
       <c r="D299" s="9" t="s">
@@ -4244,7 +4244,7 @@
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="10"/>
-      <c r="C300" s="95"/>
+      <c r="C300" s="75"/>
       <c r="D300" s="16" t="s">
         <v>110</v>
       </c>
@@ -4255,7 +4255,7 @@
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="18"/>
-      <c r="C301" s="96"/>
+      <c r="C301" s="76"/>
       <c r="D301" s="1"/>
       <c r="E301" s="19"/>
     </row>
@@ -4272,11 +4272,11 @@
         <v>54</v>
       </c>
       <c r="B306" s="2"/>
-      <c r="C306" s="71">
+      <c r="C306" s="77">
         <v>44199</v>
       </c>
-      <c r="D306" s="72"/>
-      <c r="E306" s="73"/>
+      <c r="D306" s="78"/>
+      <c r="E306" s="79"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
@@ -4285,54 +4285,54 @@
       <c r="B307" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C307" s="68" t="s">
+      <c r="C307" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="D307" s="69"/>
-      <c r="E307" s="70"/>
+      <c r="D307" s="81"/>
+      <c r="E307" s="82"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B308" s="98" t="s">
+      <c r="B308" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C308" s="99"/>
-      <c r="D308" s="99"/>
-      <c r="E308" s="100"/>
+      <c r="C308" s="69"/>
+      <c r="D308" s="69"/>
+      <c r="E308" s="70"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B309" s="98" t="s">
+      <c r="B309" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C309" s="99"/>
-      <c r="D309" s="99"/>
-      <c r="E309" s="100"/>
+      <c r="C309" s="69"/>
+      <c r="D309" s="69"/>
+      <c r="E309" s="70"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B310" s="98" t="s">
+      <c r="B310" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C310" s="99"/>
-      <c r="D310" s="99"/>
-      <c r="E310" s="100"/>
+      <c r="C310" s="69"/>
+      <c r="D310" s="69"/>
+      <c r="E310" s="70"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B311" s="98" t="s">
+      <c r="B311" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C311" s="99"/>
-      <c r="D311" s="99"/>
-      <c r="E311" s="100"/>
+      <c r="C311" s="69"/>
+      <c r="D311" s="69"/>
+      <c r="E311" s="70"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B312" s="84" t="s">
+      <c r="B312" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C312" s="87"/>
-      <c r="D312" s="87"/>
-      <c r="E312" s="97"/>
+      <c r="C312" s="72"/>
+      <c r="D312" s="72"/>
+      <c r="E312" s="73"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
@@ -4387,7 +4387,7 @@
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="8"/>
-      <c r="C317" s="94" t="s">
+      <c r="C317" s="74" t="s">
         <v>113</v>
       </c>
       <c r="D317" s="9" t="s">
@@ -4400,40 +4400,82 @@
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="10"/>
-      <c r="C318" s="95"/>
+      <c r="C318" s="75"/>
       <c r="D318" s="16"/>
       <c r="E318" s="1"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="18"/>
-      <c r="C319" s="96"/>
+      <c r="C319" s="76"/>
       <c r="D319" s="1"/>
       <c r="E319" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="B311:E311"/>
-    <mergeCell ref="B312:E312"/>
-    <mergeCell ref="C317:C319"/>
-    <mergeCell ref="C306:E306"/>
-    <mergeCell ref="C307:E307"/>
-    <mergeCell ref="B308:E308"/>
-    <mergeCell ref="B309:E309"/>
-    <mergeCell ref="B310:E310"/>
-    <mergeCell ref="B293:E293"/>
-    <mergeCell ref="B294:E294"/>
-    <mergeCell ref="C299:C301"/>
-    <mergeCell ref="C288:E288"/>
-    <mergeCell ref="C289:E289"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B279:E279"/>
-    <mergeCell ref="C284:C286"/>
-    <mergeCell ref="D284:D286"/>
-    <mergeCell ref="E284:E286"/>
+    <mergeCell ref="C257:E257"/>
+    <mergeCell ref="C256:E256"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="B246:E246"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
     <mergeCell ref="C273:E273"/>
     <mergeCell ref="C274:E274"/>
     <mergeCell ref="B275:E275"/>
@@ -4458,69 +4500,27 @@
     <mergeCell ref="B193:E193"/>
     <mergeCell ref="B194:E194"/>
     <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="C224:E224"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="B226:E226"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="C241:E241"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="C257:E257"/>
-    <mergeCell ref="C256:E256"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="D284:D286"/>
+    <mergeCell ref="E284:E286"/>
+    <mergeCell ref="B311:E311"/>
+    <mergeCell ref="B312:E312"/>
+    <mergeCell ref="C317:C319"/>
+    <mergeCell ref="C306:E306"/>
+    <mergeCell ref="C307:E307"/>
+    <mergeCell ref="B308:E308"/>
+    <mergeCell ref="B309:E309"/>
+    <mergeCell ref="B310:E310"/>
+    <mergeCell ref="B293:E293"/>
+    <mergeCell ref="B294:E294"/>
+    <mergeCell ref="C299:C301"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE27A66-0007-4AC1-8809-763F52CCA66E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EF1808-2293-457E-AFD1-F5F90FA4B631}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4344" yWindow="372" windowWidth="17280" windowHeight="9420" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="118">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -381,6 +381,15 @@
   </si>
   <si>
     <t>create header and source code for smart heater, application and controlhub. create test code for smart heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 min </t>
+  </si>
+  <si>
+    <t>update header and source code for smart heater, application and controlhub. update test code for smart heater</t>
+  </si>
+  <si>
+    <t>disscuss about which protocol and micro controller should be used</t>
   </si>
 </sst>
 </file>
@@ -779,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -929,6 +938,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -937,15 +1036,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,23 +1045,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -980,75 +1067,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1818,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
-  <dimension ref="A1:F319"/>
+  <dimension ref="A1:F335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E316" sqref="E316"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C333" sqref="C333:C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1834,20 +1852,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1935,75 +1953,75 @@
       <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="91" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="92"/>
+      <c r="E15" s="86"/>
       <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="71" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="95"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="96" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="97"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="71" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="95"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="96" t="s">
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="97"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="71" t="s">
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="95"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2317,75 +2335,75 @@
       <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="101" t="s">
+      <c r="A59" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="102"/>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102" t="s">
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="108"/>
+      <c r="E59" s="83"/>
       <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="105" t="s">
+      <c r="A60" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="103"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103" t="s">
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="104"/>
+      <c r="E60" s="80"/>
       <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="105" t="s">
+      <c r="A61" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="103"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103" t="s">
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="104"/>
+      <c r="E61" s="80"/>
       <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="105" t="s">
+      <c r="A62" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103" t="s">
+      <c r="B62" s="79"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="104"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="105" t="s">
+      <c r="A63" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="103"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103" t="s">
+      <c r="B63" s="79"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="104"/>
+      <c r="E63" s="80"/>
       <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="105" t="s">
+      <c r="A64" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="103"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="103" t="s">
+      <c r="B64" s="79"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="104"/>
+      <c r="E64" s="80"/>
       <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2595,75 +2613,75 @@
       <c r="F89" s="40"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="101" t="s">
+      <c r="A90" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="102"/>
-      <c r="C90" s="102"/>
-      <c r="D90" s="102" t="s">
+      <c r="B90" s="82"/>
+      <c r="C90" s="82"/>
+      <c r="D90" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="108"/>
+      <c r="E90" s="83"/>
       <c r="F90" s="40"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="105" t="s">
+      <c r="A91" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="103"/>
-      <c r="C91" s="103"/>
-      <c r="D91" s="103" t="s">
+      <c r="B91" s="79"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="104"/>
+      <c r="E91" s="80"/>
       <c r="F91" s="40"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="105" t="s">
+      <c r="A92" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="103"/>
-      <c r="C92" s="103"/>
-      <c r="D92" s="103" t="s">
+      <c r="B92" s="79"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="104"/>
+      <c r="E92" s="80"/>
       <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="105" t="s">
+      <c r="A93" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="103"/>
-      <c r="C93" s="103"/>
-      <c r="D93" s="103" t="s">
+      <c r="B93" s="79"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="104"/>
+      <c r="E93" s="80"/>
       <c r="F93" s="40"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="105" t="s">
+      <c r="A94" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="103"/>
-      <c r="C94" s="103"/>
-      <c r="D94" s="103" t="s">
+      <c r="B94" s="79"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="104"/>
+      <c r="E94" s="80"/>
       <c r="F94" s="40"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="105" t="s">
+      <c r="A95" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="103"/>
-      <c r="C95" s="103"/>
-      <c r="D95" s="103" t="s">
+      <c r="B95" s="79"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="104"/>
+      <c r="E95" s="80"/>
       <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3039,11 +3057,11 @@
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="77">
+      <c r="C172" s="74">
         <v>44163</v>
       </c>
-      <c r="D172" s="78"/>
-      <c r="E172" s="79"/>
+      <c r="D172" s="75"/>
+      <c r="E172" s="76"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -3052,54 +3070,54 @@
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="80" t="s">
+      <c r="C173" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="81"/>
-      <c r="E173" s="82"/>
+      <c r="D173" s="72"/>
+      <c r="E173" s="73"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="68" t="s">
+      <c r="B174" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="69"/>
-      <c r="D174" s="69"/>
-      <c r="E174" s="70"/>
+      <c r="C174" s="99"/>
+      <c r="D174" s="99"/>
+      <c r="E174" s="100"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="68" t="s">
+      <c r="B175" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="69"/>
-      <c r="D175" s="69"/>
-      <c r="E175" s="70"/>
+      <c r="C175" s="99"/>
+      <c r="D175" s="99"/>
+      <c r="E175" s="100"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="68" t="s">
+      <c r="B176" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="69"/>
-      <c r="D176" s="69"/>
-      <c r="E176" s="70"/>
+      <c r="C176" s="99"/>
+      <c r="D176" s="99"/>
+      <c r="E176" s="100"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="68" t="s">
+      <c r="B177" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="69"/>
-      <c r="D177" s="69"/>
-      <c r="E177" s="70"/>
+      <c r="C177" s="99"/>
+      <c r="D177" s="99"/>
+      <c r="E177" s="100"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="71" t="s">
+      <c r="B178" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="72"/>
-      <c r="D178" s="72"/>
-      <c r="E178" s="73"/>
+      <c r="C178" s="96"/>
+      <c r="D178" s="96"/>
+      <c r="E178" s="97"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -3158,13 +3176,13 @@
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="86" t="s">
+      <c r="C183" s="104" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="89" t="s">
+      <c r="E183" s="107" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3175,11 +3193,11 @@
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="87"/>
+      <c r="C184" s="105"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="90"/>
+      <c r="E184" s="108"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
@@ -3188,7 +3206,7 @@
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="87"/>
+      <c r="C185" s="105"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -3199,7 +3217,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="88"/>
+      <c r="C186" s="106"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -3226,11 +3244,11 @@
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="77">
+      <c r="C190" s="74">
         <v>44164</v>
       </c>
-      <c r="D190" s="78"/>
-      <c r="E190" s="79"/>
+      <c r="D190" s="75"/>
+      <c r="E190" s="76"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -3239,54 +3257,54 @@
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="80" t="s">
+      <c r="C191" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="81"/>
-      <c r="E191" s="82"/>
+      <c r="D191" s="72"/>
+      <c r="E191" s="73"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="68" t="s">
+      <c r="B192" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="69"/>
-      <c r="D192" s="69"/>
-      <c r="E192" s="70"/>
+      <c r="C192" s="99"/>
+      <c r="D192" s="99"/>
+      <c r="E192" s="100"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="68" t="s">
+      <c r="B193" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="69"/>
-      <c r="D193" s="69"/>
-      <c r="E193" s="70"/>
+      <c r="C193" s="99"/>
+      <c r="D193" s="99"/>
+      <c r="E193" s="100"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="68" t="s">
+      <c r="B194" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="69"/>
-      <c r="D194" s="69"/>
-      <c r="E194" s="70"/>
+      <c r="C194" s="99"/>
+      <c r="D194" s="99"/>
+      <c r="E194" s="100"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="68" t="s">
+      <c r="B195" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="69"/>
-      <c r="D195" s="69"/>
-      <c r="E195" s="70"/>
+      <c r="C195" s="99"/>
+      <c r="D195" s="99"/>
+      <c r="E195" s="100"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="71" t="s">
+      <c r="B196" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="72"/>
-      <c r="D196" s="72"/>
-      <c r="E196" s="73"/>
+      <c r="C196" s="96"/>
+      <c r="D196" s="96"/>
+      <c r="E196" s="97"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
@@ -3345,7 +3363,7 @@
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="74" t="s">
+      <c r="C201" s="101" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -3362,7 +3380,7 @@
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="75"/>
+      <c r="C202" s="102"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -3377,7 +3395,7 @@
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="76"/>
+      <c r="C203" s="103"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -3390,11 +3408,11 @@
         <v>54</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="77">
+      <c r="C206" s="74">
         <v>44165</v>
       </c>
-      <c r="D206" s="78"/>
-      <c r="E206" s="79"/>
+      <c r="D206" s="75"/>
+      <c r="E206" s="76"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
@@ -3409,40 +3427,40 @@
       <c r="A208" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="71" t="s">
+      <c r="B208" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="72"/>
-      <c r="D208" s="72"/>
-      <c r="E208" s="73"/>
+      <c r="C208" s="96"/>
+      <c r="D208" s="96"/>
+      <c r="E208" s="97"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B209" s="71" t="s">
+      <c r="B209" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="72"/>
-      <c r="D209" s="72"/>
-      <c r="E209" s="73"/>
+      <c r="C209" s="96"/>
+      <c r="D209" s="96"/>
+      <c r="E209" s="97"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B210" s="71" t="s">
+      <c r="B210" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="C210" s="72"/>
-      <c r="D210" s="72"/>
-      <c r="E210" s="73"/>
+      <c r="C210" s="96"/>
+      <c r="D210" s="96"/>
+      <c r="E210" s="97"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="71"/>
-      <c r="C211" s="72"/>
-      <c r="D211" s="72"/>
-      <c r="E211" s="73"/>
+      <c r="B211" s="89"/>
+      <c r="C211" s="96"/>
+      <c r="D211" s="96"/>
+      <c r="E211" s="97"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="71"/>
-      <c r="C212" s="72"/>
-      <c r="D212" s="72"/>
-      <c r="E212" s="73"/>
+      <c r="B212" s="89"/>
+      <c r="C212" s="96"/>
+      <c r="D212" s="96"/>
+      <c r="E212" s="97"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -3495,10 +3513,10 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="74" t="s">
+      <c r="C217" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="D217" s="74" t="s">
+      <c r="D217" s="101" t="s">
         <v>90</v>
       </c>
       <c r="E217" s="32"/>
@@ -3506,15 +3524,15 @@
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="75"/>
-      <c r="D218" s="75"/>
+      <c r="C218" s="102"/>
+      <c r="D218" s="102"/>
       <c r="E218" s="33"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="76"/>
-      <c r="D219" s="76"/>
+      <c r="C219" s="103"/>
+      <c r="D219" s="103"/>
       <c r="E219" s="34"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -3522,11 +3540,11 @@
         <v>54</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="77">
+      <c r="C224" s="74">
         <v>44171</v>
       </c>
-      <c r="D224" s="78"/>
-      <c r="E224" s="79"/>
+      <c r="D224" s="75"/>
+      <c r="E224" s="76"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
@@ -3535,54 +3553,54 @@
       <c r="B225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="80" t="s">
+      <c r="C225" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D225" s="81"/>
-      <c r="E225" s="82"/>
+      <c r="D225" s="72"/>
+      <c r="E225" s="73"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B226" s="68" t="s">
+      <c r="B226" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="69"/>
-      <c r="D226" s="69"/>
-      <c r="E226" s="70"/>
+      <c r="C226" s="99"/>
+      <c r="D226" s="99"/>
+      <c r="E226" s="100"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B227" s="68" t="s">
+      <c r="B227" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="69"/>
-      <c r="D227" s="69"/>
-      <c r="E227" s="70"/>
+      <c r="C227" s="99"/>
+      <c r="D227" s="99"/>
+      <c r="E227" s="100"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B228" s="68" t="s">
+      <c r="B228" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="69"/>
-      <c r="D228" s="69"/>
-      <c r="E228" s="70"/>
+      <c r="C228" s="99"/>
+      <c r="D228" s="99"/>
+      <c r="E228" s="100"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B229" s="68" t="s">
+      <c r="B229" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C229" s="69"/>
-      <c r="D229" s="69"/>
-      <c r="E229" s="70"/>
+      <c r="C229" s="99"/>
+      <c r="D229" s="99"/>
+      <c r="E229" s="100"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B230" s="71" t="s">
+      <c r="B230" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="72"/>
-      <c r="D230" s="72"/>
-      <c r="E230" s="73"/>
+      <c r="C230" s="96"/>
+      <c r="D230" s="96"/>
+      <c r="E230" s="97"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
@@ -3637,7 +3655,7 @@
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="74" t="s">
+      <c r="C235" s="101" t="s">
         <v>85</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -3650,7 +3668,7 @@
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="75"/>
+      <c r="C236" s="102"/>
       <c r="D236" s="16" t="s">
         <v>92</v>
       </c>
@@ -3661,7 +3679,7 @@
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="76"/>
+      <c r="C237" s="103"/>
       <c r="D237" s="1" t="s">
         <v>92</v>
       </c>
@@ -3690,61 +3708,61 @@
         <v>54</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="77">
+      <c r="C240" s="74">
         <v>44172</v>
       </c>
-      <c r="D240" s="78"/>
-      <c r="E240" s="79"/>
+      <c r="D240" s="75"/>
+      <c r="E240" s="76"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="80"/>
-      <c r="D241" s="81"/>
-      <c r="E241" s="82"/>
+      <c r="C241" s="71"/>
+      <c r="D241" s="72"/>
+      <c r="E241" s="73"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="71" t="s">
+      <c r="B242" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="72"/>
-      <c r="D242" s="72"/>
-      <c r="E242" s="73"/>
+      <c r="C242" s="96"/>
+      <c r="D242" s="96"/>
+      <c r="E242" s="97"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B243" s="71" t="s">
+      <c r="B243" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="C243" s="72"/>
-      <c r="D243" s="72"/>
-      <c r="E243" s="73"/>
+      <c r="C243" s="96"/>
+      <c r="D243" s="96"/>
+      <c r="E243" s="97"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B244" s="71" t="s">
+      <c r="B244" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="C244" s="72"/>
-      <c r="D244" s="72"/>
-      <c r="E244" s="73"/>
+      <c r="C244" s="96"/>
+      <c r="D244" s="96"/>
+      <c r="E244" s="97"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B245" s="71" t="s">
+      <c r="B245" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="C245" s="72"/>
-      <c r="D245" s="72"/>
-      <c r="E245" s="73"/>
+      <c r="C245" s="96"/>
+      <c r="D245" s="96"/>
+      <c r="E245" s="97"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B246" s="71"/>
-      <c r="C246" s="72"/>
-      <c r="D246" s="72"/>
-      <c r="E246" s="73"/>
+      <c r="B246" s="89"/>
+      <c r="C246" s="96"/>
+      <c r="D246" s="96"/>
+      <c r="E246" s="97"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
@@ -3797,38 +3815,38 @@
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="74" t="s">
+      <c r="C251" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="D251" s="74" t="s">
+      <c r="D251" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="E251" s="83"/>
+      <c r="E251" s="109"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="10"/>
-      <c r="C252" s="75"/>
-      <c r="D252" s="75"/>
-      <c r="E252" s="84"/>
+      <c r="C252" s="102"/>
+      <c r="D252" s="102"/>
+      <c r="E252" s="110"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="76"/>
-      <c r="D253" s="76"/>
-      <c r="E253" s="85"/>
+      <c r="C253" s="103"/>
+      <c r="D253" s="103"/>
+      <c r="E253" s="111"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="77">
+      <c r="C256" s="74">
         <v>44178</v>
       </c>
-      <c r="D256" s="78"/>
-      <c r="E256" s="79"/>
+      <c r="D256" s="75"/>
+      <c r="E256" s="76"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
@@ -3837,11 +3855,11 @@
       <c r="B257" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C257" s="80" t="s">
+      <c r="C257" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D257" s="81"/>
-      <c r="E257" s="82"/>
+      <c r="D257" s="72"/>
+      <c r="E257" s="73"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
@@ -3988,59 +4006,59 @@
         <v>54</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="77">
+      <c r="C273" s="74">
         <v>44179</v>
       </c>
-      <c r="D273" s="78"/>
-      <c r="E273" s="79"/>
+      <c r="D273" s="75"/>
+      <c r="E273" s="76"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B274" s="3"/>
-      <c r="C274" s="80"/>
-      <c r="D274" s="81"/>
-      <c r="E274" s="82"/>
+      <c r="C274" s="71"/>
+      <c r="D274" s="72"/>
+      <c r="E274" s="73"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B275" s="71" t="s">
+      <c r="B275" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C275" s="72"/>
-      <c r="D275" s="72"/>
-      <c r="E275" s="73"/>
+      <c r="C275" s="96"/>
+      <c r="D275" s="96"/>
+      <c r="E275" s="97"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B276" s="71" t="s">
+      <c r="B276" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="C276" s="72"/>
-      <c r="D276" s="72"/>
-      <c r="E276" s="73"/>
+      <c r="C276" s="96"/>
+      <c r="D276" s="96"/>
+      <c r="E276" s="97"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B277" s="71" t="s">
+      <c r="B277" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="C277" s="72"/>
-      <c r="D277" s="72"/>
-      <c r="E277" s="73"/>
+      <c r="C277" s="96"/>
+      <c r="D277" s="96"/>
+      <c r="E277" s="97"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B278" s="71"/>
-      <c r="C278" s="72"/>
-      <c r="D278" s="72"/>
-      <c r="E278" s="73"/>
+      <c r="B278" s="89"/>
+      <c r="C278" s="96"/>
+      <c r="D278" s="96"/>
+      <c r="E278" s="97"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B279" s="71"/>
-      <c r="C279" s="72"/>
-      <c r="D279" s="72"/>
-      <c r="E279" s="73"/>
+      <c r="B279" s="89"/>
+      <c r="C279" s="96"/>
+      <c r="D279" s="96"/>
+      <c r="E279" s="97"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -4093,34 +4111,34 @@
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="8"/>
-      <c r="C284" s="74"/>
-      <c r="D284" s="74"/>
-      <c r="E284" s="83"/>
+      <c r="C284" s="101"/>
+      <c r="D284" s="101"/>
+      <c r="E284" s="109"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="10"/>
-      <c r="C285" s="75"/>
-      <c r="D285" s="75"/>
-      <c r="E285" s="84"/>
+      <c r="C285" s="102"/>
+      <c r="D285" s="102"/>
+      <c r="E285" s="110"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="18"/>
-      <c r="C286" s="76"/>
-      <c r="D286" s="76"/>
-      <c r="E286" s="85"/>
+      <c r="C286" s="103"/>
+      <c r="D286" s="103"/>
+      <c r="E286" s="111"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="77">
+      <c r="C288" s="74">
         <v>44185</v>
       </c>
-      <c r="D288" s="78"/>
-      <c r="E288" s="79"/>
+      <c r="D288" s="75"/>
+      <c r="E288" s="76"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
@@ -4129,54 +4147,54 @@
       <c r="B289" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C289" s="80" t="s">
+      <c r="C289" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="D289" s="81"/>
-      <c r="E289" s="82"/>
+      <c r="D289" s="72"/>
+      <c r="E289" s="73"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B290" s="68" t="s">
+      <c r="B290" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C290" s="69"/>
-      <c r="D290" s="69"/>
-      <c r="E290" s="70"/>
+      <c r="C290" s="99"/>
+      <c r="D290" s="99"/>
+      <c r="E290" s="100"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B291" s="68" t="s">
+      <c r="B291" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C291" s="69"/>
-      <c r="D291" s="69"/>
-      <c r="E291" s="70"/>
+      <c r="C291" s="99"/>
+      <c r="D291" s="99"/>
+      <c r="E291" s="100"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B292" s="68" t="s">
+      <c r="B292" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C292" s="69"/>
-      <c r="D292" s="69"/>
-      <c r="E292" s="70"/>
+      <c r="C292" s="99"/>
+      <c r="D292" s="99"/>
+      <c r="E292" s="100"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B293" s="68" t="s">
+      <c r="B293" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C293" s="69"/>
-      <c r="D293" s="69"/>
-      <c r="E293" s="70"/>
+      <c r="C293" s="99"/>
+      <c r="D293" s="99"/>
+      <c r="E293" s="100"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B294" s="71" t="s">
+      <c r="B294" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C294" s="72"/>
-      <c r="D294" s="72"/>
-      <c r="E294" s="73"/>
+      <c r="C294" s="96"/>
+      <c r="D294" s="96"/>
+      <c r="E294" s="97"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
@@ -4231,7 +4249,7 @@
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="8"/>
-      <c r="C299" s="74" t="s">
+      <c r="C299" s="101" t="s">
         <v>108</v>
       </c>
       <c r="D299" s="9" t="s">
@@ -4244,7 +4262,7 @@
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="10"/>
-      <c r="C300" s="75"/>
+      <c r="C300" s="102"/>
       <c r="D300" s="16" t="s">
         <v>110</v>
       </c>
@@ -4255,7 +4273,7 @@
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="18"/>
-      <c r="C301" s="76"/>
+      <c r="C301" s="103"/>
       <c r="D301" s="1"/>
       <c r="E301" s="19"/>
     </row>
@@ -4272,11 +4290,11 @@
         <v>54</v>
       </c>
       <c r="B306" s="2"/>
-      <c r="C306" s="77">
+      <c r="C306" s="74">
         <v>44199</v>
       </c>
-      <c r="D306" s="78"/>
-      <c r="E306" s="79"/>
+      <c r="D306" s="75"/>
+      <c r="E306" s="76"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
@@ -4285,54 +4303,54 @@
       <c r="B307" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C307" s="80" t="s">
+      <c r="C307" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D307" s="81"/>
-      <c r="E307" s="82"/>
+      <c r="D307" s="72"/>
+      <c r="E307" s="73"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B308" s="68" t="s">
+      <c r="B308" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C308" s="69"/>
-      <c r="D308" s="69"/>
-      <c r="E308" s="70"/>
+      <c r="C308" s="99"/>
+      <c r="D308" s="99"/>
+      <c r="E308" s="100"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B309" s="68" t="s">
+      <c r="B309" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C309" s="69"/>
-      <c r="D309" s="69"/>
-      <c r="E309" s="70"/>
+      <c r="C309" s="99"/>
+      <c r="D309" s="99"/>
+      <c r="E309" s="100"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B310" s="68" t="s">
+      <c r="B310" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C310" s="69"/>
-      <c r="D310" s="69"/>
-      <c r="E310" s="70"/>
+      <c r="C310" s="99"/>
+      <c r="D310" s="99"/>
+      <c r="E310" s="100"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B311" s="68" t="s">
+      <c r="B311" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C311" s="69"/>
-      <c r="D311" s="69"/>
-      <c r="E311" s="70"/>
+      <c r="C311" s="99"/>
+      <c r="D311" s="99"/>
+      <c r="E311" s="100"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B312" s="71" t="s">
+      <c r="B312" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C312" s="72"/>
-      <c r="D312" s="72"/>
-      <c r="E312" s="73"/>
+      <c r="C312" s="96"/>
+      <c r="D312" s="96"/>
+      <c r="E312" s="97"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
@@ -4387,7 +4405,7 @@
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="8"/>
-      <c r="C317" s="74" t="s">
+      <c r="C317" s="101" t="s">
         <v>113</v>
       </c>
       <c r="D317" s="9" t="s">
@@ -4400,19 +4418,255 @@
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="10"/>
-      <c r="C318" s="75"/>
+      <c r="C318" s="102"/>
       <c r="D318" s="16"/>
       <c r="E318" s="1"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="18"/>
-      <c r="C319" s="76"/>
+      <c r="C319" s="103"/>
       <c r="D319" s="1"/>
       <c r="E319" s="19"/>
     </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B322" s="2"/>
+      <c r="C322" s="74">
+        <v>44205</v>
+      </c>
+      <c r="D322" s="75"/>
+      <c r="E322" s="76"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C323" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D323" s="72"/>
+      <c r="E323" s="73"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B324" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C324" s="99"/>
+      <c r="D324" s="99"/>
+      <c r="E324" s="100"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B325" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C325" s="99"/>
+      <c r="D325" s="99"/>
+      <c r="E325" s="100"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B326" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="C326" s="99"/>
+      <c r="D326" s="99"/>
+      <c r="E326" s="100"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B327" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C327" s="99"/>
+      <c r="D327" s="99"/>
+      <c r="E327" s="100"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B328" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C328" s="96"/>
+      <c r="D328" s="96"/>
+      <c r="E328" s="97"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C331" s="4"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B332" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C332" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D332" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E332" s="70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="1"/>
+      <c r="B333" s="8"/>
+      <c r="C333" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="D333" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="1"/>
+      <c r="B334" s="10"/>
+      <c r="C334" s="102"/>
+      <c r="D334" s="16"/>
+      <c r="E334" s="1"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="17"/>
+      <c r="B335" s="18"/>
+      <c r="C335" s="103"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="108">
+  <mergeCells count="116">
+    <mergeCell ref="C322:E322"/>
+    <mergeCell ref="C323:E323"/>
+    <mergeCell ref="B324:E324"/>
+    <mergeCell ref="B325:E325"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B327:E327"/>
+    <mergeCell ref="B328:E328"/>
+    <mergeCell ref="C333:C335"/>
+    <mergeCell ref="B311:E311"/>
+    <mergeCell ref="B312:E312"/>
+    <mergeCell ref="C317:C319"/>
+    <mergeCell ref="C306:E306"/>
+    <mergeCell ref="C307:E307"/>
+    <mergeCell ref="B308:E308"/>
+    <mergeCell ref="B309:E309"/>
+    <mergeCell ref="B310:E310"/>
+    <mergeCell ref="B293:E293"/>
+    <mergeCell ref="B294:E294"/>
+    <mergeCell ref="C299:C301"/>
+    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="D284:D286"/>
+    <mergeCell ref="E284:E286"/>
+    <mergeCell ref="C273:E273"/>
+    <mergeCell ref="C274:E274"/>
+    <mergeCell ref="B275:E275"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="D251:D253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="C240:E240"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="B246:E246"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="C257:E257"/>
     <mergeCell ref="C256:E256"/>
     <mergeCell ref="A1:E2"/>
@@ -4437,90 +4691,6 @@
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="C241:E241"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="C224:E224"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="B226:E226"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="C273:E273"/>
-    <mergeCell ref="C274:E274"/>
-    <mergeCell ref="B275:E275"/>
-    <mergeCell ref="B276:E276"/>
-    <mergeCell ref="B277:E277"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="D251:D253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="E251:E253"/>
-    <mergeCell ref="C240:E240"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="C288:E288"/>
-    <mergeCell ref="C289:E289"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B279:E279"/>
-    <mergeCell ref="C284:C286"/>
-    <mergeCell ref="D284:D286"/>
-    <mergeCell ref="E284:E286"/>
-    <mergeCell ref="B311:E311"/>
-    <mergeCell ref="B312:E312"/>
-    <mergeCell ref="C317:C319"/>
-    <mergeCell ref="C306:E306"/>
-    <mergeCell ref="C307:E307"/>
-    <mergeCell ref="B308:E308"/>
-    <mergeCell ref="B309:E309"/>
-    <mergeCell ref="B310:E310"/>
-    <mergeCell ref="B293:E293"/>
-    <mergeCell ref="B294:E294"/>
-    <mergeCell ref="C299:C301"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EF1808-2293-457E-AFD1-F5F90FA4B631}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A58545-6768-4574-9EFF-402AB6954AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4344" yWindow="372" windowWidth="17280" windowHeight="9420" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="120">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>disscuss about which protocol and micro controller should be used</t>
+  </si>
+  <si>
+    <t>Create header and source code for smart lamp</t>
+  </si>
+  <si>
+    <t>update header and source code for smart lamp, create test code for smart lamp</t>
   </si>
 </sst>
 </file>
@@ -946,6 +952,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,14 +970,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -970,15 +1063,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -986,87 +1073,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1838,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:F335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C333" sqref="C333:C335"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G337" sqref="G337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,20 +1858,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1953,75 +1959,75 @@
       <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="85" t="s">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="86"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="89" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="91" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="92"/>
+      <c r="E17" s="102"/>
       <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="89" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="90"/>
+      <c r="E18" s="100"/>
       <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="91" t="s">
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="92"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="89" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="90"/>
+      <c r="E20" s="100"/>
       <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2335,75 +2341,75 @@
       <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="84" t="s">
+      <c r="A59" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82" t="s">
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="83"/>
+      <c r="E59" s="110"/>
       <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="81" t="s">
+      <c r="A60" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79" t="s">
+      <c r="B60" s="95"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="80"/>
+      <c r="E60" s="108"/>
       <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="81" t="s">
+      <c r="A61" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79" t="s">
+      <c r="B61" s="95"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="80"/>
+      <c r="E61" s="108"/>
       <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="81" t="s">
+      <c r="A62" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="79"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79" t="s">
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="80"/>
+      <c r="E62" s="108"/>
       <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="81" t="s">
+      <c r="A63" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="79"/>
-      <c r="C63" s="79"/>
-      <c r="D63" s="79" t="s">
+      <c r="B63" s="95"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="80"/>
+      <c r="E63" s="108"/>
       <c r="F63" s="40"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="81" t="s">
+      <c r="A64" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="79"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79" t="s">
+      <c r="B64" s="95"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="80"/>
+      <c r="E64" s="108"/>
       <c r="F64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2613,75 +2619,75 @@
       <c r="F89" s="40"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="84" t="s">
+      <c r="A90" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="82"/>
-      <c r="C90" s="82"/>
-      <c r="D90" s="82" t="s">
+      <c r="B90" s="109"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="83"/>
+      <c r="E90" s="110"/>
       <c r="F90" s="40"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="81" t="s">
+      <c r="A91" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="79"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="79" t="s">
+      <c r="B91" s="95"/>
+      <c r="C91" s="95"/>
+      <c r="D91" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="80"/>
+      <c r="E91" s="108"/>
       <c r="F91" s="40"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="81" t="s">
+      <c r="A92" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="79"/>
-      <c r="C92" s="79"/>
-      <c r="D92" s="79" t="s">
+      <c r="B92" s="95"/>
+      <c r="C92" s="95"/>
+      <c r="D92" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="80"/>
+      <c r="E92" s="108"/>
       <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="81" t="s">
+      <c r="A93" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="79"/>
-      <c r="C93" s="79"/>
-      <c r="D93" s="79" t="s">
+      <c r="B93" s="95"/>
+      <c r="C93" s="95"/>
+      <c r="D93" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="80"/>
+      <c r="E93" s="108"/>
       <c r="F93" s="40"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="81" t="s">
+      <c r="A94" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="79"/>
-      <c r="C94" s="79"/>
-      <c r="D94" s="79" t="s">
+      <c r="B94" s="95"/>
+      <c r="C94" s="95"/>
+      <c r="D94" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="80"/>
+      <c r="E94" s="108"/>
       <c r="F94" s="40"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="81" t="s">
+      <c r="A95" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="79"/>
-      <c r="C95" s="79"/>
-      <c r="D95" s="79" t="s">
+      <c r="B95" s="95"/>
+      <c r="C95" s="95"/>
+      <c r="D95" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="80"/>
+      <c r="E95" s="108"/>
       <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3057,11 +3063,11 @@
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="74">
+      <c r="C172" s="71">
         <v>44163</v>
       </c>
-      <c r="D172" s="75"/>
-      <c r="E172" s="76"/>
+      <c r="D172" s="72"/>
+      <c r="E172" s="73"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -3070,54 +3076,54 @@
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="71" t="s">
+      <c r="C173" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="72"/>
-      <c r="E173" s="73"/>
+      <c r="D173" s="75"/>
+      <c r="E173" s="76"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="98" t="s">
+      <c r="B174" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="99"/>
-      <c r="D174" s="99"/>
-      <c r="E174" s="100"/>
+      <c r="C174" s="78"/>
+      <c r="D174" s="78"/>
+      <c r="E174" s="79"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="98" t="s">
+      <c r="B175" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="99"/>
-      <c r="D175" s="99"/>
-      <c r="E175" s="100"/>
+      <c r="C175" s="78"/>
+      <c r="D175" s="78"/>
+      <c r="E175" s="79"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="98" t="s">
+      <c r="B176" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="99"/>
-      <c r="D176" s="99"/>
-      <c r="E176" s="100"/>
+      <c r="C176" s="78"/>
+      <c r="D176" s="78"/>
+      <c r="E176" s="79"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="98" t="s">
+      <c r="B177" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="99"/>
-      <c r="D177" s="99"/>
-      <c r="E177" s="100"/>
+      <c r="C177" s="78"/>
+      <c r="D177" s="78"/>
+      <c r="E177" s="79"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="89" t="s">
+      <c r="B178" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="96"/>
-      <c r="D178" s="96"/>
-      <c r="E178" s="97"/>
+      <c r="C178" s="81"/>
+      <c r="D178" s="81"/>
+      <c r="E178" s="82"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
@@ -3176,13 +3182,13 @@
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="104" t="s">
+      <c r="C183" s="89" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="107" t="s">
+      <c r="E183" s="92" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3193,11 +3199,11 @@
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="105"/>
+      <c r="C184" s="90"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="108"/>
+      <c r="E184" s="93"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="11">
@@ -3206,7 +3212,7 @@
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="105"/>
+      <c r="C185" s="90"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -3217,7 +3223,7 @@
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="106"/>
+      <c r="C186" s="91"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -3244,11 +3250,11 @@
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="74">
+      <c r="C190" s="71">
         <v>44164</v>
       </c>
-      <c r="D190" s="75"/>
-      <c r="E190" s="76"/>
+      <c r="D190" s="72"/>
+      <c r="E190" s="73"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -3257,54 +3263,54 @@
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="71" t="s">
+      <c r="C191" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="72"/>
-      <c r="E191" s="73"/>
+      <c r="D191" s="75"/>
+      <c r="E191" s="76"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="98" t="s">
+      <c r="B192" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="99"/>
-      <c r="D192" s="99"/>
-      <c r="E192" s="100"/>
+      <c r="C192" s="78"/>
+      <c r="D192" s="78"/>
+      <c r="E192" s="79"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="98" t="s">
+      <c r="B193" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="99"/>
-      <c r="D193" s="99"/>
-      <c r="E193" s="100"/>
+      <c r="C193" s="78"/>
+      <c r="D193" s="78"/>
+      <c r="E193" s="79"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="98" t="s">
+      <c r="B194" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="99"/>
-      <c r="D194" s="99"/>
-      <c r="E194" s="100"/>
+      <c r="C194" s="78"/>
+      <c r="D194" s="78"/>
+      <c r="E194" s="79"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="98" t="s">
+      <c r="B195" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="99"/>
-      <c r="D195" s="99"/>
-      <c r="E195" s="100"/>
+      <c r="C195" s="78"/>
+      <c r="D195" s="78"/>
+      <c r="E195" s="79"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="89" t="s">
+      <c r="B196" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="96"/>
-      <c r="D196" s="96"/>
-      <c r="E196" s="97"/>
+      <c r="C196" s="81"/>
+      <c r="D196" s="81"/>
+      <c r="E196" s="82"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
@@ -3363,7 +3369,7 @@
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="101" t="s">
+      <c r="C201" s="83" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -3380,7 +3386,7 @@
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="102"/>
+      <c r="C202" s="84"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -3395,7 +3401,7 @@
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="103"/>
+      <c r="C203" s="85"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -3408,11 +3414,11 @@
         <v>54</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="74">
+      <c r="C206" s="71">
         <v>44165</v>
       </c>
-      <c r="D206" s="75"/>
-      <c r="E206" s="76"/>
+      <c r="D206" s="72"/>
+      <c r="E206" s="73"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
@@ -3427,40 +3433,40 @@
       <c r="A208" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="89" t="s">
+      <c r="B208" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="96"/>
-      <c r="D208" s="96"/>
-      <c r="E208" s="97"/>
+      <c r="C208" s="81"/>
+      <c r="D208" s="81"/>
+      <c r="E208" s="82"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B209" s="89" t="s">
+      <c r="B209" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="96"/>
-      <c r="D209" s="96"/>
-      <c r="E209" s="97"/>
+      <c r="C209" s="81"/>
+      <c r="D209" s="81"/>
+      <c r="E209" s="82"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B210" s="89" t="s">
+      <c r="B210" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C210" s="96"/>
-      <c r="D210" s="96"/>
-      <c r="E210" s="97"/>
+      <c r="C210" s="81"/>
+      <c r="D210" s="81"/>
+      <c r="E210" s="82"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="89"/>
-      <c r="C211" s="96"/>
-      <c r="D211" s="96"/>
-      <c r="E211" s="97"/>
+      <c r="B211" s="80"/>
+      <c r="C211" s="81"/>
+      <c r="D211" s="81"/>
+      <c r="E211" s="82"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="89"/>
-      <c r="C212" s="96"/>
-      <c r="D212" s="96"/>
-      <c r="E212" s="97"/>
+      <c r="B212" s="80"/>
+      <c r="C212" s="81"/>
+      <c r="D212" s="81"/>
+      <c r="E212" s="82"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
@@ -3513,10 +3519,10 @@
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="101" t="s">
+      <c r="C217" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="D217" s="101" t="s">
+      <c r="D217" s="83" t="s">
         <v>90</v>
       </c>
       <c r="E217" s="32"/>
@@ -3524,15 +3530,15 @@
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="102"/>
-      <c r="D218" s="102"/>
+      <c r="C218" s="84"/>
+      <c r="D218" s="84"/>
       <c r="E218" s="33"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="103"/>
-      <c r="D219" s="103"/>
+      <c r="C219" s="85"/>
+      <c r="D219" s="85"/>
       <c r="E219" s="34"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -3540,11 +3546,11 @@
         <v>54</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="74">
+      <c r="C224" s="71">
         <v>44171</v>
       </c>
-      <c r="D224" s="75"/>
-      <c r="E224" s="76"/>
+      <c r="D224" s="72"/>
+      <c r="E224" s="73"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
@@ -3553,54 +3559,54 @@
       <c r="B225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="71" t="s">
+      <c r="C225" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="D225" s="72"/>
-      <c r="E225" s="73"/>
+      <c r="D225" s="75"/>
+      <c r="E225" s="76"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B226" s="98" t="s">
+      <c r="B226" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="99"/>
-      <c r="D226" s="99"/>
-      <c r="E226" s="100"/>
+      <c r="C226" s="78"/>
+      <c r="D226" s="78"/>
+      <c r="E226" s="79"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B227" s="98" t="s">
+      <c r="B227" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="99"/>
-      <c r="D227" s="99"/>
-      <c r="E227" s="100"/>
+      <c r="C227" s="78"/>
+      <c r="D227" s="78"/>
+      <c r="E227" s="79"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B228" s="98" t="s">
+      <c r="B228" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="99"/>
-      <c r="D228" s="99"/>
-      <c r="E228" s="100"/>
+      <c r="C228" s="78"/>
+      <c r="D228" s="78"/>
+      <c r="E228" s="79"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B229" s="98" t="s">
+      <c r="B229" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C229" s="99"/>
-      <c r="D229" s="99"/>
-      <c r="E229" s="100"/>
+      <c r="C229" s="78"/>
+      <c r="D229" s="78"/>
+      <c r="E229" s="79"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B230" s="89" t="s">
+      <c r="B230" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="96"/>
-      <c r="D230" s="96"/>
-      <c r="E230" s="97"/>
+      <c r="C230" s="81"/>
+      <c r="D230" s="81"/>
+      <c r="E230" s="82"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
@@ -3655,7 +3661,7 @@
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="101" t="s">
+      <c r="C235" s="83" t="s">
         <v>85</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -3668,7 +3674,7 @@
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="102"/>
+      <c r="C236" s="84"/>
       <c r="D236" s="16" t="s">
         <v>92</v>
       </c>
@@ -3679,7 +3685,7 @@
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="103"/>
+      <c r="C237" s="85"/>
       <c r="D237" s="1" t="s">
         <v>92</v>
       </c>
@@ -3708,61 +3714,61 @@
         <v>54</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="74">
+      <c r="C240" s="71">
         <v>44172</v>
       </c>
-      <c r="D240" s="75"/>
-      <c r="E240" s="76"/>
+      <c r="D240" s="72"/>
+      <c r="E240" s="73"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="71"/>
-      <c r="D241" s="72"/>
-      <c r="E241" s="73"/>
+      <c r="C241" s="74"/>
+      <c r="D241" s="75"/>
+      <c r="E241" s="76"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="89" t="s">
+      <c r="B242" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="96"/>
-      <c r="D242" s="96"/>
-      <c r="E242" s="97"/>
+      <c r="C242" s="81"/>
+      <c r="D242" s="81"/>
+      <c r="E242" s="82"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B243" s="89" t="s">
+      <c r="B243" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C243" s="96"/>
-      <c r="D243" s="96"/>
-      <c r="E243" s="97"/>
+      <c r="C243" s="81"/>
+      <c r="D243" s="81"/>
+      <c r="E243" s="82"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B244" s="89" t="s">
+      <c r="B244" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C244" s="96"/>
-      <c r="D244" s="96"/>
-      <c r="E244" s="97"/>
+      <c r="C244" s="81"/>
+      <c r="D244" s="81"/>
+      <c r="E244" s="82"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B245" s="89" t="s">
+      <c r="B245" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="C245" s="96"/>
-      <c r="D245" s="96"/>
-      <c r="E245" s="97"/>
+      <c r="C245" s="81"/>
+      <c r="D245" s="81"/>
+      <c r="E245" s="82"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B246" s="89"/>
-      <c r="C246" s="96"/>
-      <c r="D246" s="96"/>
-      <c r="E246" s="97"/>
+      <c r="B246" s="80"/>
+      <c r="C246" s="81"/>
+      <c r="D246" s="81"/>
+      <c r="E246" s="82"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
@@ -3815,38 +3821,38 @@
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="101" t="s">
+      <c r="C251" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="D251" s="101" t="s">
+      <c r="D251" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="E251" s="109"/>
+      <c r="E251" s="86"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="10"/>
-      <c r="C252" s="102"/>
-      <c r="D252" s="102"/>
-      <c r="E252" s="110"/>
+      <c r="C252" s="84"/>
+      <c r="D252" s="84"/>
+      <c r="E252" s="87"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="103"/>
-      <c r="D253" s="103"/>
-      <c r="E253" s="111"/>
+      <c r="C253" s="85"/>
+      <c r="D253" s="85"/>
+      <c r="E253" s="88"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="74">
+      <c r="C256" s="71">
         <v>44178</v>
       </c>
-      <c r="D256" s="75"/>
-      <c r="E256" s="76"/>
+      <c r="D256" s="72"/>
+      <c r="E256" s="73"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
@@ -3855,11 +3861,11 @@
       <c r="B257" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C257" s="71" t="s">
+      <c r="C257" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="D257" s="72"/>
-      <c r="E257" s="73"/>
+      <c r="D257" s="75"/>
+      <c r="E257" s="76"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
@@ -4006,59 +4012,59 @@
         <v>54</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="74">
+      <c r="C273" s="71">
         <v>44179</v>
       </c>
-      <c r="D273" s="75"/>
-      <c r="E273" s="76"/>
+      <c r="D273" s="72"/>
+      <c r="E273" s="73"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B274" s="3"/>
-      <c r="C274" s="71"/>
-      <c r="D274" s="72"/>
-      <c r="E274" s="73"/>
+      <c r="C274" s="74"/>
+      <c r="D274" s="75"/>
+      <c r="E274" s="76"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B275" s="89" t="s">
+      <c r="B275" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C275" s="96"/>
-      <c r="D275" s="96"/>
-      <c r="E275" s="97"/>
+      <c r="C275" s="81"/>
+      <c r="D275" s="81"/>
+      <c r="E275" s="82"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B276" s="89" t="s">
+      <c r="B276" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C276" s="96"/>
-      <c r="D276" s="96"/>
-      <c r="E276" s="97"/>
+      <c r="C276" s="81"/>
+      <c r="D276" s="81"/>
+      <c r="E276" s="82"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B277" s="89" t="s">
+      <c r="B277" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C277" s="96"/>
-      <c r="D277" s="96"/>
-      <c r="E277" s="97"/>
+      <c r="C277" s="81"/>
+      <c r="D277" s="81"/>
+      <c r="E277" s="82"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B278" s="89"/>
-      <c r="C278" s="96"/>
-      <c r="D278" s="96"/>
-      <c r="E278" s="97"/>
+      <c r="B278" s="80"/>
+      <c r="C278" s="81"/>
+      <c r="D278" s="81"/>
+      <c r="E278" s="82"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B279" s="89"/>
-      <c r="C279" s="96"/>
-      <c r="D279" s="96"/>
-      <c r="E279" s="97"/>
+      <c r="B279" s="80"/>
+      <c r="C279" s="81"/>
+      <c r="D279" s="81"/>
+      <c r="E279" s="82"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -4111,34 +4117,34 @@
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="8"/>
-      <c r="C284" s="101"/>
-      <c r="D284" s="101"/>
-      <c r="E284" s="109"/>
+      <c r="C284" s="83"/>
+      <c r="D284" s="83"/>
+      <c r="E284" s="86"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="10"/>
-      <c r="C285" s="102"/>
-      <c r="D285" s="102"/>
-      <c r="E285" s="110"/>
+      <c r="C285" s="84"/>
+      <c r="D285" s="84"/>
+      <c r="E285" s="87"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="18"/>
-      <c r="C286" s="103"/>
-      <c r="D286" s="103"/>
-      <c r="E286" s="111"/>
+      <c r="C286" s="85"/>
+      <c r="D286" s="85"/>
+      <c r="E286" s="88"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="74">
+      <c r="C288" s="71">
         <v>44185</v>
       </c>
-      <c r="D288" s="75"/>
-      <c r="E288" s="76"/>
+      <c r="D288" s="72"/>
+      <c r="E288" s="73"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
@@ -4147,54 +4153,54 @@
       <c r="B289" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C289" s="71" t="s">
+      <c r="C289" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="D289" s="72"/>
-      <c r="E289" s="73"/>
+      <c r="D289" s="75"/>
+      <c r="E289" s="76"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B290" s="98" t="s">
+      <c r="B290" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C290" s="99"/>
-      <c r="D290" s="99"/>
-      <c r="E290" s="100"/>
+      <c r="C290" s="78"/>
+      <c r="D290" s="78"/>
+      <c r="E290" s="79"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B291" s="98" t="s">
+      <c r="B291" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C291" s="99"/>
-      <c r="D291" s="99"/>
-      <c r="E291" s="100"/>
+      <c r="C291" s="78"/>
+      <c r="D291" s="78"/>
+      <c r="E291" s="79"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B292" s="98" t="s">
+      <c r="B292" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C292" s="99"/>
-      <c r="D292" s="99"/>
-      <c r="E292" s="100"/>
+      <c r="C292" s="78"/>
+      <c r="D292" s="78"/>
+      <c r="E292" s="79"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B293" s="98" t="s">
+      <c r="B293" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C293" s="99"/>
-      <c r="D293" s="99"/>
-      <c r="E293" s="100"/>
+      <c r="C293" s="78"/>
+      <c r="D293" s="78"/>
+      <c r="E293" s="79"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B294" s="89" t="s">
+      <c r="B294" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C294" s="96"/>
-      <c r="D294" s="96"/>
-      <c r="E294" s="97"/>
+      <c r="C294" s="81"/>
+      <c r="D294" s="81"/>
+      <c r="E294" s="82"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
@@ -4249,7 +4255,7 @@
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="8"/>
-      <c r="C299" s="101" t="s">
+      <c r="C299" s="83" t="s">
         <v>108</v>
       </c>
       <c r="D299" s="9" t="s">
@@ -4262,7 +4268,7 @@
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="10"/>
-      <c r="C300" s="102"/>
+      <c r="C300" s="84"/>
       <c r="D300" s="16" t="s">
         <v>110</v>
       </c>
@@ -4273,7 +4279,7 @@
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="18"/>
-      <c r="C301" s="103"/>
+      <c r="C301" s="85"/>
       <c r="D301" s="1"/>
       <c r="E301" s="19"/>
     </row>
@@ -4290,11 +4296,11 @@
         <v>54</v>
       </c>
       <c r="B306" s="2"/>
-      <c r="C306" s="74">
+      <c r="C306" s="71">
         <v>44199</v>
       </c>
-      <c r="D306" s="75"/>
-      <c r="E306" s="76"/>
+      <c r="D306" s="72"/>
+      <c r="E306" s="73"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
@@ -4303,54 +4309,54 @@
       <c r="B307" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C307" s="71" t="s">
+      <c r="C307" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="D307" s="72"/>
-      <c r="E307" s="73"/>
+      <c r="D307" s="75"/>
+      <c r="E307" s="76"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B308" s="98" t="s">
+      <c r="B308" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C308" s="99"/>
-      <c r="D308" s="99"/>
-      <c r="E308" s="100"/>
+      <c r="C308" s="78"/>
+      <c r="D308" s="78"/>
+      <c r="E308" s="79"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B309" s="98" t="s">
+      <c r="B309" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C309" s="99"/>
-      <c r="D309" s="99"/>
-      <c r="E309" s="100"/>
+      <c r="C309" s="78"/>
+      <c r="D309" s="78"/>
+      <c r="E309" s="79"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B310" s="98" t="s">
+      <c r="B310" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C310" s="99"/>
-      <c r="D310" s="99"/>
-      <c r="E310" s="100"/>
+      <c r="C310" s="78"/>
+      <c r="D310" s="78"/>
+      <c r="E310" s="79"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B311" s="98" t="s">
+      <c r="B311" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C311" s="99"/>
-      <c r="D311" s="99"/>
-      <c r="E311" s="100"/>
+      <c r="C311" s="78"/>
+      <c r="D311" s="78"/>
+      <c r="E311" s="79"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B312" s="89" t="s">
+      <c r="B312" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C312" s="96"/>
-      <c r="D312" s="96"/>
-      <c r="E312" s="97"/>
+      <c r="C312" s="81"/>
+      <c r="D312" s="81"/>
+      <c r="E312" s="82"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
@@ -4405,7 +4411,7 @@
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="8"/>
-      <c r="C317" s="101" t="s">
+      <c r="C317" s="83" t="s">
         <v>113</v>
       </c>
       <c r="D317" s="9" t="s">
@@ -4418,14 +4424,18 @@
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="10"/>
-      <c r="C318" s="102"/>
-      <c r="D318" s="16"/>
-      <c r="E318" s="1"/>
+      <c r="C318" s="84"/>
+      <c r="D318" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="18"/>
-      <c r="C319" s="103"/>
+      <c r="C319" s="85"/>
       <c r="D319" s="1"/>
       <c r="E319" s="19"/>
     </row>
@@ -4434,11 +4444,11 @@
         <v>54</v>
       </c>
       <c r="B322" s="2"/>
-      <c r="C322" s="74">
+      <c r="C322" s="71">
         <v>44205</v>
       </c>
-      <c r="D322" s="75"/>
-      <c r="E322" s="76"/>
+      <c r="D322" s="72"/>
+      <c r="E322" s="73"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
@@ -4447,54 +4457,54 @@
       <c r="B323" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C323" s="71" t="s">
+      <c r="C323" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D323" s="72"/>
-      <c r="E323" s="73"/>
+      <c r="D323" s="75"/>
+      <c r="E323" s="76"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B324" s="98" t="s">
+      <c r="B324" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C324" s="99"/>
-      <c r="D324" s="99"/>
-      <c r="E324" s="100"/>
+      <c r="C324" s="78"/>
+      <c r="D324" s="78"/>
+      <c r="E324" s="79"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B325" s="98" t="s">
+      <c r="B325" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C325" s="99"/>
-      <c r="D325" s="99"/>
-      <c r="E325" s="100"/>
+      <c r="C325" s="78"/>
+      <c r="D325" s="78"/>
+      <c r="E325" s="79"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B326" s="98" t="s">
+      <c r="B326" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C326" s="99"/>
-      <c r="D326" s="99"/>
-      <c r="E326" s="100"/>
+      <c r="C326" s="78"/>
+      <c r="D326" s="78"/>
+      <c r="E326" s="79"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B327" s="98" t="s">
+      <c r="B327" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C327" s="99"/>
-      <c r="D327" s="99"/>
-      <c r="E327" s="100"/>
+      <c r="C327" s="78"/>
+      <c r="D327" s="78"/>
+      <c r="E327" s="79"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B328" s="89" t="s">
+      <c r="B328" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C328" s="96"/>
-      <c r="D328" s="96"/>
-      <c r="E328" s="97"/>
+      <c r="C328" s="81"/>
+      <c r="D328" s="81"/>
+      <c r="E328" s="82"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
@@ -4549,7 +4559,7 @@
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="8"/>
-      <c r="C333" s="101" t="s">
+      <c r="C333" s="83" t="s">
         <v>117</v>
       </c>
       <c r="D333" s="9" t="s">
@@ -4562,65 +4572,69 @@
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="10"/>
-      <c r="C334" s="102"/>
-      <c r="D334" s="16"/>
-      <c r="E334" s="1"/>
+      <c r="C334" s="84"/>
+      <c r="D334" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="17"/>
       <c r="B335" s="18"/>
-      <c r="C335" s="103"/>
+      <c r="C335" s="85"/>
       <c r="D335" s="1"/>
       <c r="E335" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="C322:E322"/>
-    <mergeCell ref="C323:E323"/>
-    <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B325:E325"/>
-    <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B327:E327"/>
-    <mergeCell ref="B328:E328"/>
-    <mergeCell ref="C333:C335"/>
-    <mergeCell ref="B311:E311"/>
-    <mergeCell ref="B312:E312"/>
-    <mergeCell ref="C317:C319"/>
-    <mergeCell ref="C306:E306"/>
-    <mergeCell ref="C307:E307"/>
-    <mergeCell ref="B308:E308"/>
-    <mergeCell ref="B309:E309"/>
-    <mergeCell ref="B310:E310"/>
-    <mergeCell ref="B293:E293"/>
-    <mergeCell ref="B294:E294"/>
-    <mergeCell ref="C299:C301"/>
-    <mergeCell ref="C288:E288"/>
-    <mergeCell ref="C289:E289"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B279:E279"/>
-    <mergeCell ref="C284:C286"/>
-    <mergeCell ref="D284:D286"/>
-    <mergeCell ref="E284:E286"/>
-    <mergeCell ref="C273:E273"/>
-    <mergeCell ref="C274:E274"/>
-    <mergeCell ref="B275:E275"/>
-    <mergeCell ref="B276:E276"/>
-    <mergeCell ref="B277:E277"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C257:E257"/>
+    <mergeCell ref="C256:E256"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
     <mergeCell ref="D251:D253"/>
     <mergeCell ref="C251:C253"/>
     <mergeCell ref="E251:E253"/>
@@ -4645,52 +4659,52 @@
     <mergeCell ref="B208:E208"/>
     <mergeCell ref="B209:E209"/>
     <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="C257:E257"/>
-    <mergeCell ref="C256:E256"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="D284:D286"/>
+    <mergeCell ref="E284:E286"/>
+    <mergeCell ref="C273:E273"/>
+    <mergeCell ref="C274:E274"/>
+    <mergeCell ref="B275:E275"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="C306:E306"/>
+    <mergeCell ref="C307:E307"/>
+    <mergeCell ref="B308:E308"/>
+    <mergeCell ref="B309:E309"/>
+    <mergeCell ref="B310:E310"/>
+    <mergeCell ref="B293:E293"/>
+    <mergeCell ref="B294:E294"/>
+    <mergeCell ref="C299:C301"/>
+    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="C322:E322"/>
+    <mergeCell ref="C323:E323"/>
+    <mergeCell ref="B324:E324"/>
+    <mergeCell ref="B325:E325"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B327:E327"/>
+    <mergeCell ref="B328:E328"/>
+    <mergeCell ref="C333:C335"/>
+    <mergeCell ref="B311:E311"/>
+    <mergeCell ref="B312:E312"/>
+    <mergeCell ref="C317:C319"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TuringJuniors.xlsx
+++ b/TuringJuniors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\Fortran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Fortran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A58545-6768-4574-9EFF-402AB6954AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64B5613-A6F8-43E9-9806-A505C519761F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{6EEA405C-577D-40A4-8465-872C028E5A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="123">
   <si>
     <t>Sheikh Muhammad Adib</t>
   </si>
@@ -356,9 +356,6 @@
     <t>1 hr 14 min</t>
   </si>
   <si>
-    <t>update the state dagram and main source code</t>
-  </si>
-  <si>
     <t>Project 08 update</t>
   </si>
   <si>
@@ -396,6 +393,18 @@
   </si>
   <si>
     <t>update header and source code for smart lamp, create test code for smart lamp</t>
+  </si>
+  <si>
+    <t>update the state diagram and main source code</t>
+  </si>
+  <si>
+    <t>update the class diagram</t>
+  </si>
+  <si>
+    <t>update header and source code for smart window, create test code for smart window</t>
+  </si>
+  <si>
+    <t>create header and source code for smart window, application and controlhub. create test code for smart window</t>
   </si>
 </sst>
 </file>
@@ -952,6 +961,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -961,14 +979,68 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -979,15 +1051,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,60 +1083,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1844,36 +1853,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69604D8C-2EEB-4458-94A0-BB8037B9E3B4}">
   <dimension ref="A1:F335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G337" sqref="G337"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D319" sqref="D319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.53125" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="5" max="5" width="32.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1881,7 +1890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1897,7 +1906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1905,7 +1914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1913,7 +1922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1921,8 +1930,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="49" t="s">
         <v>10</v>
       </c>
@@ -1932,7 +1941,7 @@
       <c r="E11" s="51"/>
       <c r="F11" s="53"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="52" t="s">
         <v>5</v>
       </c>
@@ -1942,7 +1951,7 @@
       <c r="E12" s="54"/>
       <c r="F12" s="53"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="39"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -1950,7 +1959,7 @@
       <c r="E13" s="41"/>
       <c r="F13" s="40"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="39"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -1958,79 +1967,79 @@
       <c r="E14" s="41"/>
       <c r="F14" s="40"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="98" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="96" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="97"/>
+      <c r="E15" s="86"/>
       <c r="F15" s="40"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="105" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="80" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="100"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="40"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="103" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="101" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="102"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="40"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="105" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="80" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="100"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="40"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="103" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="101" t="s">
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="102"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="40"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="105" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="80" t="s">
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="100"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="40"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="39"/>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
@@ -2038,7 +2047,7 @@
       <c r="E21" s="41"/>
       <c r="F21" s="40"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="39"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -2046,7 +2055,7 @@
       <c r="E22" s="41"/>
       <c r="F22" s="40"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="39"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -2054,7 +2063,7 @@
       <c r="E23" s="41"/>
       <c r="F23" s="40"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="39"/>
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
@@ -2062,7 +2071,7 @@
       <c r="E24" s="41"/>
       <c r="F24" s="40"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="39"/>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
@@ -2070,7 +2079,7 @@
       <c r="E25" s="41"/>
       <c r="F25" s="40"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="39"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
@@ -2078,7 +2087,7 @@
       <c r="E26" s="41"/>
       <c r="F26" s="40"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="39"/>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
@@ -2086,7 +2095,7 @@
       <c r="E27" s="41"/>
       <c r="F27" s="40"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="39"/>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
@@ -2094,7 +2103,7 @@
       <c r="E28" s="41"/>
       <c r="F28" s="40"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="39"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
@@ -2102,7 +2111,7 @@
       <c r="E29" s="41"/>
       <c r="F29" s="40"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="39"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -2110,7 +2119,7 @@
       <c r="E30" s="41"/>
       <c r="F30" s="40"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="39"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -2118,7 +2127,7 @@
       <c r="E31" s="41"/>
       <c r="F31" s="40"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -2126,7 +2135,7 @@
       <c r="E32" s="41"/>
       <c r="F32" s="40"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -2134,7 +2143,7 @@
       <c r="E33" s="41"/>
       <c r="F33" s="40"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -2142,7 +2151,7 @@
       <c r="E34" s="41"/>
       <c r="F34" s="40"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -2150,7 +2159,7 @@
       <c r="E35" s="41"/>
       <c r="F35" s="40"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="39"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -2158,7 +2167,7 @@
       <c r="E36" s="41"/>
       <c r="F36" s="40"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -2166,7 +2175,7 @@
       <c r="E37" s="41"/>
       <c r="F37" s="40"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="39"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -2174,7 +2183,7 @@
       <c r="E38" s="41"/>
       <c r="F38" s="40"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="39"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -2182,7 +2191,7 @@
       <c r="E39" s="41"/>
       <c r="F39" s="40"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="39"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -2190,7 +2199,7 @@
       <c r="E40" s="41"/>
       <c r="F40" s="40"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="39"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -2198,7 +2207,7 @@
       <c r="E41" s="41"/>
       <c r="F41" s="40"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="39"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -2206,7 +2215,7 @@
       <c r="E42" s="41"/>
       <c r="F42" s="40"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="39"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -2214,7 +2223,7 @@
       <c r="E43" s="41"/>
       <c r="F43" s="40"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="39"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -2222,7 +2231,7 @@
       <c r="E44" s="41"/>
       <c r="F44" s="40"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="39"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
@@ -2230,7 +2239,7 @@
       <c r="E45" s="41"/>
       <c r="F45" s="40"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="39"/>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -2238,7 +2247,7 @@
       <c r="E46" s="41"/>
       <c r="F46" s="40"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
@@ -2246,7 +2255,7 @@
       <c r="E47" s="41"/>
       <c r="F47" s="40"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="39"/>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
@@ -2254,7 +2263,7 @@
       <c r="E48" s="41"/>
       <c r="F48" s="40"/>
     </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="42"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
@@ -2262,7 +2271,7 @@
       <c r="E49" s="44"/>
       <c r="F49" s="40"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
@@ -2270,7 +2279,7 @@
       <c r="E50" s="38"/>
       <c r="F50" s="40"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="39" t="s">
         <v>13</v>
       </c>
@@ -2280,7 +2289,7 @@
       <c r="E51" s="41"/>
       <c r="F51" s="40"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="39"/>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
@@ -2288,7 +2297,7 @@
       <c r="E52" s="41"/>
       <c r="F52" s="40"/>
     </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="42"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -2296,7 +2305,7 @@
       <c r="E53" s="44"/>
       <c r="F53" s="40"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="45" t="s">
         <v>8</v>
       </c>
@@ -2306,7 +2315,7 @@
       <c r="E54" s="55"/>
       <c r="F54" s="48"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="47"/>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -2314,7 +2323,7 @@
       <c r="E55" s="56"/>
       <c r="F55" s="48"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="47" t="s">
         <v>11</v>
       </c>
@@ -2324,7 +2333,7 @@
       <c r="E56" s="56"/>
       <c r="F56" s="48"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="39"/>
       <c r="B57" s="40"/>
       <c r="C57" s="40"/>
@@ -2332,7 +2341,7 @@
       <c r="E57" s="41"/>
       <c r="F57" s="40"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="39"/>
       <c r="B58" s="40"/>
       <c r="C58" s="40"/>
@@ -2340,79 +2349,79 @@
       <c r="E58" s="41"/>
       <c r="F58" s="40"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="111" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="109"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="109" t="s">
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="110"/>
+      <c r="E59" s="83"/>
       <c r="F59" s="40"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="94" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="95"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="95" t="s">
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="108"/>
+      <c r="E60" s="80"/>
       <c r="F60" s="40"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="94" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95" t="s">
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="108"/>
+      <c r="E61" s="80"/>
       <c r="F61" s="40"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="94" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="95" t="s">
+      <c r="B62" s="79"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="108"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="40"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="94" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="95" t="s">
+      <c r="B63" s="79"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="108"/>
+      <c r="E63" s="80"/>
       <c r="F63" s="40"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="94" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95" t="s">
+      <c r="B64" s="79"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="108"/>
+      <c r="E64" s="80"/>
       <c r="F64" s="40"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="39"/>
       <c r="B65" s="40"/>
       <c r="C65" s="40"/>
@@ -2420,7 +2429,7 @@
       <c r="E65" s="41"/>
       <c r="F65" s="40"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="39"/>
       <c r="B66" s="40"/>
       <c r="C66" s="40"/>
@@ -2428,7 +2437,7 @@
       <c r="E66" s="41"/>
       <c r="F66" s="40"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="39"/>
       <c r="B67" s="40"/>
       <c r="C67" s="40"/>
@@ -2436,7 +2445,7 @@
       <c r="E67" s="41"/>
       <c r="F67" s="40"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="39"/>
       <c r="B68" s="40"/>
       <c r="C68" s="40"/>
@@ -2444,7 +2453,7 @@
       <c r="E68" s="41"/>
       <c r="F68" s="40"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="39"/>
       <c r="B69" s="40"/>
       <c r="C69" s="40"/>
@@ -2452,7 +2461,7 @@
       <c r="E69" s="41"/>
       <c r="F69" s="40"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="39"/>
       <c r="B70" s="40"/>
       <c r="C70" s="40"/>
@@ -2460,7 +2469,7 @@
       <c r="E70" s="41"/>
       <c r="F70" s="40"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="39"/>
       <c r="B71" s="40"/>
       <c r="C71" s="40"/>
@@ -2468,7 +2477,7 @@
       <c r="E71" s="41"/>
       <c r="F71" s="40"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="39"/>
       <c r="B72" s="40"/>
       <c r="C72" s="40"/>
@@ -2476,7 +2485,7 @@
       <c r="E72" s="41"/>
       <c r="F72" s="40"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="39"/>
       <c r="B73" s="40"/>
       <c r="C73" s="40"/>
@@ -2484,7 +2493,7 @@
       <c r="E73" s="41"/>
       <c r="F73" s="40"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="39"/>
       <c r="B74" s="40"/>
       <c r="C74" s="40"/>
@@ -2492,7 +2501,7 @@
       <c r="E74" s="41"/>
       <c r="F74" s="40"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="39"/>
       <c r="B75" s="40"/>
       <c r="C75" s="40"/>
@@ -2500,7 +2509,7 @@
       <c r="E75" s="41"/>
       <c r="F75" s="40"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="39"/>
       <c r="B76" s="40"/>
       <c r="C76" s="40"/>
@@ -2508,7 +2517,7 @@
       <c r="E76" s="41"/>
       <c r="F76" s="40"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="39"/>
       <c r="B77" s="40"/>
       <c r="C77" s="40"/>
@@ -2516,7 +2525,7 @@
       <c r="E77" s="41"/>
       <c r="F77" s="40"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="39"/>
       <c r="B78" s="40"/>
       <c r="C78" s="40"/>
@@ -2524,7 +2533,7 @@
       <c r="E78" s="41"/>
       <c r="F78" s="40"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="39"/>
       <c r="B79" s="40"/>
       <c r="C79" s="40"/>
@@ -2532,7 +2541,7 @@
       <c r="E79" s="41"/>
       <c r="F79" s="40"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="39"/>
       <c r="B80" s="40"/>
       <c r="C80" s="40"/>
@@ -2540,7 +2549,7 @@
       <c r="E80" s="41"/>
       <c r="F80" s="40"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="39"/>
       <c r="B81" s="40"/>
       <c r="C81" s="40"/>
@@ -2548,7 +2557,7 @@
       <c r="E81" s="41"/>
       <c r="F81" s="40"/>
     </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="42"/>
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
@@ -2556,7 +2565,7 @@
       <c r="E82" s="44"/>
       <c r="F82" s="40"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="36"/>
       <c r="B83" s="37"/>
       <c r="C83" s="37"/>
@@ -2564,7 +2573,7 @@
       <c r="E83" s="38"/>
       <c r="F83" s="40"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="39" t="s">
         <v>37</v>
       </c>
@@ -2574,7 +2583,7 @@
       <c r="E84" s="41"/>
       <c r="F84" s="40"/>
     </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="42"/>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
@@ -2582,7 +2591,7 @@
       <c r="E85" s="44"/>
       <c r="F85" s="40"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="49" t="s">
         <v>24</v>
       </c>
@@ -2592,7 +2601,7 @@
       <c r="E86" s="51"/>
       <c r="F86" s="53"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="52" t="s">
         <v>25</v>
       </c>
@@ -2602,7 +2611,7 @@
       <c r="E87" s="54"/>
       <c r="F87" s="53"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="39"/>
       <c r="B88" s="40"/>
       <c r="C88" s="40"/>
@@ -2610,7 +2619,7 @@
       <c r="E88" s="41"/>
       <c r="F88" s="40"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="39"/>
       <c r="B89" s="40"/>
       <c r="C89" s="40"/>
@@ -2618,79 +2627,79 @@
       <c r="E89" s="41"/>
       <c r="F89" s="40"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="111" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="109"/>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109" t="s">
+      <c r="B90" s="82"/>
+      <c r="C90" s="82"/>
+      <c r="D90" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="110"/>
+      <c r="E90" s="83"/>
       <c r="F90" s="40"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="94" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="95"/>
-      <c r="C91" s="95"/>
-      <c r="D91" s="95" t="s">
+      <c r="B91" s="79"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="108"/>
+      <c r="E91" s="80"/>
       <c r="F91" s="40"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="94" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="95"/>
-      <c r="C92" s="95"/>
-      <c r="D92" s="95" t="s">
+      <c r="B92" s="79"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="108"/>
+      <c r="E92" s="80"/>
       <c r="F92" s="40"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="94" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="95"/>
-      <c r="C93" s="95"/>
-      <c r="D93" s="95" t="s">
+      <c r="B93" s="79"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="108"/>
+      <c r="E93" s="80"/>
       <c r="F93" s="40"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="94" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="95"/>
-      <c r="C94" s="95"/>
-      <c r="D94" s="95" t="s">
+      <c r="B94" s="79"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E94" s="108"/>
+      <c r="E94" s="80"/>
       <c r="F94" s="40"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="94" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="95"/>
-      <c r="C95" s="95"/>
-      <c r="D95" s="95" t="s">
+      <c r="B95" s="79"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="E95" s="108"/>
+      <c r="E95" s="80"/>
       <c r="F95" s="40"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="39"/>
       <c r="B96" s="40"/>
       <c r="C96" s="40"/>
@@ -2698,7 +2707,7 @@
       <c r="E96" s="41"/>
       <c r="F96" s="40"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="39"/>
       <c r="B97" s="40"/>
       <c r="C97" s="40"/>
@@ -2706,7 +2715,7 @@
       <c r="E97" s="41"/>
       <c r="F97" s="40"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="39"/>
       <c r="B98" s="40"/>
       <c r="C98" s="40"/>
@@ -2714,7 +2723,7 @@
       <c r="E98" s="41"/>
       <c r="F98" s="40"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="39"/>
       <c r="B99" s="40"/>
       <c r="C99" s="40"/>
@@ -2722,7 +2731,7 @@
       <c r="E99" s="41"/>
       <c r="F99" s="40"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="39"/>
       <c r="B100" s="40"/>
       <c r="C100" s="40"/>
@@ -2730,7 +2739,7 @@
       <c r="E100" s="41"/>
       <c r="F100" s="40"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="39"/>
       <c r="B101" s="40"/>
       <c r="C101" s="40"/>
@@ -2738,7 +2747,7 @@
       <c r="E101" s="41"/>
       <c r="F101" s="40"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="39"/>
       <c r="B102" s="40"/>
       <c r="C102" s="40"/>
@@ -2746,7 +2755,7 @@
       <c r="E102" s="41"/>
       <c r="F102" s="40"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="39"/>
       <c r="B103" s="40"/>
       <c r="C103" s="40"/>
@@ -2754,7 +2763,7 @@
       <c r="E103" s="41"/>
       <c r="F103" s="40"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="39"/>
       <c r="B104" s="40"/>
       <c r="C104" s="40"/>
@@ -2762,7 +2771,7 @@
       <c r="E104" s="41"/>
       <c r="F104" s="40"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="39"/>
       <c r="B105" s="40"/>
       <c r="C105" s="40"/>
@@ -2770,7 +2779,7 @@
       <c r="E105" s="41"/>
       <c r="F105" s="40"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="39"/>
       <c r="B106" s="40"/>
       <c r="C106" s="40"/>
@@ -2778,7 +2787,7 @@
       <c r="E106" s="41"/>
       <c r="F106" s="40"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="39"/>
       <c r="B107" s="40"/>
       <c r="C107" s="40"/>
@@ -2786,7 +2795,7 @@
       <c r="E107" s="41"/>
       <c r="F107" s="40"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="39"/>
       <c r="B108" s="40"/>
       <c r="C108" s="40"/>
@@ -2794,7 +2803,7 @@
       <c r="E108" s="41"/>
       <c r="F108" s="40"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="39"/>
       <c r="B109" s="40"/>
       <c r="C109" s="40"/>
@@ -2802,7 +2811,7 @@
       <c r="E109" s="41"/>
       <c r="F109" s="40"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="39"/>
       <c r="B110" s="40"/>
       <c r="C110" s="40"/>
@@ -2810,7 +2819,7 @@
       <c r="E110" s="41"/>
       <c r="F110" s="40"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="39"/>
       <c r="B111" s="40"/>
       <c r="C111" s="40"/>
@@ -2818,7 +2827,7 @@
       <c r="E111" s="41"/>
       <c r="F111" s="40"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="39"/>
       <c r="B112" s="40"/>
       <c r="C112" s="40"/>
@@ -2826,7 +2835,7 @@
       <c r="E112" s="41"/>
       <c r="F112" s="40"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="39"/>
       <c r="B113" s="40"/>
       <c r="C113" s="40"/>
@@ -2834,7 +2843,7 @@
       <c r="E113" s="41"/>
       <c r="F113" s="40"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="39"/>
       <c r="B114" s="40"/>
       <c r="C114" s="40"/>
@@ -2842,7 +2851,7 @@
       <c r="E114" s="41"/>
       <c r="F114" s="40"/>
     </row>
-    <row r="115" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="42"/>
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
@@ -2850,14 +2859,14 @@
       <c r="E115" s="44"/>
       <c r="F115" s="40"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="36"/>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
       <c r="D116" s="37"/>
       <c r="E116" s="38"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="39" t="s">
         <v>34</v>
       </c>
@@ -2866,7 +2875,7 @@
       <c r="D117" s="40"/>
       <c r="E117" s="41"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="39"/>
       <c r="B118" s="40"/>
       <c r="C118" s="40" t="s">
@@ -2875,7 +2884,7 @@
       <c r="D118" s="40"/>
       <c r="E118" s="41"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="39"/>
       <c r="B119" s="40"/>
       <c r="C119" s="40" t="s">
@@ -2884,7 +2893,7 @@
       <c r="D119" s="40"/>
       <c r="E119" s="41"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="39"/>
       <c r="B120" s="40"/>
       <c r="C120" s="40" t="s">
@@ -2893,21 +2902,21 @@
       <c r="D120" s="40"/>
       <c r="E120" s="41"/>
     </row>
-    <row r="121" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A121" s="42"/>
       <c r="B121" s="43"/>
       <c r="C121" s="43"/>
       <c r="D121" s="43"/>
       <c r="E121" s="44"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="36"/>
       <c r="B122" s="37"/>
       <c r="C122" s="37"/>
       <c r="D122" s="37"/>
       <c r="E122" s="38"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="39" t="s">
         <v>49</v>
       </c>
@@ -2918,7 +2927,7 @@
       <c r="D123" s="40"/>
       <c r="E123" s="41"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="39"/>
       <c r="B124" s="40"/>
       <c r="C124" s="40" t="s">
@@ -2927,63 +2936,63 @@
       <c r="D124" s="40"/>
       <c r="E124" s="41"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="39"/>
       <c r="B125" s="40"/>
       <c r="C125" s="40"/>
       <c r="D125" s="40"/>
       <c r="E125" s="41"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="39"/>
       <c r="B126" s="40"/>
       <c r="C126" s="40"/>
       <c r="D126" s="40"/>
       <c r="E126" s="41"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="39"/>
       <c r="B127" s="40"/>
       <c r="C127" s="40"/>
       <c r="D127" s="40"/>
       <c r="E127" s="41"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="39"/>
       <c r="B128" s="40"/>
       <c r="C128" s="40"/>
       <c r="D128" s="40"/>
       <c r="E128" s="41"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="39"/>
       <c r="B129" s="40"/>
       <c r="C129" s="40"/>
       <c r="D129" s="40"/>
       <c r="E129" s="41"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="39"/>
       <c r="B130" s="40"/>
       <c r="C130" s="40"/>
       <c r="D130" s="40"/>
       <c r="E130" s="41"/>
     </row>
-    <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A131" s="42"/>
       <c r="B131" s="43"/>
       <c r="C131" s="43"/>
       <c r="D131" s="43"/>
       <c r="E131" s="44"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="36"/>
       <c r="B132" s="37"/>
       <c r="C132" s="37"/>
       <c r="D132" s="37"/>
       <c r="E132" s="38"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="39" t="s">
         <v>39</v>
       </c>
@@ -2994,14 +3003,14 @@
       <c r="D133" s="40"/>
       <c r="E133" s="41"/>
     </row>
-    <row r="134" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A134" s="42"/>
       <c r="B134" s="43"/>
       <c r="C134" s="43"/>
       <c r="D134" s="43"/>
       <c r="E134" s="44"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="36" t="s">
         <v>47</v>
       </c>
@@ -3010,14 +3019,14 @@
       <c r="D135" s="37"/>
       <c r="E135" s="38"/>
     </row>
-    <row r="136" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A136" s="42"/>
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
       <c r="D136" s="43"/>
       <c r="E136" s="44"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="36" t="s">
         <v>48</v>
       </c>
@@ -3026,14 +3035,14 @@
       <c r="D137" s="37"/>
       <c r="E137" s="38"/>
     </row>
-    <row r="138" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="42"/>
       <c r="B138" s="43"/>
       <c r="C138" s="43"/>
       <c r="D138" s="43"/>
       <c r="E138" s="44"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="36" t="s">
         <v>52</v>
       </c>
@@ -3042,14 +3051,14 @@
       <c r="D139" s="37"/>
       <c r="E139" s="38"/>
     </row>
-    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A140" s="42"/>
       <c r="B140" s="43"/>
       <c r="C140" s="43"/>
       <c r="D140" s="43"/>
       <c r="E140" s="44"/>
     </row>
-    <row r="141" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A141" s="57" t="s">
         <v>53</v>
       </c>
@@ -3058,74 +3067,74 @@
       <c r="D141" s="58"/>
       <c r="E141" s="59"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="71">
+      <c r="C172" s="74">
         <v>44163</v>
       </c>
-      <c r="D172" s="72"/>
-      <c r="E172" s="73"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D172" s="75"/>
+      <c r="E172" s="76"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="74" t="s">
+      <c r="C173" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="75"/>
-      <c r="E173" s="76"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D173" s="72"/>
+      <c r="E173" s="73"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B174" s="77" t="s">
+      <c r="B174" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="78"/>
-      <c r="D174" s="78"/>
-      <c r="E174" s="79"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B175" s="77" t="s">
+      <c r="C174" s="99"/>
+      <c r="D174" s="99"/>
+      <c r="E174" s="100"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B175" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="78"/>
-      <c r="D175" s="78"/>
-      <c r="E175" s="79"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B176" s="77" t="s">
+      <c r="C175" s="99"/>
+      <c r="D175" s="99"/>
+      <c r="E175" s="100"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B176" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C176" s="78"/>
-      <c r="D176" s="78"/>
-      <c r="E176" s="79"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B177" s="77" t="s">
+      <c r="C176" s="99"/>
+      <c r="D176" s="99"/>
+      <c r="E176" s="100"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B177" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="78"/>
-      <c r="D177" s="78"/>
-      <c r="E177" s="79"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B178" s="80" t="s">
+      <c r="C177" s="99"/>
+      <c r="D177" s="99"/>
+      <c r="E177" s="100"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B178" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C178" s="81"/>
-      <c r="D178" s="81"/>
-      <c r="E178" s="82"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C178" s="96"/>
+      <c r="D178" s="96"/>
+      <c r="E178" s="97"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>60</v>
       </c>
@@ -3136,7 +3145,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>62</v>
       </c>
@@ -3147,7 +3156,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>64</v>
       </c>
@@ -3158,7 +3167,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>65</v>
       </c>
@@ -3175,44 +3184,44 @@
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>1</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="89" t="s">
+      <c r="C183" s="107" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E183" s="92" t="s">
+      <c r="E183" s="110" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>2</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C184" s="90"/>
+      <c r="C184" s="108"/>
       <c r="D184" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="93"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E184" s="111"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" s="11">
         <v>3</v>
       </c>
       <c r="B185" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="90"/>
+      <c r="C185" s="108"/>
       <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
@@ -3220,10 +3229,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" s="14"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="91"/>
+      <c r="C186" s="109"/>
       <c r="D186" s="1" t="s">
         <v>76</v>
       </c>
@@ -3231,7 +3240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" s="60">
         <v>4</v>
       </c>
@@ -3245,74 +3254,74 @@
         <v>58</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="71">
+      <c r="C190" s="74">
         <v>44164</v>
       </c>
-      <c r="D190" s="72"/>
-      <c r="E190" s="73"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D190" s="75"/>
+      <c r="E190" s="76"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C191" s="74" t="s">
+      <c r="C191" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="D191" s="75"/>
-      <c r="E191" s="76"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D191" s="72"/>
+      <c r="E191" s="73"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B192" s="77" t="s">
+      <c r="B192" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C192" s="78"/>
-      <c r="D192" s="78"/>
-      <c r="E192" s="79"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="77" t="s">
+      <c r="C192" s="99"/>
+      <c r="D192" s="99"/>
+      <c r="E192" s="100"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B193" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="78"/>
-      <c r="D193" s="78"/>
-      <c r="E193" s="79"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="77" t="s">
+      <c r="C193" s="99"/>
+      <c r="D193" s="99"/>
+      <c r="E193" s="100"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B194" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C194" s="78"/>
-      <c r="D194" s="78"/>
-      <c r="E194" s="79"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="77" t="s">
+      <c r="C194" s="99"/>
+      <c r="D194" s="99"/>
+      <c r="E194" s="100"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B195" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C195" s="78"/>
-      <c r="D195" s="78"/>
-      <c r="E195" s="79"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B196" s="80" t="s">
+      <c r="C195" s="99"/>
+      <c r="D195" s="99"/>
+      <c r="E195" s="100"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B196" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C196" s="81"/>
-      <c r="D196" s="81"/>
-      <c r="E196" s="82"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C196" s="96"/>
+      <c r="D196" s="96"/>
+      <c r="E196" s="97"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>60</v>
       </c>
@@ -3323,7 +3332,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>62</v>
       </c>
@@ -3334,7 +3343,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>64</v>
       </c>
@@ -3345,7 +3354,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>65</v>
       </c>
@@ -3362,14 +3371,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>1</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="83" t="s">
+      <c r="C201" s="101" t="s">
         <v>80</v>
       </c>
       <c r="D201" s="9" t="s">
@@ -3379,14 +3388,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="47.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>2</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C202" s="84"/>
+      <c r="C202" s="102"/>
       <c r="D202" s="16" t="s">
         <v>72</v>
       </c>
@@ -3394,14 +3403,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="53.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="17">
         <v>3</v>
       </c>
       <c r="B203" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C203" s="85"/>
+      <c r="C203" s="103"/>
       <c r="D203" s="1" t="s">
         <v>72</v>
       </c>
@@ -3409,18 +3418,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206" s="71">
+      <c r="C206" s="74">
         <v>44165</v>
       </c>
-      <c r="D206" s="72"/>
-      <c r="E206" s="73"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D206" s="75"/>
+      <c r="E206" s="76"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>55</v>
       </c>
@@ -3429,46 +3438,46 @@
       <c r="D207" s="30"/>
       <c r="E207" s="31"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B208" s="80" t="s">
+      <c r="B208" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C208" s="81"/>
-      <c r="D208" s="81"/>
-      <c r="E208" s="82"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B209" s="80" t="s">
+      <c r="C208" s="96"/>
+      <c r="D208" s="96"/>
+      <c r="E208" s="97"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B209" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="81"/>
-      <c r="D209" s="81"/>
-      <c r="E209" s="82"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B210" s="80" t="s">
+      <c r="C209" s="96"/>
+      <c r="D209" s="96"/>
+      <c r="E209" s="97"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B210" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="C210" s="81"/>
-      <c r="D210" s="81"/>
-      <c r="E210" s="82"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="80"/>
-      <c r="C211" s="81"/>
-      <c r="D211" s="81"/>
-      <c r="E211" s="82"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="80"/>
-      <c r="C212" s="81"/>
-      <c r="D212" s="81"/>
-      <c r="E212" s="82"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C210" s="96"/>
+      <c r="D210" s="96"/>
+      <c r="E210" s="97"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B211" s="89"/>
+      <c r="C211" s="96"/>
+      <c r="D211" s="96"/>
+      <c r="E211" s="97"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B212" s="89"/>
+      <c r="C212" s="96"/>
+      <c r="D212" s="96"/>
+      <c r="E212" s="97"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>60</v>
       </c>
@@ -3477,7 +3486,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>62</v>
       </c>
@@ -3488,7 +3497,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>64</v>
       </c>
@@ -3499,7 +3508,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>65</v>
       </c>
@@ -3516,99 +3525,99 @@
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" s="1"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="83" t="s">
+      <c r="C217" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="D217" s="83" t="s">
+      <c r="D217" s="101" t="s">
         <v>90</v>
       </c>
       <c r="E217" s="32"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" s="1"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="84"/>
-      <c r="D218" s="84"/>
+      <c r="C218" s="102"/>
+      <c r="D218" s="102"/>
       <c r="E218" s="33"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
-      <c r="C219" s="85"/>
-      <c r="D219" s="85"/>
+      <c r="C219" s="103"/>
+      <c r="D219" s="103"/>
       <c r="E219" s="34"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224" s="71">
+      <c r="C224" s="74">
         <v>44171</v>
       </c>
-      <c r="D224" s="72"/>
-      <c r="E224" s="73"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D224" s="75"/>
+      <c r="E224" s="76"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="74" t="s">
+      <c r="C225" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D225" s="75"/>
-      <c r="E225" s="76"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D225" s="72"/>
+      <c r="E225" s="73"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B226" s="77" t="s">
+      <c r="B226" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="78"/>
-      <c r="D226" s="78"/>
-      <c r="E226" s="79"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B227" s="77" t="s">
+      <c r="C226" s="99"/>
+      <c r="D226" s="99"/>
+      <c r="E226" s="100"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B227" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="78"/>
-      <c r="D227" s="78"/>
-      <c r="E227" s="79"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B228" s="77" t="s">
+      <c r="C227" s="99"/>
+      <c r="D227" s="99"/>
+      <c r="E227" s="100"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B228" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C228" s="78"/>
-      <c r="D228" s="78"/>
-      <c r="E228" s="79"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B229" s="77" t="s">
+      <c r="C228" s="99"/>
+      <c r="D228" s="99"/>
+      <c r="E228" s="100"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B229" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C229" s="78"/>
-      <c r="D229" s="78"/>
-      <c r="E229" s="79"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B230" s="80" t="s">
+      <c r="C229" s="99"/>
+      <c r="D229" s="99"/>
+      <c r="E229" s="100"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B230" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C230" s="81"/>
-      <c r="D230" s="81"/>
-      <c r="E230" s="82"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C230" s="96"/>
+      <c r="D230" s="96"/>
+      <c r="E230" s="97"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,7 +3628,7 @@
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>62</v>
       </c>
@@ -3630,7 +3639,7 @@
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>64</v>
       </c>
@@ -3641,7 +3650,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>65</v>
       </c>
@@ -3658,10 +3667,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" s="1"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="83" t="s">
+      <c r="C235" s="101" t="s">
         <v>85</v>
       </c>
       <c r="D235" s="9" t="s">
@@ -3671,10 +3680,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" s="1"/>
       <c r="B236" s="10"/>
-      <c r="C236" s="84"/>
+      <c r="C236" s="102"/>
       <c r="D236" s="16" t="s">
         <v>92</v>
       </c>
@@ -3682,10 +3691,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
-      <c r="C237" s="85"/>
+      <c r="C237" s="103"/>
       <c r="D237" s="1" t="s">
         <v>92</v>
       </c>
@@ -3693,7 +3702,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D238" s="60" t="s">
         <v>98</v>
       </c>
@@ -3701,7 +3710,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D239" s="60" t="s">
         <v>103</v>
       </c>
@@ -3709,68 +3718,68 @@
         <v>104</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240" s="71">
+      <c r="C240" s="74">
         <v>44172</v>
       </c>
-      <c r="D240" s="72"/>
-      <c r="E240" s="73"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D240" s="75"/>
+      <c r="E240" s="76"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B241" s="3"/>
-      <c r="C241" s="74"/>
-      <c r="D241" s="75"/>
-      <c r="E241" s="76"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C241" s="71"/>
+      <c r="D241" s="72"/>
+      <c r="E241" s="73"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B242" s="80" t="s">
+      <c r="B242" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C242" s="81"/>
-      <c r="D242" s="81"/>
-      <c r="E242" s="82"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B243" s="80" t="s">
+      <c r="C242" s="96"/>
+      <c r="D242" s="96"/>
+      <c r="E242" s="97"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B243" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="C243" s="81"/>
-      <c r="D243" s="81"/>
-      <c r="E243" s="82"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B244" s="80" t="s">
+      <c r="C243" s="96"/>
+      <c r="D243" s="96"/>
+      <c r="E243" s="97"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B244" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="C244" s="81"/>
-      <c r="D244" s="81"/>
-      <c r="E244" s="82"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B245" s="80" t="s">
+      <c r="C244" s="96"/>
+      <c r="D244" s="96"/>
+      <c r="E244" s="97"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B245" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="C245" s="81"/>
-      <c r="D245" s="81"/>
-      <c r="E245" s="82"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B246" s="80"/>
-      <c r="C246" s="81"/>
-      <c r="D246" s="81"/>
-      <c r="E246" s="82"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C245" s="96"/>
+      <c r="D245" s="96"/>
+      <c r="E245" s="97"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B246" s="89"/>
+      <c r="C246" s="96"/>
+      <c r="D246" s="96"/>
+      <c r="E246" s="97"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,7 +3788,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>62</v>
       </c>
@@ -3790,7 +3799,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>64</v>
       </c>
@@ -3801,7 +3810,7 @@
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>65</v>
       </c>
@@ -3818,56 +3827,56 @@
         <v>69</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251" s="1"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="83" t="s">
+      <c r="C251" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="D251" s="83" t="s">
+      <c r="D251" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="E251" s="86"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E251" s="104"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252" s="1"/>
       <c r="B252" s="10"/>
-      <c r="C252" s="84"/>
-      <c r="D252" s="84"/>
-      <c r="E252" s="87"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C252" s="102"/>
+      <c r="D252" s="102"/>
+      <c r="E252" s="105"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253" s="17"/>
       <c r="B253" s="18"/>
-      <c r="C253" s="85"/>
-      <c r="D253" s="85"/>
-      <c r="E253" s="88"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C253" s="103"/>
+      <c r="D253" s="103"/>
+      <c r="E253" s="106"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="71">
+      <c r="C256" s="74">
         <v>44178</v>
       </c>
-      <c r="D256" s="72"/>
-      <c r="E256" s="73"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D256" s="75"/>
+      <c r="E256" s="76"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C257" s="74" t="s">
+      <c r="C257" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D257" s="75"/>
-      <c r="E257" s="76"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D257" s="72"/>
+      <c r="E257" s="73"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>57</v>
       </c>
@@ -3878,7 +3887,7 @@
       <c r="D258" s="21"/>
       <c r="E258" s="22"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B259" s="20" t="s">
         <v>58</v>
       </c>
@@ -3886,7 +3895,7 @@
       <c r="D259" s="21"/>
       <c r="E259" s="22"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B260" s="20" t="s">
         <v>59</v>
       </c>
@@ -3894,7 +3903,7 @@
       <c r="D260" s="21"/>
       <c r="E260" s="22"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B261" s="20" t="s">
         <v>101</v>
       </c>
@@ -3902,13 +3911,13 @@
       <c r="D261" s="21"/>
       <c r="E261" s="22"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B262" s="23"/>
       <c r="C262" s="24"/>
       <c r="D262" s="24"/>
       <c r="E262" s="25"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>60</v>
       </c>
@@ -3917,7 +3926,7 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>62</v>
       </c>
@@ -3928,7 +3937,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>64</v>
       </c>
@@ -3939,7 +3948,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>65</v>
       </c>
@@ -3956,7 +3965,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" s="1"/>
       <c r="B267" s="8"/>
       <c r="C267" s="26" t="s">
@@ -3969,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" s="1"/>
       <c r="B268" s="10"/>
       <c r="C268" s="27"/>
@@ -3980,7 +3989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" s="17"/>
       <c r="B269" s="18"/>
       <c r="C269" s="28"/>
@@ -3991,7 +4000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D270" s="60" t="s">
         <v>97</v>
       </c>
@@ -3999,7 +4008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D271" s="60" t="s">
         <v>102</v>
       </c>
@@ -4007,66 +4016,66 @@
         <v>101</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273" s="71">
+      <c r="C273" s="74">
         <v>44179</v>
       </c>
-      <c r="D273" s="72"/>
-      <c r="E273" s="73"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D273" s="75"/>
+      <c r="E273" s="76"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B274" s="3"/>
-      <c r="C274" s="74"/>
-      <c r="D274" s="75"/>
-      <c r="E274" s="76"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C274" s="71"/>
+      <c r="D274" s="72"/>
+      <c r="E274" s="73"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B275" s="80" t="s">
+      <c r="B275" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C275" s="81"/>
-      <c r="D275" s="81"/>
-      <c r="E275" s="82"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B276" s="80" t="s">
+      <c r="C275" s="96"/>
+      <c r="D275" s="96"/>
+      <c r="E275" s="97"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B276" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="C276" s="81"/>
-      <c r="D276" s="81"/>
-      <c r="E276" s="82"/>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B277" s="80" t="s">
+      <c r="C276" s="96"/>
+      <c r="D276" s="96"/>
+      <c r="E276" s="97"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B277" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="C277" s="81"/>
-      <c r="D277" s="81"/>
-      <c r="E277" s="82"/>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B278" s="80"/>
-      <c r="C278" s="81"/>
-      <c r="D278" s="81"/>
-      <c r="E278" s="82"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B279" s="80"/>
-      <c r="C279" s="81"/>
-      <c r="D279" s="81"/>
-      <c r="E279" s="82"/>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C277" s="96"/>
+      <c r="D277" s="96"/>
+      <c r="E277" s="97"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B278" s="89"/>
+      <c r="C278" s="96"/>
+      <c r="D278" s="96"/>
+      <c r="E278" s="97"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B279" s="89"/>
+      <c r="C279" s="96"/>
+      <c r="D279" s="96"/>
+      <c r="E279" s="97"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
         <v>60</v>
       </c>
@@ -4075,7 +4084,7 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>62</v>
       </c>
@@ -4086,7 +4095,7 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>64</v>
       </c>
@@ -4097,7 +4106,7 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>65</v>
       </c>
@@ -4114,95 +4123,95 @@
         <v>69</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284" s="1"/>
       <c r="B284" s="8"/>
-      <c r="C284" s="83"/>
-      <c r="D284" s="83"/>
-      <c r="E284" s="86"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C284" s="101"/>
+      <c r="D284" s="101"/>
+      <c r="E284" s="104"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285" s="1"/>
       <c r="B285" s="10"/>
-      <c r="C285" s="84"/>
-      <c r="D285" s="84"/>
-      <c r="E285" s="87"/>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C285" s="102"/>
+      <c r="D285" s="102"/>
+      <c r="E285" s="105"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286" s="17"/>
       <c r="B286" s="18"/>
-      <c r="C286" s="85"/>
-      <c r="D286" s="85"/>
-      <c r="E286" s="88"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C286" s="103"/>
+      <c r="D286" s="103"/>
+      <c r="E286" s="106"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288" s="71">
+      <c r="C288" s="74">
         <v>44185</v>
       </c>
-      <c r="D288" s="72"/>
-      <c r="E288" s="73"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D288" s="75"/>
+      <c r="E288" s="76"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C289" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="D289" s="75"/>
-      <c r="E289" s="76"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C289" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="D289" s="72"/>
+      <c r="E289" s="73"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B290" s="77" t="s">
+      <c r="B290" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C290" s="78"/>
-      <c r="D290" s="78"/>
-      <c r="E290" s="79"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B291" s="77" t="s">
+      <c r="C290" s="99"/>
+      <c r="D290" s="99"/>
+      <c r="E290" s="100"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B291" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C291" s="78"/>
-      <c r="D291" s="78"/>
-      <c r="E291" s="79"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B292" s="77" t="s">
+      <c r="C291" s="99"/>
+      <c r="D291" s="99"/>
+      <c r="E291" s="100"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B292" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C292" s="78"/>
-      <c r="D292" s="78"/>
-      <c r="E292" s="79"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B293" s="77" t="s">
+      <c r="C292" s="99"/>
+      <c r="D292" s="99"/>
+      <c r="E292" s="100"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B293" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C293" s="78"/>
-      <c r="D293" s="78"/>
-      <c r="E293" s="79"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B294" s="80" t="s">
+      <c r="C293" s="99"/>
+      <c r="D293" s="99"/>
+      <c r="E293" s="100"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B294" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C294" s="81"/>
-      <c r="D294" s="81"/>
-      <c r="E294" s="82"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C294" s="96"/>
+      <c r="D294" s="96"/>
+      <c r="E294" s="97"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295" s="1" t="s">
         <v>60</v>
       </c>
@@ -4213,7 +4222,7 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A296" s="1" t="s">
         <v>62</v>
       </c>
@@ -4224,7 +4233,7 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A297" s="1" t="s">
         <v>64</v>
       </c>
@@ -4235,12 +4244,12 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B298" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C298" s="64" t="s">
         <v>67</v>
@@ -4252,113 +4261,117 @@
         <v>69</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A299" s="1"/>
       <c r="B299" s="8"/>
-      <c r="C299" s="83" t="s">
-        <v>108</v>
+      <c r="C299" s="101" t="s">
+        <v>107</v>
       </c>
       <c r="D299" s="9" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E299" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A300" s="1"/>
       <c r="B300" s="10"/>
-      <c r="C300" s="84"/>
+      <c r="C300" s="102"/>
       <c r="D300" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E300" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E300" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A301" s="17"/>
       <c r="B301" s="18"/>
-      <c r="C301" s="85"/>
-      <c r="D301" s="1"/>
-      <c r="E301" s="19"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C301" s="103"/>
+      <c r="D301" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E301" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D302" s="60"/>
       <c r="E302" s="61"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D303" s="60"/>
       <c r="E303" s="61"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B306" s="2"/>
-      <c r="C306" s="71">
+      <c r="C306" s="74">
         <v>44199</v>
       </c>
-      <c r="D306" s="72"/>
-      <c r="E306" s="73"/>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D306" s="75"/>
+      <c r="E306" s="76"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C307" s="74" t="s">
+      <c r="C307" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D307" s="75"/>
-      <c r="E307" s="76"/>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D307" s="72"/>
+      <c r="E307" s="73"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B308" s="77" t="s">
+      <c r="B308" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C308" s="78"/>
-      <c r="D308" s="78"/>
-      <c r="E308" s="79"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B309" s="77" t="s">
+      <c r="C308" s="99"/>
+      <c r="D308" s="99"/>
+      <c r="E308" s="100"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B309" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C309" s="78"/>
-      <c r="D309" s="78"/>
-      <c r="E309" s="79"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B310" s="77" t="s">
+      <c r="C309" s="99"/>
+      <c r="D309" s="99"/>
+      <c r="E309" s="100"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B310" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C310" s="78"/>
-      <c r="D310" s="78"/>
-      <c r="E310" s="79"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B311" s="77" t="s">
+      <c r="C310" s="99"/>
+      <c r="D310" s="99"/>
+      <c r="E310" s="100"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B311" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C311" s="78"/>
-      <c r="D311" s="78"/>
-      <c r="E311" s="79"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B312" s="80" t="s">
+      <c r="C311" s="99"/>
+      <c r="D311" s="99"/>
+      <c r="E311" s="100"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B312" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C312" s="81"/>
-      <c r="D312" s="81"/>
-      <c r="E312" s="82"/>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C312" s="96"/>
+      <c r="D312" s="96"/>
+      <c r="E312" s="97"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313" s="1" t="s">
         <v>60</v>
       </c>
@@ -4369,7 +4382,7 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A314" s="1" t="s">
         <v>62</v>
       </c>
@@ -4380,7 +4393,7 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315" s="1" t="s">
         <v>64</v>
       </c>
@@ -4391,12 +4404,12 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A316" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B316" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C316" s="67" t="s">
         <v>67</v>
@@ -4408,105 +4421,109 @@
         <v>69</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A317" s="1"/>
       <c r="B317" s="8"/>
-      <c r="C317" s="83" t="s">
+      <c r="C317" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="D317" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="D317" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="E317" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A318" s="1"/>
       <c r="B318" s="10"/>
-      <c r="C318" s="84"/>
+      <c r="C318" s="102"/>
       <c r="D318" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A319" s="17"/>
       <c r="B319" s="18"/>
-      <c r="C319" s="85"/>
-      <c r="D319" s="1"/>
-      <c r="E319" s="19"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C319" s="103"/>
+      <c r="D319" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E319" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A322" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B322" s="2"/>
-      <c r="C322" s="71">
+      <c r="C322" s="74">
         <v>44205</v>
       </c>
-      <c r="D322" s="72"/>
-      <c r="E322" s="73"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D322" s="75"/>
+      <c r="E322" s="76"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A323" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C323" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="D323" s="75"/>
-      <c r="E323" s="76"/>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C323" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="D323" s="72"/>
+      <c r="E323" s="73"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B324" s="77" t="s">
+      <c r="B324" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C324" s="78"/>
-      <c r="D324" s="78"/>
-      <c r="E324" s="79"/>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B325" s="77" t="s">
+      <c r="C324" s="99"/>
+      <c r="D324" s="99"/>
+      <c r="E324" s="100"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B325" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C325" s="78"/>
-      <c r="D325" s="78"/>
-      <c r="E325" s="79"/>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B326" s="77" t="s">
+      <c r="C325" s="99"/>
+      <c r="D325" s="99"/>
+      <c r="E325" s="100"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B326" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C326" s="78"/>
-      <c r="D326" s="78"/>
-      <c r="E326" s="79"/>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B327" s="77" t="s">
+      <c r="C326" s="99"/>
+      <c r="D326" s="99"/>
+      <c r="E326" s="100"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B327" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C327" s="78"/>
-      <c r="D327" s="78"/>
-      <c r="E327" s="79"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B328" s="80" t="s">
+      <c r="C327" s="99"/>
+      <c r="D327" s="99"/>
+      <c r="E327" s="100"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B328" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C328" s="81"/>
-      <c r="D328" s="81"/>
-      <c r="E328" s="82"/>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C328" s="96"/>
+      <c r="D328" s="96"/>
+      <c r="E328" s="97"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
         <v>60</v>
       </c>
@@ -4517,7 +4534,7 @@
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
         <v>62</v>
       </c>
@@ -4528,7 +4545,7 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
         <v>64</v>
       </c>
@@ -4539,12 +4556,12 @@
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B332" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C332" s="70" t="s">
         <v>67</v>
@@ -4556,39 +4573,135 @@
         <v>69</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333" s="1"/>
       <c r="B333" s="8"/>
-      <c r="C333" s="83" t="s">
-        <v>117</v>
+      <c r="C333" s="101" t="s">
+        <v>116</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E333" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A334" s="1"/>
       <c r="B334" s="10"/>
-      <c r="C334" s="84"/>
+      <c r="C334" s="102"/>
       <c r="D334" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A335" s="17"/>
       <c r="B335" s="18"/>
-      <c r="C335" s="85"/>
-      <c r="D335" s="1"/>
-      <c r="E335" s="19"/>
+      <c r="C335" s="103"/>
+      <c r="D335" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E335" s="19" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="116">
+    <mergeCell ref="C322:E322"/>
+    <mergeCell ref="C323:E323"/>
+    <mergeCell ref="B324:E324"/>
+    <mergeCell ref="B325:E325"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B327:E327"/>
+    <mergeCell ref="B328:E328"/>
+    <mergeCell ref="C333:C335"/>
+    <mergeCell ref="B311:E311"/>
+    <mergeCell ref="B312:E312"/>
+    <mergeCell ref="C317:C319"/>
+    <mergeCell ref="C306:E306"/>
+    <mergeCell ref="C307:E307"/>
+    <mergeCell ref="B308:E308"/>
+    <mergeCell ref="B309:E309"/>
+    <mergeCell ref="B310:E310"/>
+    <mergeCell ref="B293:E293"/>
+    <mergeCell ref="B294:E294"/>
+    <mergeCell ref="C299:C301"/>
+    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="B290:E290"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B279:E279"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="D284:D286"/>
+    <mergeCell ref="E284:E286"/>
+    <mergeCell ref="C273:E273"/>
+    <mergeCell ref="C274:E274"/>
+    <mergeCell ref="B275:E275"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="D251:D253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="C240:E240"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="B229:E229"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="C241:E241"/>
+    <mergeCell ref="B246:E246"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:E244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="B228:E228"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="C172:E172"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="C257:E257"/>
     <mergeCell ref="C256:E256"/>
     <mergeCell ref="A1:E2"/>
@@ -4613,98 +4726,6 @@
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:E244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="B228:E228"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D251:D253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="E251:E253"/>
-    <mergeCell ref="C240:E240"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="B229:E229"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="C224:E224"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="B226:E226"/>
-    <mergeCell ref="B227:E227"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="C241:E241"/>
-    <mergeCell ref="B246:E246"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="C172:E172"/>
-    <mergeCell ref="C173:E173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B279:E279"/>
-    <mergeCell ref="C284:C286"/>
-    <mergeCell ref="D284:D286"/>
-    <mergeCell ref="E284:E286"/>
-    <mergeCell ref="C273:E273"/>
-    <mergeCell ref="C274:E274"/>
-    <mergeCell ref="B275:E275"/>
-    <mergeCell ref="B276:E276"/>
-    <mergeCell ref="B277:E277"/>
-    <mergeCell ref="C306:E306"/>
-    <mergeCell ref="C307:E307"/>
-    <mergeCell ref="B308:E308"/>
-    <mergeCell ref="B309:E309"/>
-    <mergeCell ref="B310:E310"/>
-    <mergeCell ref="B293:E293"/>
-    <mergeCell ref="B294:E294"/>
-    <mergeCell ref="C299:C301"/>
-    <mergeCell ref="C288:E288"/>
-    <mergeCell ref="C289:E289"/>
-    <mergeCell ref="B290:E290"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="C322:E322"/>
-    <mergeCell ref="C323:E323"/>
-    <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B325:E325"/>
-    <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B327:E327"/>
-    <mergeCell ref="B328:E328"/>
-    <mergeCell ref="C333:C335"/>
-    <mergeCell ref="B311:E311"/>
-    <mergeCell ref="B312:E312"/>
-    <mergeCell ref="C317:C319"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
